--- a/dist/market_stock_value_scoring.xlsx
+++ b/dist/market_stock_value_scoring.xlsx
@@ -14,921 +14,924 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="306">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Symbol_Google</t>
+  </si>
+  <si>
+    <t>Symbol_Yahoo</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Indices</t>
+  </si>
+  <si>
+    <t>Sectors</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>PriceToEarningsRatio</t>
+  </si>
+  <si>
+    <t>PriceToEarningsPercentile</t>
+  </si>
+  <si>
+    <t>PriceToSalesRatio</t>
+  </si>
+  <si>
+    <t>PriceToSalesPercentile</t>
+  </si>
+  <si>
+    <t>EV_EBITDA</t>
+  </si>
+  <si>
+    <t>EV_EBITDAPercentile</t>
+  </si>
+  <si>
+    <t>EV_R</t>
+  </si>
+  <si>
+    <t>EV_RPercentile</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Costco Wholesale Corporation</t>
+  </si>
+  <si>
+    <t>Wm Morrison Supermarkets PLC</t>
+  </si>
+  <si>
+    <t>adidas AG</t>
+  </si>
+  <si>
+    <t>JD Sports Fashion plc</t>
+  </si>
+  <si>
+    <t>United Parcel Service Inc.</t>
+  </si>
+  <si>
+    <t>Johnson Matthey PLC</t>
+  </si>
+  <si>
+    <t>Ford Motor Company</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc.</t>
+  </si>
+  <si>
+    <t>Ferguson PLC</t>
+  </si>
+  <si>
+    <t>Vodafone Group PLC</t>
+  </si>
+  <si>
+    <t>Walmart Inc.</t>
+  </si>
+  <si>
+    <t>NIKE Inc.</t>
+  </si>
+  <si>
+    <t>CRH PLC</t>
+  </si>
+  <si>
+    <t>Starbucks Corporation</t>
+  </si>
+  <si>
+    <t>NEXT PLC</t>
+  </si>
+  <si>
+    <t>Rentokil Initial PLC</t>
+  </si>
+  <si>
+    <t>DS Smith PLC</t>
+  </si>
+  <si>
+    <t>Ashtead Group PLC</t>
+  </si>
+  <si>
+    <t>Bunzl PLC</t>
+  </si>
+  <si>
+    <t>Caterpillar Inc.</t>
+  </si>
+  <si>
+    <t>Bayerische Motoren Werke AG</t>
+  </si>
+  <si>
+    <t>Exelon Corporation</t>
+  </si>
+  <si>
+    <t>Accenture PLC</t>
+  </si>
+  <si>
+    <t>Smiths Group PLC</t>
+  </si>
+  <si>
+    <t>Koninklijke Ahold Delhaize N.V.</t>
+  </si>
+  <si>
+    <t>FedEx Corporation</t>
+  </si>
+  <si>
+    <t>Pearson PLC</t>
+  </si>
+  <si>
+    <t>AVEVA Group plc</t>
+  </si>
+  <si>
+    <t>Daimler AG</t>
+  </si>
+  <si>
+    <t>Dow Inc.</t>
+  </si>
+  <si>
+    <t>Target Corporation</t>
+  </si>
+  <si>
+    <t>Intertek Group PLC</t>
+  </si>
+  <si>
+    <t>Tesla Inc.</t>
+  </si>
+  <si>
+    <t>Deutsche Post AG</t>
+  </si>
+  <si>
+    <t>Netflix Inc.</t>
+  </si>
+  <si>
+    <t>Booking Holdings Inc.</t>
+  </si>
+  <si>
+    <t>Spirax-Sarco Engineering PLC</t>
+  </si>
+  <si>
+    <t>Siemens AG</t>
+  </si>
+  <si>
+    <t>Tesco PLC</t>
+  </si>
+  <si>
+    <t>salesforce.com Inc.</t>
+  </si>
+  <si>
+    <t>PayPal Holdings Inc.</t>
+  </si>
+  <si>
+    <t>Lowe's Companies Inc.</t>
+  </si>
+  <si>
+    <t>General Dynamics Corporation</t>
+  </si>
+  <si>
+    <t>The Home Depot Inc.</t>
+  </si>
+  <si>
+    <t>Halma PLC</t>
+  </si>
+  <si>
+    <t>Experian PLC</t>
+  </si>
+  <si>
+    <t>Linde PLC</t>
+  </si>
+  <si>
+    <t>Duke Energy Corporation</t>
+  </si>
+  <si>
+    <t>E.ON SE</t>
+  </si>
+  <si>
+    <t>Charter Communications Inc.</t>
+  </si>
+  <si>
+    <t>Croda International PLC</t>
+  </si>
+  <si>
+    <t>Volkswagen AG</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>MRW</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>JMAT</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>FERG</t>
+  </si>
+  <si>
+    <t>VOD</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>NXT</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>SMDS</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>BNZL</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>SMIN</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>PSON</t>
+  </si>
+  <si>
+    <t>AVV</t>
+  </si>
+  <si>
+    <t>DAI</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>ITRK</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>DPW</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>SPX</t>
+  </si>
+  <si>
+    <t>SIE</t>
+  </si>
+  <si>
+    <t>TSCO</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>HLMA</t>
+  </si>
+  <si>
+    <t>EXPN</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>EOAN</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>CRDA</t>
+  </si>
+  <si>
+    <t>VOW3</t>
+  </si>
+  <si>
+    <t>NASDAQ:COST</t>
+  </si>
+  <si>
+    <t>LON:MRW</t>
+  </si>
+  <si>
+    <t>FRA:ADS</t>
+  </si>
+  <si>
+    <t>LON:JD</t>
+  </si>
+  <si>
+    <t>NYSE:UPS</t>
+  </si>
+  <si>
+    <t>LON:JMAT</t>
+  </si>
+  <si>
+    <t>NYSE:F</t>
+  </si>
+  <si>
+    <t>NASDAQ:AMZN</t>
+  </si>
+  <si>
+    <t>LON:FERG</t>
+  </si>
+  <si>
+    <t>NASDAQ:VOD</t>
+  </si>
+  <si>
+    <t>FRA:WMT</t>
+  </si>
+  <si>
+    <t>FRA:NKE</t>
+  </si>
+  <si>
+    <t>NYSE:CRH</t>
+  </si>
+  <si>
+    <t>NASDAQ:SBUX</t>
+  </si>
+  <si>
+    <t>LON:NXT</t>
+  </si>
+  <si>
+    <t>FRA:RTO</t>
+  </si>
+  <si>
+    <t>LON:SMDS</t>
+  </si>
+  <si>
+    <t>FRA:AHT</t>
+  </si>
+  <si>
+    <t>LON:BNZL</t>
+  </si>
+  <si>
+    <t>NYSE:CAT</t>
+  </si>
+  <si>
+    <t>FRA:BMW</t>
+  </si>
+  <si>
+    <t>NYSE:EXC</t>
+  </si>
+  <si>
+    <t>NYSE:ACN</t>
+  </si>
+  <si>
+    <t>LON:SMIN</t>
+  </si>
+  <si>
+    <t>AMS:AD</t>
+  </si>
+  <si>
+    <t>FRA:FDX</t>
+  </si>
+  <si>
+    <t>LON:PSON</t>
+  </si>
+  <si>
+    <t>LON:AVV</t>
+  </si>
+  <si>
+    <t>FRA:DAI</t>
+  </si>
+  <si>
+    <t>NYSE:DOW</t>
+  </si>
+  <si>
+    <t>NYSE:TGT</t>
+  </si>
+  <si>
+    <t>LON:ITRK</t>
+  </si>
+  <si>
+    <t>NASDAQ:TSLA</t>
+  </si>
+  <si>
+    <t>FRA:DPW</t>
+  </si>
+  <si>
+    <t>NASDAQ:NFLX</t>
+  </si>
+  <si>
+    <t>NASDAQ:BKNG</t>
+  </si>
+  <si>
+    <t>LON:SPX</t>
+  </si>
+  <si>
+    <t>FRA:SIE</t>
+  </si>
+  <si>
+    <t>LON:TSCO</t>
+  </si>
+  <si>
+    <t>NYSE:CRM</t>
+  </si>
+  <si>
+    <t>NASDAQ:PYPL</t>
+  </si>
+  <si>
+    <t>NYSE:LOW</t>
+  </si>
+  <si>
+    <t>NYSE:GD</t>
+  </si>
+  <si>
+    <t>NYSE:HD</t>
+  </si>
+  <si>
+    <t>LON:HLMA</t>
+  </si>
+  <si>
+    <t>LON:EXPN</t>
+  </si>
+  <si>
+    <t>FRA:LIN</t>
+  </si>
+  <si>
+    <t>NYSE:DUK</t>
+  </si>
+  <si>
+    <t>FRA:EOAN</t>
+  </si>
+  <si>
+    <t>NASDAQ:CHTR</t>
+  </si>
+  <si>
+    <t>LON:CRDA</t>
+  </si>
+  <si>
+    <t>FRA:VOW3</t>
+  </si>
+  <si>
+    <t>MRW.L</t>
+  </si>
+  <si>
+    <t>ADS.F</t>
+  </si>
+  <si>
+    <t>JD.L</t>
+  </si>
+  <si>
+    <t>JMAT.L</t>
+  </si>
+  <si>
+    <t>FERG.L</t>
+  </si>
+  <si>
+    <t>WMT.F</t>
+  </si>
+  <si>
+    <t>NKE.F</t>
+  </si>
+  <si>
+    <t>NXT.L</t>
+  </si>
+  <si>
+    <t>RTO.F</t>
+  </si>
+  <si>
+    <t>SMDS.L</t>
+  </si>
+  <si>
+    <t>AHT.F</t>
+  </si>
+  <si>
+    <t>BNZL.L</t>
+  </si>
+  <si>
+    <t>BMW.F</t>
+  </si>
+  <si>
+    <t>SMIN.L</t>
+  </si>
+  <si>
+    <t>AD.AS</t>
+  </si>
+  <si>
+    <t>FDX.F</t>
+  </si>
+  <si>
+    <t>PSON.L</t>
+  </si>
+  <si>
+    <t>AVV.L</t>
+  </si>
+  <si>
+    <t>DAI.F</t>
+  </si>
+  <si>
+    <t>ITRK.L</t>
+  </si>
+  <si>
+    <t>DPW.F</t>
+  </si>
+  <si>
+    <t>SPX.L</t>
+  </si>
+  <si>
+    <t>SIE.F</t>
+  </si>
+  <si>
+    <t>TSCO.L</t>
+  </si>
+  <si>
+    <t>HLMA.L</t>
+  </si>
+  <si>
+    <t>EXPN.L</t>
+  </si>
+  <si>
+    <t>LIN.F</t>
+  </si>
+  <si>
+    <t>EOAN.F</t>
+  </si>
+  <si>
+    <t>CRDA.L</t>
+  </si>
+  <si>
+    <t>VOW3.F</t>
+  </si>
+  <si>
+    <t>Costco Wholesale Corporation, together with its subsidiaries, engages in the operation of membership warehouses in the United States, Puerto Rico, Canada, the United Kingdom, Mexico, Japan, Korea, Australia, Spain, France, Iceland, China, and Taiwan. It offers branded and private-label products in a range of merchandise categories. The company provides dry and packaged foods, and groceries; snack foods, candies, alcoholic and nonalcoholic beverages, and cleaning supplies; appliances, electronics, health and beauty aids, hardware, and garden and patio products; meat, bakery, and deli products, as well as produce; and apparel and small appliances. It also operates pharmacies, optical dispensing centers, food courts, and hearing-aid centers, as well as 615 gas stations; and offers business delivery, travel, same-day grocery, and various other services online in various countries. As of October 07, 2020, the company operated 796 warehouses, including 552 in the United States and Puerto Rico, 102 in Canada, 39 in Mexico, 29 in the United Kingdom, 27 in Japan, 16 in South Korea, 13 in Taiwan, 12 in Australia, 3 in Spain, 1 in Iceland, 1 in France, and 1 in China. It also operates e-commerce websites in the United States, Canada, the United Kingdom, Mexico, South Korea, Taiwan, Japan, and Australia. The company was formerly known as Costco Companies, Inc. and changed its name to Costco Wholesale Corporation in August 1999. Costco Wholesale Corporation was founded in 1976 and is based in Issaquah, Washington.</t>
+  </si>
+  <si>
+    <t>Wm Morrison Supermarkets PLC operates retail supermarket stores under the Morrisons brand name in the United Kingdom. It engages in the in-store and online grocery retailing activities. The company also supplies eggs; manufactures and distributes fresh food, and morning goods and bread; wholesales flowers and plants; prepares and supplies seafood; processes fresh meat; invests in, develops, and maintains properties; and offers leasing, technical testing and analysis, and property partnership services, as well as holds pharmaceutical license and engages in real estate management activities. It operates through 497 supermarkets, 58 Morrisons Daily kiosks, and 338 petrol filling stations. The company was founded in 1899 and is headquartered in Bradford, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>adidas AG, together with its subsidiaries, designs, develops, distributes, and markets athletic and sports lifestyle products worldwide. The company operates through ten segments: Europe, North America Adidas, North America Reebok, Asia-Pacific, Russia/CIS, Latin America, Emerging Markets, Adidas Golf, Runtastic, and Other Centrally Managed Businesses. It offers footwear; apparel; accessories and gear, such as bags, balls, and fitness equipment; and golf products under the adidas and Reebok brands. The company is also involved in the operation of Runtastic, a digital health and fitness space; and Y-3 label business activities. It sells its products through approximately 2,500 own-retail stores; mono-branded franchise stores; and wholesale distribution, as well as its e-commerce channel. The company was formerly known as adidas-Salomon AG and changed its name to adidas AG in June 2006. adidas AG was founded in 1920 and is headquartered in Herzogenaurach, Germany.</t>
+  </si>
+  <si>
+    <t>JD Sports Fashion plc engages in the retail of branded sports fashion and outdoor clothing, footwear, accessories and equipment for kids, women, and men. It operates through Sports Fashion and Outdoor segments. The company also retails leisure goods, as well as distributes sports apparel and accessories, footwear and apparel, and rugby apparel and accessories. It offers its products under the JD, Size?, Footpatrol, Chausport, Sprinter, Sport Zone, Perry Sport and Aktiesport, Finish Line, Shoe Palace, Livestock, JD Gyms, Tessuti, Scotts, Mainline, Blacks, Millets, GO Outdoors, Tiso, Fishing Republic, and Naylors brands. The company also operates online business. In addition, it licenses fashion brands and operates fitness centers; and offers management consultancy services. The company operates 2,636 stores. It has operations in the United Kingdom, Australia, Austria, Belgium, Canada, Denmark, Dubai, Finland, France, Germany, Hong Kong, India, Italy, Malaysia, the Netherlands, New Zealand, Portugal, Republic of Ireland, Singapore, South Korea, Spain and the Canary Islands, Sweden, Thailand, and the United States. The company was founded in 1981 and is headquartered in Bury, the United Kingdom. JD Sports Fashion plc is a subsidiary of Pentland Group Limited.</t>
+  </si>
+  <si>
+    <t>United Parcel Service, Inc. provides letter and package delivery, transportation, logistics, and financial services. It operates through three segments: U.S. Domestic Package, International Package, and Supply Chain &amp; Freight. The U.S. Domestic Package segment offers time-definite delivery of letters, documents, small packages, and palletized freight through air and ground services in the United States. The International Package segment provides guaranteed day and time-definite international shipping services in Europe, the Asia Pacific, Canada and Latin America, the Indian sub-continent, the Middle East, and Africa. This segment offers guaranteed time-definite express options. The Supply Chain &amp; Freight segment provides international air and ocean freight forwarding, customs brokerage, distribution and post-sales, and mail and consulting services in approximately 200 countries and territories; and less-than-truckload and truckload services to customers in North America. This segment also offers truckload brokerage services; supply chain solutions to the healthcare and life sciences industry; shipping, visibility, and billing technologies; and financial and insurance services. The company operates a fleet of approximately 127,000 package cars, vans, tractors, and motorcycles; and owns 58,000 containers that are used to transport cargo in its aircraft. United Parcel Service, Inc. was founded in 1907 and is headquartered in Atlanta, Georgia.</t>
+  </si>
+  <si>
+    <t>Johnson Matthey Plc provides specialty chemicals in the United States, Germany, rest of Europe, the United States, rest of North America, China, rest of Asia, and internationally. It operates through four segments: Clean Air, Efficient Natural Resources, Health, and New Markets. The Clean Air segment provides catalysts for emission control after-treatment systems to remove harmful emissions from vehicles. This segment also offers catalysts for light duty vehicles powered by diesel and gasoline, heavy duty diesel trucks, buses, and non- road equipment. The Efficient Natural Resources segment provides products and processing services for the use and transformation of critical natural resources including oil, gas, biomass, and platinum group metals. The Health segment develops and manufactures active pharmaceutical ingredients (API) for various treatments. The New Markets segment offers battery materials, battery systems, and fuel cell technologies; science and technology to develop the products for devices used in medical procedures; and catalysts to pharmaceutical and agricultural chemicals markets. The company was formerly known as Johnson &amp; Cock and changed its name to Johnson Matthey Plc in 1851. Johnson Matthey Plc was founded in 1817 and is based in London, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Ford Motor Company designs, manufactures, markets, and services a range of Ford trucks, cars, sport utility vehicles, electrified vehicles, and Lincoln luxury vehicles worldwide. It operates through three segments: Automotive, Mobility, and Ford Credit. The Automotive segment sells Ford and Lincoln vehicles, service parts, and accessories through distributors and dealers, as well as through dealerships to commercial fleet customers, daily rental car companies, and governments. The Mobility segment designs and builds mobility services; and provides self-driving systems development services. The Ford Credit segment primarily engages in vehicle-related financing and leasing activities to and through automotive dealers. It provides retail installment sale contracts for new and used vehicles; and direct financing leases for new vehicles to retail and commercial customers, such as leasing companies, government entities, daily rental companies, and fleet customers. This segment also offers wholesale loans to dealers to finance the purchase of vehicle inventory; and loans to dealers to finance working capital and enhance dealership facilities, purchase dealership real estate, and other dealer vehicle programs. Ford Motor Company has a strategic collaboration with ARB Corporation Limited to develop a suite of aftermarket products for the new Ford Bronco. The company was founded in 1903 and is based in Dearborn, Michigan.</t>
+  </si>
+  <si>
+    <t>Amazon.com, Inc. engages in the retail sale of consumer products and subscriptions in North America and internationally. The company operates through three segments: North America, International, and Amazon Web Services (AWS). It sells merchandise and content purchased for resale from third-party sellers through physical and online stores. The company also manufactures and sells electronic devices, including Kindle, Fire tablets, Fire TVs, Rings, and Echo and other devices; provides Kindle Direct Publishing, an online service that allows independent authors and publishers to make their books available in the Kindle Store; and develops and produces media content. In addition, it offers programs that enable sellers to sell their products on its websites, as well as its stores; and programs that allow authors, musicians, filmmakers, skill and app developers, and others to publish and sell content. Further, the company provides compute, storage, database, analytics, machine learning, and other services, as well as fulfillment, advertising, publishing, and digital content subscriptions. Additionally, it offers Amazon Prime, a membership program, which provides free shipping of various items; access to streaming of movies and TV episodes; and other services. The company serves consumers, sellers, developers, enterprises, and content creators. Amazon.com, Inc. was founded in 1994 and is headquartered in Seattle, Washington.</t>
+  </si>
+  <si>
+    <t>Ferguson plc distributes plumbing and heating products in the United States, the United Kingdom, Canada, and Central Europe. It offers plumbing and heating solutions to customers in the residential, municipal, civil and industrial markets, and commercial sectors for repair, maintenance, and improvement (RMI), as well as new construction markets. The company also distributes pipes, valves, fittings, hydrants, meters, and related water management products, as well as offers related services, such as water line tapping and pipe fusion services. In addition, it distributes heating, ventilation, air conditioning, refrigeration equipment, and parts and supplies to specialist contractors in the residential and commercial markets for repair and replacement; and PVF products to industrial customers. Further, the company fabricates and supplies fire protection systems and bespoke fabrication services to commercial contractors for new construction and renovation projects, as well as offers products, services, and solutions to enable maintenance of facilities across various RMI markets. Additionally, it offers supply chain management solutions for PVF; and industrial maintenance, repair, and operations specializing in delivering automation, instrumentation, engineered products, and turn-key solutions. The company also sells its home improvement products directly to consumers, as well as through a network of online stores. In addition, it operates its B2B business primarily under the Ferguson brand; and B2C business under the Build.com brand. Further, the company provides products and services for maintenance of multi-family properties, government agencies, hospitality, education, healthcare, and other facilities. It operates a network of 2,194 branches and 19 distribution centers. Ferguson plc was founded in 1887 and is headquartered in Wokingham, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Vodafone Group Plc engages in telecommunication services in Europe and internationally. The company offers mobile services that enable customers to call, text, and access data; fixed line services, including broadband, television (TV) offerings, and voice; and convergence services under the GigaKombi and Vodafone One names to customers. It also provides value added services, such as Internet of Things (IoT) comprising logistics and fleet management, smart metering, insurance, cloud, and security services; and automotive and health solutions. In addition, the company offers M-Pesa, an African payment platform, which provides money transfer, financial, and business and merchant payment services; and various services to operators through its partner market agreements. Vodafone Group Plc has strategic partnerships with Open Fiber. As of March 31, 2021, it had approximately 315 million mobile customers, 28 million fixed broadband customers, and 22 million TV customers. The company was incorporated in 1984 and is based in Newbury, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Walmart Inc. engages in the operation of retail, wholesale, and other units worldwide. The company operates through three segments: Walmart U.S., Walmart International, and Sam's Club. It operates supercenters, supermarkets, hypermarkets, warehouse clubs, cash and carry stores, and discount stores; membership-only warehouse clubs; ecommerce websites, such as walmart.com, walmart.com.mx, walmart.ca, flipkart.com, and samsclub.com; and mobile commerce applications. The company offers grocery products, including dry grocery, snacks, dairy, meat, produce, deli and bakery, frozen foods, and alcoholic and nonalcoholic beverages, as well as consumables, such as health and beauty aids, pet supplies, household chemicals, paper goods, and baby products; and health and wellness products covering pharmacy, over-the-counter drugs and other medical products, and optical and clinical services. It also provides gasoline stations and tobacco; home improvement, outdoor living, gardening, furniture, apparel, and jewelry, as well as tools and power equipment, housewares, toys, seasonal items, mattresses, and tire and battery centers; and consumer electronics and accessories, software, video games, office supplies, appliances, and third-party gift cards. In addition, the company offers fuel and financial services and related products, including money orders, prepaid cards, money transfers, and check cashing and bill payment. It operates approximately 11,400 stores and various e-commerce websites under 54 banners in 26 countries. The company was formerly known as Wal-Mart Stores, Inc. and changed its name to Walmart Inc. in February 2018. Walmart Inc. was founded in 1945 and is based in Bentonville, Arkansas.</t>
+  </si>
+  <si>
+    <t>NIKE, Inc., together with its subsidiaries, designs, develops, markets, and sells athletic footwear, apparel, equipment, and accessories worldwide. The company offers NIKE brand products in six categories, including running, NIKE basketball, the Jordan brand, football, training, and sportswear. It also markets products designed for kids, as well as for other athletic and recreational uses, such as American football, baseball, cricket, golf, lacrosse, skateboarding, tennis, volleyball, walking, wrestling, and other outdoor activities; and apparel with licensed college and professional team and league logos, as well as sells sports apparel. In addition, the company sells a line of performance equipment and accessories comprising bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment, and other equipment for sports activities; and various plastic products to other manufacturers. Further, it provides athletic and casual footwear, apparel, and accessories under the Jumpman trademark; casual sneakers, apparel, and accessories under the Converse, Chuck Taylor, All Star, One Star, Star Chevron, and Jack Purcell trademarks; and action sports and youth lifestyle apparel and accessories under the Hurley trademark. Additionally, the company licenses agreements that permit unaffiliated parties to manufacture and sell apparel, digital devices, and applications and other equipment for sports activities under NIKE-owned trademarks. It sells its products to footwear stores; sporting goods stores; athletic specialty stores; department stores; skate, tennis, and golf shops; and other retail accounts through NIKE-owned retail stores, digital platforms, independent distributors, licensees, and sales representatives. The company was formerly known as Blue Ribbon Sports, Inc. and changed its name to NIKE, Inc. in 1971. NIKE, Inc. was founded in 1964 and is headquartered in Beaverton, Oregon.</t>
+  </si>
+  <si>
+    <t>CRH plc, through its subsidiaries, manufactures and distributes building materials. It operates in three segments: Americas Materials, Europe Materials, and Building Products. The company manufactures and supplies cement, lime, aggregates, precast, ready mixed concrete, and asphalt products; concrete masonry and hardscape products comprising pavers, kerbs, retaining walls, and related patio products; and glass and glazing products, including architectural glass, custom-engineered curtain and window walls, architectural windows, storefront systems, doors, skylights, and architectural hardware. It also offers precast concrete and polymer-based products, such as underground vaults, drainage pipes and structures, utility enclosures, and modular precast structures to the water, energy, communication, transportation, and building structures markets; and construction accessories, such as anchoring, fixing, and connection solutions, as well as lifting systems, formwork accessories, and other accessories used in construction applications. In addition, the company offers network access products, which include composite access chambers, covers, passive safety systems, retention sockets, sealants, and meter boxes; and paving and construction services. Further, it provides building and civil engineering contracting, contract surfacing, operates logistics and owned railway infrastructure; sells and distributes cement; and supplies access chambers and ducting products. It serves governments, contractors, homebuilders, homeowners, and sub-contractors. The company operates primarily in the Republic of Ireland, the United Kingdom, the rest of Europe, the United States, and internationally. CRH plc was founded in 1936 and is headquartered in Dublin, Ireland.</t>
+  </si>
+  <si>
+    <t>Starbucks Corporation, together with its subsidiaries, operates as a roaster, marketer, and retailer of specialty coffee worldwide. The company operates through three segments: Americas, International, and Channel Development. Its stores offer coffee and tea beverages, roasted whole bean and ground coffees, single-serve and ready-to-drink beverages, and iced tea; and various food products, such as pastries, breakfast sandwiches, and lunch items. The company also licenses its trademarks through licensed stores, and grocery and foodservice accounts. The company offers its products under the Starbucks, Teavana, Seattle's Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve, and Princi brand names. As of October 29, 2020, it operated approximately 32,000 stores. Starbucks Corporation was founded in 1971 and is based in Seattle, Washington.</t>
+  </si>
+  <si>
+    <t>NEXT plc engages in the retail of clothing, footwear, and home products in the United Kingdom, rest of Europe, the Middle East, Asia, and internationally. The company operates through NEXT Retail, NEXT Online, NEXT Finance, NEXT International Retail, NEXT Sourcing, Lipsy, NENA, and Property Management segments. It operates retail stores; an online retail platform; and 190 franchise stores in 36 countries. The company also offers consumer credit; NEXT branded products; and women's, men's, children's, home, and beauty products under the LABEL and Lipsy's own brand, and other third-party brands. In addition, it provides property management services, including holding and lease of properties. The company was formerly known as J Hepworth &amp; Son and changed its name to NEXT plc in 1986. NEXT plc was founded in 1864 and is headquartered in Enderby, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Rentokil Initial plc, together with its subsidiaries, provides route-based services in North America, the United Kingdom, rest of Europe, Asia, the Pacific, and internationally. It offers a range of pest control services from rodents to flying and crawling insects, as well as to other forms of wildlife management for commercial and residential customers. The company also provides hygiene services, including the provision and maintenance of products, such as air fresheners, sanitizers, feminine hygiene units, hand dryers, paper and linen towel dispensers, soap and hand sanitizer dispensers, toilet paper dispensers, and floor protection mats. In addition, it engages in the supply and laundering of workwear, uniforms, cleanroom uniforms, and protective equipment. Further, the company installs and services interior and exterior plant displays, flowers, replica foliage, Christmas decorations, and ambient scenting for commercial businesses; offers property care services consisting of damp proofing, property conservation, and woodworm and wood rot treatment; and provides a range of specialist cleaning services, such as deep cleaning of kitchens and washrooms, trauma cleaning, and flood or fire damage cleaning, as well as graffiti removal, specialist deep cleaning, and disinfection services, including the professional and discreet disinfection of areas that have been exposed to bio-hazardous situations, such as crime and trauma scenes, prison cells, void properties, emergency vehicles, and healthcare establishments. Additionally, it offers a range of healthcare waste management services comprising the collection, disposal, and recycling of hazardous and offensive waste produced by businesses and organizations associated with the provision of healthcare; and color-coded sharps disposal bins to deal with various types of waste. Rentokil Initial plc was founded in 1903 and is headquartered in Camberley, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>DS Smith Plc provides packaging solutions, paper products, and recycling services worldwide. The company offers transit and transport, consumer, retail and shelf ready, online and e-retail, industrial, hazardous, multi-material, inserts and cushioning, and electrostatic discharge packaging products, as well as wrap arounds, trays, and bag-in-boxes; displays and promotional packaging products; corrugated pallets; Sheetfeeding products; packaging machine systems; and Sizzlepak, a stuffing material made of paper, folded in a zigzag shape, and cut into narrow strips, as well as provides outdoor advertising services. It also provides various recycling and waste management services, including total waste management, paper and cardboard recycling, confidential shredding, and plastics recycling, as well as equipment for the retail, manufacturing, print and publishing, paper mills, automotive, and public sectors. In addition, the company offers recycled corrugated case materials, specialty papers, and kraft papers, as well as related technical and supply chain services. It provides its packaging solutions for the food and drink, consumer goods, industrial, e-commerce and e-retail, and converter industries. The company was formerly known as David S. Smith (Holdings) PLC and changed its name to DS Smith Plc in 2001. DS Smith Plc was founded in 1940 and is headquartered in London, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Ashland Global Holdings Inc. provides specialty chemical solutions worldwide. The company's Specialty Ingredients segment offers products, technologies, and resources for solving formulation and product-performance challenges. It provides solutions using natural, synthetic, and semisynthetic polymers derived from cellulose ethers, vinyl pyrrolidones, acrylic polymers, polyester and polyurethane-based adhesives, and plant and seed extracts. This segment offers its solutions for the pharmaceutical companies; makers of personal care products, food, and beverages; makers of nutraceuticals and supplements; manufacturers of paint, coatings, and construction materials; packaging and converting markets; and oilfield service companies. Its Intermediates and Solvents produces 1,4 butanediol and related derivatives, including n-methylpyrrolidone that are used as chemical intermediates in the production of engineering polymers and polyurethanes, as well as specialty process solvents used in electronics, pharmaceuticals, water filtration membranes, and others. The company was formerly known as Ashland Inc. and changed its name to Ashland Global Holdings Inc. in September 2016. Ashland Global Holdings Inc. was founded in 1924 and is headquartered in Covington, Kentucky.</t>
+  </si>
+  <si>
+    <t>Bunzl plc operates as a distribution and services company in the North America, Continental Europe, the United Kingdom, Ireland, and internationally. The company offers food packaging, films, labels, counter-service packaging, foodservice disposables, take-out food packaging, first aid products, point of purchase displays, stationery, bags, and cleaning and hygiene supplies to grocery stores, supermarkets, retail chains, convenience stores, food wholesalers, ethnic grocers, and organic food outlets. It also provides food packaging, napkins, disposable tableware, food service disposables, guest amenities, light and heavy catering equipment, cleaning and hygiene products, and safety items to hotels, restaurants, caterers, the leisure sector, and food processors and packers; and footwear, gloves, safety helmets, workwear, harness equipment, tools, safety signs, traffic management, and ancillary site equipment, as well as ear, eye, respiratory, and face protection products to customers in the industrial and construction markets. In addition, the company offers cleaning systems, floorcare items, hand cleansing products, hygiene paper, janitorial products, cleaning machines, mops, polishes, and protective clothing and washroom chemicals to facilities management companies, contract cleaners, and other industrial and healthcare customers; and counter service packaging, point of purchase display items, stationery, and cleaning and hygiene products to department stores, boutiques, office supply companies, retail chains, and home improvement chains. Further, it provides gloves, aprons, bandages, facemasks, gowns, headwear, mattress covers, overshoes, procedure packs, tapes, wipes, incontinence products, and swabs to the healthcare sector, including hospitals, retirement and nursing homes, and doctors' surgeries and clinics; and various products to government and education establishments. Bunzl plc was founded in 1854 and is headquartered in London, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Caterpillar Inc. manufactures and sells construction and mining equipment, diesel and natural gas engines, industrial gas turbines, and diesel-electric locomotives worldwide. Its Construction Industries segment offers asphalt pavers, compactors, cold planers, motorgraders, pipelayers, road reclaimers, telehandlers, and utility vehicles; backhoe, compact track, multi-terrain, skid steer, and track-type loaders; forestry and wheel excavators; and site prep and track-type tractors. The company's Resource Industries segment provides electric rope and hydraulic shovels, draglines, rotary drills, hard rock vehicles, track-type tractors, mining trucks, longwall miners, wheel loaders, off-highway and articulated trucks, wheel tractor scrapers, wheel dozers, landfill and soil compactors, machinery components, autonomous ready vehicles and solutions, and select work tools. Its Energy &amp; Transportation segment offers reciprocating engine powered generator sets; reciprocating engines and integrated systems for the power generation, marine, oil, and gas industries; turbines, centrifugal gas compressors, and related services; remanufactured reciprocating engines and components; and diesel-electric locomotives and components, and other rail-related products. The company's Financial Products segment provides operating and finance leases, installment sale contracts, working capital loans, and wholesale financing; and insurance and risk management, as well as other equipment-related loans. Its All Other Operating segment offers filters and fluids, undercarriage, ground engaging tools, fluid transfer products, precision seals, and rubber sealing and connecting components; parts distribution; integrated logistics solutions; portfolio management; brand management and marketing strategy; and digital investments services. The company was formerly known as Caterpillar Tractor Co. The company was founded in 1925 and is headquartered in Deerfield, Illinois.</t>
+  </si>
+  <si>
+    <t>Bayerische Motoren Werke AG, together with its subsidiaries, develops, manufactures, and sells automobiles and motorcycles, and spare parts and accessories worldwide. It operates through Automotive, Motorcycles, and Financial Services segments. The Automotive segment develops, manufactures, assembles, and sells passenger cars, including off-road vehicles as well as spare parts, accessories, and mobility services under the BMW, MINI and Rolls-Royce brands. This segment sells its products through independent and authorized dealerships. The Motorcycles segment develops, manufactures, assembles, and sells motorcycles under the BMW Motorrad brand, as well as spare parts and accessories. The Financial Services segment engages in the multi-brand, retail and dealership financing, customer deposit, and insurance activities; and provision of fleet financing services under the Alphabet brand. Bayerische Motoren Werke AG was founded in 1916 and is based in Munich, Germany.</t>
+  </si>
+  <si>
+    <t>Exelon Corporation, a utility services holding company, engages in the energy generation, delivery, and marketing businesses in the United States and Canada. It owns nuclear, fossil, wind, hydroelectric, biomass, and solar generating facilities. The company also sells electricity to wholesale and retail customers; and sells natural gas, renewable energy, and other energy-related products and services. In addition, it is involved in the purchase and regulated retail sale of electricity and natural gas; and transmission and distribution of electricity, and distribution of natural gas to retail customers. Further, the company offers support services, including legal, human resources, information technology, financial, supply management, accounting, engineering, customer operations, distribution and transmission planning, asset management, system operations, and power procurement services. It serves distribution utilities, municipalities, cooperatives, and financial institutions, as well as commercial, industrial, governmental, and residential customers. The company was incorporated in 1999 and is headquartered in Chicago, Illinois.</t>
+  </si>
+  <si>
+    <t>Accenture plc, a professional services company, provides strategy and consulting, interactive, and technology and operations services worldwide. The company also provides outsourcing services. It serves communications, media, high tech, software, and platform companies; banking, capital market, and insurance industries; and consumer goods, retail, travel services, industrial, and life science industries, as well as clients in health, public service, chemicals and natural resources, energy, and utilities sectors. Accenture plc has alliance relationships with Adobe, Alibaba, Amazon Web Services, Blue Yonder, Cisco, Dell, Google, HPE, IBM RedHat, Microsoft, Oracle, Pegasystems, Salesforce, SAP, ServiceNow, VMWare, Workday, Massachusetts Institute of Technology, Institut Polytechnique de Paris, CNH Industrial, and Reactive Technologies. The company was incorporated in 2009 and is based in Dublin, Ireland.</t>
+  </si>
+  <si>
+    <t>Smiths Group plc operates as a technology company serving the medical technology, security and defense, general industrial, energy, and space and aerospace markets worldwide. It operates through John Crane, Smiths Detection, Flex-Tek, Smiths Interconnect divisions. The John Crane division offers mechanical seals, seal support systems, hydrodynamic bearings, packing materials, power transmission couplings, and specialized filtration systems. The Smiths Detection division provides sensors and systems that detect and identify explosives, narcotics, weapons, chemical agents, biohazards, and contraband. The Flex-Tek division offers engineered components that heat and move fluids and gases for the aerospace, medical, industrial, construction, and domestic appliance markets. The Smiths Interconnect division provides specialized electronic and radio frequency board-level and waveguide devices, connectors, cables, test sockets, and sub-systems for applications in the security and defense, medical, general industrial, and space and aerospace markets. The company was formerly known as Smiths Industries and changed its name to Smiths Group plc in 2000. Smiths Group plc was founded in 1851 and is headquartered in London, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Koninklijke Ahold Delhaize N.V. operates retail food stores and e-commerce primarily in the United States and Europe. The company's store formats include supermarkets, convenience stores, compact hypermarkets, cash and carry, drugstores, hypermarkets, and liquor stores. As of January 3, 2021, it operated 7,137 stores primarily under local brands serving approximately 54 million customers, as well as online. The company was formerly known as Koninklijke Ahold N.V. and changed its name to Koninklijke Ahold Delhaize N.V. in July 2016. Koninklijke Ahold Delhaize N.V. was founded in 1887 and is headquartered in Zaandam, the Netherlands.</t>
+  </si>
+  <si>
+    <t>FedEx Corporation provides transportation, e-commerce, and business services worldwide. The company's FedEx Express segment offers express transportation, small-package ground delivery, and freight transportation services; time-critical transportation services; and cross-border e-commerce technology and e-commerce transportation solutions. Its FedEx Ground segment provides day-certain delivery services to businesses and residences. The company's FedEx Freight segment offers less-than-truckload freight transportation services. Its FedEx Services segment provides sales, marketing, information technology, communications, customer service, technical support, billing and collection, and back-office function services. The company's Corporate, Other and Eliminations segment offers integrated supply chain management solutions, specialty transportation, customs brokerage, and global ocean and air freight forwarding services; and an array of document and business services, and retail access to its customers for its package transportation businesses. The company was founded in 1971 and is based in Memphis, Tennessee.</t>
+  </si>
+  <si>
+    <t>Pearson plc provides educational materials and learning technologies. The company operates in four segments: Global Online Learning, Global Assessment, North America Courseware, and International. It provides test development, processing, and scoring services to governments, educational institutions, corporations, and professional bodies. The company also offers content across the curriculum and a range of education services, including teacher development, educational software, and system-wide solutions, as well as owns and operates colleges and schools comprising virtual schools. It provides content, assessment, and digital services to schools, colleges, and universities, as well as professional and vocational education to learners. Pearson plc was founded in 1844 and is headquartered in London, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>AVEVA Group plc, through its subsidiaries, provides engineering and industrial software solutions in the Asia Pacific, Europe, the Middle East, Africa, and the Americas. The company offers engineering, procurement, and construction; asset performance management; monitoring and control; planning and scheduling; and operation and optimization industrial software solutions. It also provides digital transformation solutions covering artificial intelligence, cloud, digital twin, edge, extended reality, and Industrial Internet of Things products; and customer support and training services. The company serves customers in the chemicals, food and beverage, consumer packaged goods, infrastructure, life sciences, marine, mining, oil and gas, power and utilities, pulp and paper, steel fabrication, and water and wastewater industries. The company was founded in 1967 and is headquartered in Cambridge, the United Kingdom. AVEVA Group plc is a subsidiary of Schneider Electric S.E.</t>
+  </si>
+  <si>
+    <t>Daimler AG, together its subsidiaries, develops and manufactures passenger cars, trucks, vans, and buses in Germany and internationally. It operates through Mercedes-Benz Cars &amp; Vans, Daimler Trucks and Buses, and Daimler Mobility segments. The Mercedes-Benz Cars segment offers premium and luxury vehicles of the Mercedes-Benz brand, including the Mercedes-AMG, Mercedes-Maybach, and Mercedes-EQ brands; small cars under the smart brand name; and ecosystem of Mercedes-Benz under the Mercedes me brand, as well as vans and related services under the Mercedes-Benz and Freightliner brands. Daimler Trucks and Buses segment offers its trucks and special vehicles under the Mercedes-Benz, Freightliner, Western Star, FUSO, and BharatBenz brands; and buses under the Mercedes-Benz, Setra, Thomas Built Buses, and FU brands, as well as bus chassis. The Daimler Mobility segment provides financing and leasing packages for end-customers and dealers; and automotive insurance brokerage, banking, investment, and fleet management services under the Athlon brand. It also sells vehicle related spare parts and accessories. Daimler AG was founded in 1886 and is headquartered in Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Dow Inc. provides various materials science solutions for consumer care, infrastructure, and packaging markets in the United States, Canada, Europe, the Middle East, Africa, India, the Asia Pacific, and Latin America. It operates through Packaging &amp; Specialty Plastics, Industrial Intermediates &amp; Infrastructure, and Performance Materials and Coatings segments. The Packaging &amp; Specialty Plastics segment provides ethylene, and propylene and aromatics products; and polyethylene, polyolefin elastomers, ethylene vinyl acetate, and ethylene propylene diene monomer rubbers. The Industrial Intermediates &amp; Infrastructure segment offers ethylene oxides, propylene oxide, propylene glycol and polyether polyols, aromatic isocyanates and polyurethane systems, coatings, adhesives, sealants, elastomers, and composites. This segment also provides caustic soda, and ethylene dichloride and vinyl chloride monomers; and cellulose ethers, redispersible latex powders, silicones, and acrylic emulsions. The Performance Materials and Coatings segment provides architectural paints and coatings, and industrial coatings that are used in maintenance and protective industries, wood, metal packaging, traffic markings, thermal paper, and leather; performance monomers and silicones; standalone silicones; and home and personal care solutions. It also engages in property and casualty insurance, as well as reinsurance business. Dow Inc. was incorporated in 2018 and is headquartered in Midland, Michigan.</t>
+  </si>
+  <si>
+    <t>Target Corporation operates as a general merchandise retailer in the United States. The company offers food assortments, including perishables, dry grocery, dairy, and frozen items; apparel, accessories, home dÃ©cor products, electronics, toys, seasonal offerings, food, and other merchandise; and beauty and household essentials. It also provides in-store amenities, such as Target CafÃ©, Target Optical, Starbucks, and other food service offerings. The company sells its products through its stores; and digital channels, including Target.com. As of January 30, 2021, the company operated approximately 1,897 stores. Target Corporation was founded in 1902 and is headquartered in Minneapolis, Minnesota.</t>
+  </si>
+  <si>
+    <t>Intertek Group plc provides quality assurance solutions to various industries worldwide. It operates in three segments: Products, Trade, and Resources. The Products segment offers assurance, testing, inspection, and certification services (ATIC), including laboratory safety, quality and performance testing, second-party supplier auditing, sustainability analysis, products assurance, vendor compliance, process performance analysis, facility plant and equipment verification, and third party certification. This segment serves a range of industries, including textiles, footwear, toys, hardlines, home appliances, consumer electronics, information and communication technology, automotive, aerospace, lighting, building products, industrial and renewable energy products, food and hospitality, healthcare and beauty, and pharmaceuticals. The Trade segment provides cargo inspection, analytical assessment, calibration, and related research and technical services to the petroleum and biofuels industries; inspection services to governments and regulatory bodies to support trade activities; and analytical and testing services to agricultural trading companies and growers. The Resources segment offers technical inspection, asset integrity management, analytical testing, and ongoing training services for the oil, gas, nuclear, and power industries. This segment also provides a range of ATIC service solutions to the mining and minerals exploration industries covering the resource supply chain from exploration and resource development, through to production, shipping, and commercial settlement. The company also offers cyber security services. Intertek Group plc was founded in 1885 and is based in London, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Tesla, Inc. designs, develops, manufactures, leases, and sells electric vehicles, and energy generation and storage systems in the United States, China, and internationally. The company operates in two segments, Automotive, and Energy Generation and Storage. The Automotive segment offers electric vehicles, as well as sells automotive regulatory credits. It provides sedans and sport utility vehicles through direct and used vehicle sales, a network of Tesla Superchargers, and in-app upgrades; and purchase financing and leasing services. This segment is also involved in the provision of non-warranty after-sales vehicle services, sale of used vehicles, retail merchandise, and vehicle insurance, as well as sale of products through its subsidiaries to third party customers; services for electric vehicles through its company-owned service locations, and Tesla mobile service technicians; and vehicle limited warranties and extended service plans. The Energy Generation and Storage segment engages in the design, manufacture, installation, sale, and leasing of solar energy generation and energy storage products, and related services to residential, commercial, and industrial customers and utilities through its website, stores, and galleries, as well as through a network of channel partners. This segment also offers service and repairs to its energy product customers, including under warranty; and various financing options to its solar customers. The company was formerly known as Tesla Motors, Inc. and changed its name to Tesla, Inc. in February 2017. Tesla, Inc. was founded in 2003 and is headquartered in Palo Alto, California.</t>
+  </si>
+  <si>
+    <t>Deutsche Post AG operates as a mail and logistics company in Germany, rest of Europe, the Americas, the Asia Pacific, the Middle East, and Africa. The company operates through five segments: Post &amp; Parcel Germany; Express; Global Forwarding, Freight; Supply Chain; and eCommerce Solutions. The Post &amp; Parcel Germany segment transports and delivers mail, letters, parcels, physical and hybrid letters, special products for merchandize, and registered mail to private and business customers. It also provides additional services, such as registered mail, cash on delivery, and insured items. The Express segment transport and offers time-definite international (TDI) shipments comprising urgent documents and goods. The Global Forwarding, Freight segment transports goods by air, ocean, and overland; and offers multimodal and sector-specific solutions. This segment's business model is based on brokering transport services between customers and freight carriers. The Supply Chain segment provides contract logistics solutions, including warehousing and transport services; and value-added services, such as e-fulfilment, lead logistics partner, real estate solutions, service logistics, and packaging solutions for various industrial sectors. The eCommerce Solutions segment provides parcel delivery and cross-border non-TDI services. Deutsche Post AG is headquartered in Bonn, Germany.</t>
+  </si>
+  <si>
+    <t>Netflix, Inc. provides entertainment services. It offers TV series, documentaries, and feature films across various genres and languages. The company provides members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, television set-top boxes, and mobile devices. It also provides DVDs-by-mail membership services. The company has approximately 204 million paid members in 190 countries. Netflix, Inc. was founded in 1997 and is headquartered in Los Gatos, California.</t>
+  </si>
+  <si>
+    <t>Booking Holdings Inc. provides travel and restaurant online reservation and related services worldwide. The company operates Booking.com, which offers online accommodation reservations; Rentalcars.com that provides online rental car reservation services; Priceline, which offer online travel reservation services, including hotel, rental car and airline ticket reservation services, as well as vacation packages and cruises; and Agoda that provides online accommodation reservation services, as well as flight, ground transportation and activities reservation services. It also operates KAYAK, an online price comparison service that allows consumers to search and compare travel itineraries and prices, comprising airline ticket, accommodation reservation, and rental car reservation information; and OpenTable for booking online restaurant reservations. Further, it offers travel-related insurance products, and restaurant management services. The company was formerly known as The Priceline Group Inc. and changed its name to Booking Holdings Inc. in February 2018. Booking Holdings Inc. was founded in 1997 and is headquartered in Norwalk, Connecticut.</t>
+  </si>
+  <si>
+    <t>Spirax-Sarco Engineering plc provides engineered solutions for the users of industrial and commercial steam systems, electrical heating and temperature management systems, and pumps and fluid path technologies. It offers industrial and commercial steam systems, including condensate management, controls, and thermal energy management products and solutions for heating and curing, cleaning and sterilizing, hot water generation, space heating, and humidification; electrical process heating and temperature management solutions, such as industrial heaters and systems, heat tracing, and various component technologies for industrial processes, heaters, and systems; and peristaltic and niche pumps and associated fluid path technologies, including pumps, tubing, and specialty filling systems and products for single-use applications. The company serves food, beverage, pharmaceutical and biotechnology, oil, gas, chemical, healthcare, power generation, buildings, mining and precious metal processing, water and wastewater, and pulp and paper, as well as original equipment manufacturers. The company sells its products directly, as well as through distributors. It operates in Europe, the Middle East, and Africa; the Asia Pacific; and the Americas. Spirax-Sarco Engineering plc was founded in 1888 and is headquartered in Cheltenham, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Siemens Aktiengesellschaft, a technology company, focuses in the areas of automation and digitalization in Europe, Commonwealth of Independent States, Africa, the Middle East, the Americas, Asia, and Australia. Its Digital Industries segment offers automation systems and software for factories, numerical control systems, motors, drives and inverters, and integrated automation systems for machine tools and production machines; process control systems, machine-to-machine communication products, sensors and radio frequency identification systems; production and product lifecycle management software; mechatronic systems simulation and testing software; and cloud-based industrial Internet of Things operating system. The company's Smart Infrastructure segment supplies and connects energy systems and building technologies to enhance efficiency and sustainability; and supports customers to address technology shifts. Its Mobility segment provides passenger and freight transportation, such as rail vehicles, rail automation and electrification systems, road traffic technology, digital solutions, and related services; and mobility system services. The company's Siemens Healthineers segment offers medical technology and software solutions; and clinical consulting and training services. Its Siemens Financial Services segment provides leasing solutions and equipment; and debt and equity investment products. The company was founded in 1847 and is headquartered in Munich, Germany.</t>
+  </si>
+  <si>
+    <t>Tesco PLC, together with its subsidiaries, engages in retailing and retail banking activities. It provides food products in stores and online; and operates mobile virtual network. The company is also involved in the food wholesaling activities; and provision of banking, insurance, and money services. It operates in the United Kingdom, Republic of Ireland, the Czech Republic, Slovakia, and Hungary. Tesco PLC was founded in 1919 and is headquartered in Welwyn Garden City, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>salesforce.com, inc. develops enterprise cloud computing solutions with a focus on customer relationship management worldwide. The company offers Sales Cloud to store data, monitor leads and progress, forecast opportunities, and gain insights through analytics and relationship intelligence, as well as deliver quotes, contracts, and invoices. It also provides Service Cloud, which enables companies to deliver personalized customer service and support, as well as a field service solution that enables companies to connect agents, dispatchers, and mobile employees through a centralized platform, which helps to schedule and dispatch work, and track and manage jobs in real-time. In addition, the company offers Marketing Cloud to plan, personalize, and optimize one-to-one customer marketing interactions; and Commerce Cloud, which enables companies to enhance engagement, conversion, revenue, and loyalty from their customers. Further, it provides Customer 360 Platform that offers no-code to pro-code Platform-as-a-Service tools for building, securing, integrating, and managing the business apps; MuleSoft Anypoint Platform enables customers to connect any system, application, data, or device; Quip collaboration platform, which combines documents, spreadsheets, apps, and chat with live CRM data; and Tableau and Einstein Analytics, provides analytical technology to customers. Additionally, the company offers various solutions for financial services, healthcare and life sciences, manufacturing, consumer goods, government, and philanthropy. The company also provides professional services and education services, including instructor-led and online courses; and support and adoption programs. It provides its services through direct sales; and consulting firms, systems integrators, and other partners. Salesforce and Siemens has a strategic partnership. The company was founded in 1999 and is headquartered in San Francisco, California.</t>
+  </si>
+  <si>
+    <t>PayPal Holdings, Inc. operates as a technology platform and digital payments company that enables digital and mobile payments on behalf of consumers and merchants worldwide. Its payment solutions include PayPal, PayPal Credit, Braintree, Venmo, Xoom, Hyperwallet, and iZettle products. The company's payments platform allows consumers to send and receive payments, withdraw funds to their bank accounts, and hold balances in their PayPal accounts in various currencies. It also offers gateway services that enable merchants to accept payments online with credit or debit cards, as well as digital wallets. PayPal Holdings, Inc. was founded in 1998 and is headquartered in San Jose, California.</t>
+  </si>
+  <si>
+    <t>Lowe's Companies, Inc., together with its subsidiaries, operates as a home improvement retailer in the United States and internationally. The company offers a line of products for construction, maintenance, repair, remodeling, and decorating. It provides home improvement products in various categories, such as appliances, dÃ©cor, paint, hardware, millwork, lawn and garden, lighting, lumber and building materials, flooring, kitchens and bath, rough plumbing and electrical, seasonal and outdoor living, and tools. It also offers installation services through independent contractors in various product categories; extended protection plans; and in-warranty and out-of-warranty repair services. The company sells its national brand-name merchandise and private branded products to homeowners, renters, and professional customers. As of January 29, 2021, it operated 1,974 home improvement and hardware stores. The company also sells its products through websites comprising Lowes.com and Lowesforpros.com; and through mobile applications. Lowe's Companies, Inc. was founded in 1921 and is based in Mooresville, North Carolina.</t>
+  </si>
+  <si>
+    <t>General Dynamics Corporation operates as an aerospace and defense company worldwide. It operates through four segments: Aerospace, Marine Systems, Combat Systems, and Technologies. The Marine Systems segment designs and builds nuclear-powered submarines, surface combatants, and auxiliary ships for the United States Navy and Jones Act ships for commercial customers, as well as oil and product tankers, and container and cargo ships. This segment also provides submarine maintenance and modernization services; lifecycle support services for navy surface ships; and program management, planning, engineering, and design support services for submarines and surface-ships. The Combat Systems segment manufactures land combat solutions, such as wheeled and tracked combat vehicles, weapons systems, munitions, mobile bridge systems with payloads, tactical vehicles, main battle tanks, armored vehicles, weapons systems, and armaments. This segment also offers modernization program, engineering, support, and sustainment services. The Technologies segment provides information technology solutions and mission-support services; mobile communication, computers, and command-and-control mission systems; and intelligence, surveillance, and reconnaissance solutions to military, intelligence, and federal civilian customers. This segment also offers cloud computing, artificial intelligence, machine learning, big data analytics, development, security and operation, software-defined network, everything as-a-service and defense enterprise office system solutions. General Dynamics Corporation was founded in 1899 and is headquartered in Reston, Virginia.</t>
+  </si>
+  <si>
+    <t>The Home Depot, Inc. operates as a home improvement retailer. It operates The Home Depot stores that sell various building materials, home improvement products, building materials, lawn and garden products, and dÃ©cor products, as well as provide installation, home maintenance, and professional service programs to do-it-yourself and professional customers. The company also offers installation programs that include flooring, cabinets and cabinet makeovers, countertops, furnaces and central air systems, and windows; and professional installation in various categories sold through its stores and in-home sales programs, as well as acts as a general contractor to provide installation services to its do-it-for-me customers through third-party installers. In addition, it provides tool and equipment rental services. The company primarily serves homeowners; and professional renovators/remodelers, general contractors, handymen, property managers, building service contractors, and specialty tradesmen, such as electricians, plumbers, and painters. It also sells its products online. As of January 31, 2021, the company operated 2,296 retail stores in the United States, including the Commonwealth of Puerto Rico, and the territories of the U.S. Virgin Islands and Guam; Canada; and Mexico. The Home Depot, Inc. was incorporated in 1978 and is based in Atlanta, Georgia.</t>
+  </si>
+  <si>
+    <t>Halma plc provides technology solutions in the safety, health, and environmental markets. It operates through four segments: Process Safety, Infrastructure Safety, Environmental &amp; Analysis, and Medical. The Process Safety segment offers specialized interlocks that control critical processes safely; instruments that detect flammable and hazardous gases; and explosion protection and corrosion monitoring systems. This segment serves the gas detection, industrial access control, pressure management, and safe storage and transfer markets. The Infrastructure Safety segment provides fire detection systems, specialist fire suppression systems, elevator safety systems, people and vehicle flow technologies, and security sensors. It serves the fire detection and suppression, and elevator markets. The Environmental &amp; Analysis segment offers opto-electronic technology and sensors, flow gap measurement instruments, and gas conditioning products, as well as solutions for environmental data recording, water quality testing, water distribution network monitoring, and UV water treatment. It serves the optical analysis, water analysis and treatment, and environmental monitoring markets. The Medical segment provides devices that assess eye health; assist with eye surgery and primary care applications; critical fluidic components used by medical diagnostics and original equipment manufacturers; and laboratory devices and sensor technologies used in hospitals to understand patient health. This segment serves the life sciences, health assessment, and therapeutic solutions market. The company was incorporated in 1894 and is headquartered in Amersham, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Experian plc, together with its subsidiaries, operates as a technology company. The company operates through two segments, Business-to-Business and Consumer Services. It provides data services to identify and understand their customers, as well as to manage the risks related with lending. The company also offers analytical and decision tools that enhance businesses to manage their customers, minimize the risk of fraud, comply with legal requirements, and automate decisions and processes. In addition, it provides financial education, free access to Experian credit reports and scores, online educational tools, and applications to manage their financial position, access credit offers, and protect themselves from identity fraud. The company serves customers in financial service, direct-to-consumer, health, retail, automotive, software and professional services, telecommunications and utility, insurance, media and technology, government and public, and other sectors. It operates in North America, Latin America, the United Kingdom, Ireland, Europe, the Middle East, Africa, and the Asia Pacific. Experian plc was formerly known as Experian Group Limited and changed its name to Experian plc in July 2008. Experian plc was founded in 1897 and is headquartered in Dublin, Ireland.</t>
+  </si>
+  <si>
+    <t>Linde plc operates as an industrial gas company in North and South America, Europe, the Middle East, Africa, and the Asia Pacific. It offers oxygen, nitrogen, argon, rare gases, carbon dioxide, hydrogen, helium, electronic and specialty gases, acetylene, and carbon monoxide. The company also designs and constructs turnkey process plants, such as olefin, natural gas, air separation, hydrogen and synthesis gas, and other plants. It serves healthcare, petroleum refining, manufacturing, food, beverage carbonation, fiber-optics, steel making, aerospace, electronics, chemical, and water treatment industries. The company was founded in 1879 and is based in Guildford, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Duke Energy Corporation, together with its subsidiaries, operates as an energy company in the United States. It operates through three segments: Electric Utilities and Infrastructure, Gas Utilities and Infrastructure, and Commercial Renewables. The Electric Utilities and Infrastructure segment generates, transmits, distributes, and sells electricity in the Carolinas, Florida, and the Midwest; and uses coal, hydroelectric, natural gas, oil, renewable sources, and nuclear fuel to generate electricity. It also engages in the wholesale of electricity to municipalities, electric cooperative utilities, and load-serving entities. This segment serves approximately 7.9 million retail electric customers in 6 states in the Southeast and Midwest regions of the United States covering a service territory of approximately 91,000 square miles; and owns approximately 50,807 megawatts (MW) of generation capacity. The Gas Utilities and Infrastructure segment distributes natural gas to residential, commercial, industrial, and power generation natural gas customers; and owns, operates, and invests in pipeline transmission and natural gas storage facilities. It has approximately 1.6 million customers, including 1.1 million customers in North Carolina, South Carolina, and Tennessee, as well as 541,000 customers in southwestern Ohio and northern Kentucky. The Commercial Renewables segment acquires, owns, develops, builds, and operates wind and solar renewable generation projects, including nonregulated renewable energy and energy storage services to utilities, electric cooperatives, municipalities, and commercial and industrial customers. It has 21 wind, 150 solar, and 2 battery storage facilities, as well as 11 fuel cell locations with a capacity of 2,282 MW across 19 states. The company was formerly known as Duke Energy Holding Corp. and changed its name to Duke Energy Corporation in April 2005. The company was incorporated in 2005 and is headquartered in Charlotte, North Carolina.</t>
+  </si>
+  <si>
+    <t>E.ON SE operates as an energy company in Germany, the United Kingdom, Sweden, Turkey, the Netherlands, Belgium, rest of Europe, and internationally. It operates through two segments, Energy Networks and Customer Solutions. The Energy Networks segment operates power and gas distribution networks, as well as provides maintenance, repairs, and related services. The Customer Solutions segment supplies power, gas, and heat, as well as with products and services that enhance energy efficiency to residential, small and medium-sized enterprises, large commercial and industrial, sales partners, and public entities. In addition, the company operates, generates, and dismantles nuclear power stations in Germany and Turkey. Further, it provides SmartSim, a software solution that allows renewable gases to be fed into gas grids; gas quality tracking solutions; GasPro, a mobile gas sample collector; and GasCalc, a software that calculates natural gases, LNG, and biogases properties. E.ON SE has a strategic partnership with Kraken Technologies to use Kraken Technologies' technology platform to transform the United Kingdom's business with residential and small and medium enterprise customers. The company was founded in 1923 and is headquartered in Essen, Germany.</t>
+  </si>
+  <si>
+    <t>Charter Communications, Inc. operates as a broadband connectivity and cable operator company serving residential and commercial customers in the United States. The company provides Internet services, such as security suite that protects computers from viruses and spyware; in-home WiFi, which provides customers with high performance wireless routers to enhance their in-home wireless Internet experience; out-of-home WiFi; and Spectrum WiFi services, as well as video services. It also offers voice communications services using voice over Internet protocol technology; and broadband communications solutions, such as Internet access, data networking, fiber connectivity, video entertainment, and business telephone services to cellular towers and office buildings for business and carrier organizations. In addition, the company provides mobile services; offers video programming, static IP and business WiFi, email and security, and multi-line telephone services, as well as Web-based service management; sells local advertising across various platforms for networks, such as MTV, CNN, and ESPN; sells advertising inventory to local sports and news channels; and offers Audience App for optimizes linear inventory. Further, it offers communications products and managed service solutions; data connectivity services to mobile and wireline carriers on a wholesale basis; and owns and operates regional sports and news networks. The company serves approximately 31 million customers in 41 states. Charter Communications, Inc. was founded in 1993 and is headquartered in Stamford, Connecticut.</t>
+  </si>
+  <si>
+    <t>Croda International Plc creates, makes, and sells specialty chemicals in Europe, the Middle East, Africa, North America, Asia, and Latin America. The company operates in four segments: Personal Care, Life Sciences, Performance Technologies, and Industrial Chemicals. It offers adhesives; crop protection additives and adjuvants, seed enhancement and animal health chemicals, chemical bio-stimulants, and specialty additives for agricultural films; and lubricant additives, coatings and polymers, vehicle cleaning chemicals, and products for automotive textiles and fibers, as well as specialty additives for plastics, and battery and catalyst industries. The company also provides specialty ingredients for self-tanning, color cosmetics, bath and shower, deodorants, anti-perspirants, depilatories, men's grooming, and oral hygiene, as well as skin, hair, sun, body, and baby care applications; construction chemicals and bitumen additives; dietary supplements; and advanced materials, and polymer additives for electronics and devices. In addition, it offers chemistries, emulsifiers, fuel and power generation additives, and polymer additives; food additives; specialty polymer additives for furniture and wood applications; household, industrial, and institutional cleaning products; lubricants; oleochemicals; and packaging, print, and paper chemicals. Further, the company provides paints and coatings; active pharmaceutical ingredients; thermal management products; plastic and rubber products; skin health products; hygiene and industrial nonwovens, botanical extracts, tissues, and textile auxiliaries; and water treatment chemicals. Additionally, it offers bio-based phase change materials for buildings and ventilation, clothing and healthcare, electronics and devices, food and refrigeration, energy storage and recovery, temperature controlled packaging, and vehicles and automotive applications. The company was incorporated in 1925 and is headquartered in Goole, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Volkswagen AG manufactures and sells automobiles primarily in Europe, North America, South America, and the Asia-Pacific. The company operates in four segments: Passenger Cars and Light Commercial Vehicles, Commercial Vehicles, Power Engineering, and Financial Services. The Passenger Cars and Light Commercial Vehicles segment develops vehicles and engines, and light commercial vehicles; and produces and sells passenger cars and related parts. The Commercial Vehicles segment develops, produces, and sells trucks and buses; and offers parts and related services. The Power Engineering segment offers large-bore diesel engines, turbomachinery, special gear units, and propulsion components. The Financial Services segment provides dealer and customer financing, leasing, banking and insurance, fleet management, and mobility services. The company also offers motorcycles. It provides its products under the Volkswagen Passenger Cars, Audi, ÂKODA, SEAT, Bentley, Porsche, Volkswagen Commercial Vehicles, Scania, MAN, Lamborghini, Ducati, and Bugatti brands. Volkswagen AG was incorporated in 1937 and is based in Wolfsburg, Germany. Volkswagen AG operates as a subsidiary of Porsche Automobil Holding SE.</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NASDAQ 100, S&amp;P 100, S&amp;P 500</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>DAX, EURO STOXX 50</t>
+  </si>
+  <si>
+    <t>S&amp;P 100, S&amp;P 500</t>
+  </si>
+  <si>
+    <t>DOW JONES, S&amp;P 100, S&amp;P 500</t>
+  </si>
+  <si>
+    <t>EURO STOXX 50, FTSE 100</t>
+  </si>
+  <si>
+    <t>AEX, EURO STOXX 50</t>
+  </si>
+  <si>
+    <t>DAX, EURO STOXX 50, S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Diversified Retail, Retailers, Discount Stores, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Consumer Non-Cyclicals, Food &amp; Drug Retailing, Food Retail &amp; Distribution</t>
+  </si>
+  <si>
+    <t>Cyclical Consumer Products, Footwear, Textiles &amp; Apparel, Consumer Cyclicals, Sportswear, Toiletries</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Industrial Goods, Industrials, Aerospace &amp; Defense</t>
+  </si>
+  <si>
+    <t>Specialty Chemicals, Basic Materials, Chemicals</t>
+  </si>
+  <si>
+    <t>Auto &amp; Truck Manufacturers, Automobiles &amp; Auto Parts, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Diversified Retail, Retailers, Department Stores, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Building materials</t>
+  </si>
+  <si>
+    <t>Telecommunications Services, Wireless Telecommunications Services</t>
+  </si>
+  <si>
+    <t>Cyclical Consumer Products, Footwear, Textiles &amp; Apparel, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Construction Materials, Mineral Resources, Basic Materials</t>
+  </si>
+  <si>
+    <t>Hotels &amp; Entertainment Services, Restaurants &amp; Bars, Cyclical Consumer Services, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Other Specialty Retailers, Retailers, Specialty Retailers, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Business Support Services, Industrials, Professional &amp; Commercial Services, Industrial &amp; Commercial Services</t>
+  </si>
+  <si>
+    <t>Paper Packaging, Basic Materials, Containers &amp; Packaging, Applied Resources</t>
+  </si>
+  <si>
+    <t>Industrials, Diversified Trading &amp; Distributing, Industrial &amp; Commercial Services</t>
+  </si>
+  <si>
+    <t>Industrial Goods, Industrials, Heavy Machinery &amp; Vehicles, Machinery, Equipment &amp; Components</t>
+  </si>
+  <si>
+    <t>Automotive, Auto &amp; Truck Manufacturers, Automobiles &amp; Auto Parts, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Electric Utilities, Electric Utilities &amp; IPPs, Utilities</t>
+  </si>
+  <si>
+    <t>Technology, Software &amp; IT Services, IT Services &amp; Consulting</t>
+  </si>
+  <si>
+    <t>Industrials, Industrial Conglomerates</t>
+  </si>
+  <si>
+    <t>Industrials, Air Freight &amp; Courier Services, Freight &amp; Logistics Services, Transportation</t>
+  </si>
+  <si>
+    <t>Media &amp; Publishing, Consumer Publishing, Cyclical Consumer Services, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Software, Enterprise Asset Management, Manufacturing Execution System, Enterprise Solutions</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Technology, Software &amp; IT Services, Internet Services</t>
+  </si>
+  <si>
+    <t>Hotels &amp; Entertainment Services, Leisure &amp; Recreation, Cyclical Consumer Services, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Industrial Goods, Industrials, Machinery, Equipment &amp; Components, Industrial Machinery &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Retailers, Specialty Retailers, Home Improvement Products &amp; Services Retailers, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Aerospace, Defense</t>
+  </si>
+  <si>
+    <t>Industrial Goods, Industrials, Machinery, Equipment &amp; Components, Electrical Components &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Professional Information Services, Industrials, Professional &amp; Commercial Services, Industrial &amp; Commercial Services</t>
+  </si>
+  <si>
+    <t>Commodity Chemicals, Basic Materials, Chemicals</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Media &amp; Publishing, Cyclical Consumer Services, Broadcasting, Consumer Cyclicals</t>
+  </si>
   <si>
     <t>Stock</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Symbol_Google</t>
-  </si>
-  <si>
-    <t>Symbol_Yahoo</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Indices</t>
-  </si>
-  <si>
-    <t>Sectors</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>PriceToEarningsRatio</t>
-  </si>
-  <si>
-    <t>PriceToEarningsPercentile</t>
-  </si>
-  <si>
-    <t>PriceToSalesRatio</t>
-  </si>
-  <si>
-    <t>PriceToSalesPercentile</t>
-  </si>
-  <si>
-    <t>EV_EBITDA</t>
-  </si>
-  <si>
-    <t>EV_EBITDAPercentile</t>
-  </si>
-  <si>
-    <t>EV_R</t>
-  </si>
-  <si>
-    <t>EV_RPercentile</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Costco Wholesale Corporation</t>
-  </si>
-  <si>
-    <t>Wm Morrison Supermarkets PLC</t>
-  </si>
-  <si>
-    <t>adidas AG</t>
-  </si>
-  <si>
-    <t>JD Sports Fashion plc</t>
-  </si>
-  <si>
-    <t>United Parcel Service Inc.</t>
-  </si>
-  <si>
-    <t>Johnson Matthey PLC</t>
-  </si>
-  <si>
-    <t>Ford Motor Company</t>
-  </si>
-  <si>
-    <t>Amazon.com Inc.</t>
-  </si>
-  <si>
-    <t>Ferguson PLC</t>
-  </si>
-  <si>
-    <t>Vodafone Group PLC</t>
-  </si>
-  <si>
-    <t>Walmart Inc.</t>
-  </si>
-  <si>
-    <t>NIKE Inc.</t>
-  </si>
-  <si>
-    <t>Starbucks Corporation</t>
-  </si>
-  <si>
-    <t>CRH PLC</t>
-  </si>
-  <si>
-    <t>NEXT PLC</t>
-  </si>
-  <si>
-    <t>Rentokil Initial PLC</t>
-  </si>
-  <si>
-    <t>DS Smith PLC</t>
-  </si>
-  <si>
-    <t>Ashtead Group PLC</t>
-  </si>
-  <si>
-    <t>Caterpillar Inc.</t>
-  </si>
-  <si>
-    <t>Bunzl PLC</t>
-  </si>
-  <si>
-    <t>Bayerische Motoren Werke AG</t>
-  </si>
-  <si>
-    <t>Accenture PLC</t>
-  </si>
-  <si>
-    <t>Exelon Corporation</t>
-  </si>
-  <si>
-    <t>Smiths Group PLC</t>
-  </si>
-  <si>
-    <t>Koninklijke Ahold Delhaize N.V.</t>
-  </si>
-  <si>
-    <t>FedEx Corporation</t>
-  </si>
-  <si>
-    <t>Pearson PLC</t>
-  </si>
-  <si>
-    <t>AVEVA Group plc</t>
-  </si>
-  <si>
-    <t>Daimler AG</t>
-  </si>
-  <si>
-    <t>Dow Inc.</t>
-  </si>
-  <si>
-    <t>Target Corporation</t>
-  </si>
-  <si>
-    <t>Volkswagen AG</t>
-  </si>
-  <si>
-    <t>Intertek Group PLC</t>
-  </si>
-  <si>
-    <t>Tesla Inc.</t>
-  </si>
-  <si>
-    <t>Netflix Inc.</t>
-  </si>
-  <si>
-    <t>Booking Holdings Inc.</t>
-  </si>
-  <si>
-    <t>Deutsche Post AG</t>
-  </si>
-  <si>
-    <t>Spirax-Sarco Engineering PLC</t>
-  </si>
-  <si>
-    <t>Siemens AG</t>
-  </si>
-  <si>
-    <t>Tesco PLC</t>
-  </si>
-  <si>
-    <t>salesforce.com Inc.</t>
-  </si>
-  <si>
-    <t>PayPal Holdings Inc.</t>
-  </si>
-  <si>
-    <t>The Home Depot Inc.</t>
-  </si>
-  <si>
-    <t>General Dynamics Corporation</t>
-  </si>
-  <si>
-    <t>Halma PLC</t>
-  </si>
-  <si>
-    <t>Lowe's Companies Inc.</t>
-  </si>
-  <si>
-    <t>Experian PLC</t>
-  </si>
-  <si>
-    <t>Linde PLC</t>
-  </si>
-  <si>
-    <t>Duke Energy Corporation</t>
-  </si>
-  <si>
-    <t>Charter Communications Inc.</t>
-  </si>
-  <si>
-    <t>Croda International PLC</t>
-  </si>
-  <si>
-    <t>E.ON SE</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>MRW</t>
-  </si>
-  <si>
-    <t>ADS</t>
-  </si>
-  <si>
-    <t>JD</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>JMAT</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>FERG</t>
-  </si>
-  <si>
-    <t>VOD</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>CRH</t>
-  </si>
-  <si>
-    <t>NXT</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>SMDS</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>BNZL</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>SMIN</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>PSON</t>
-  </si>
-  <si>
-    <t>AVV</t>
-  </si>
-  <si>
-    <t>DAI</t>
-  </si>
-  <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>TGT</t>
-  </si>
-  <si>
-    <t>VOW3</t>
-  </si>
-  <si>
-    <t>ITRK</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>DPW</t>
-  </si>
-  <si>
-    <t>SPX</t>
-  </si>
-  <si>
-    <t>SIE</t>
-  </si>
-  <si>
-    <t>TSCO</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>HLMA</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>EXPN</t>
-  </si>
-  <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>DUK</t>
-  </si>
-  <si>
-    <t>CHTR</t>
-  </si>
-  <si>
-    <t>CRDA</t>
-  </si>
-  <si>
-    <t>EOAN</t>
-  </si>
-  <si>
-    <t>NASDAQ:COST</t>
-  </si>
-  <si>
-    <t>LON:MRW</t>
-  </si>
-  <si>
-    <t>FRA:ADS</t>
-  </si>
-  <si>
-    <t>LON:JD</t>
-  </si>
-  <si>
-    <t>NYSE:UPS</t>
-  </si>
-  <si>
-    <t>LON:JMAT</t>
-  </si>
-  <si>
-    <t>NYSE:F</t>
-  </si>
-  <si>
-    <t>NASDAQ:AMZN</t>
-  </si>
-  <si>
-    <t>LON:FERG</t>
-  </si>
-  <si>
-    <t>NASDAQ:VOD</t>
-  </si>
-  <si>
-    <t>FRA:WMT</t>
-  </si>
-  <si>
-    <t>FRA:NKE</t>
-  </si>
-  <si>
-    <t>NASDAQ:SBUX</t>
-  </si>
-  <si>
-    <t>NYSE:CRH</t>
-  </si>
-  <si>
-    <t>LON:NXT</t>
-  </si>
-  <si>
-    <t>FRA:RTO</t>
-  </si>
-  <si>
-    <t>LON:SMDS</t>
-  </si>
-  <si>
-    <t>FRA:AHT</t>
-  </si>
-  <si>
-    <t>NYSE:CAT</t>
-  </si>
-  <si>
-    <t>LON:BNZL</t>
-  </si>
-  <si>
-    <t>FRA:BMW</t>
-  </si>
-  <si>
-    <t>NYSE:ACN</t>
-  </si>
-  <si>
-    <t>NYSE:EXC</t>
-  </si>
-  <si>
-    <t>LON:SMIN</t>
-  </si>
-  <si>
-    <t>AMS:AD</t>
-  </si>
-  <si>
-    <t>FRA:FDX</t>
-  </si>
-  <si>
-    <t>LON:PSON</t>
-  </si>
-  <si>
-    <t>LON:AVV</t>
-  </si>
-  <si>
-    <t>FRA:DAI</t>
-  </si>
-  <si>
-    <t>NYSE:DOW</t>
-  </si>
-  <si>
-    <t>NYSE:TGT</t>
-  </si>
-  <si>
-    <t>FRA:VOW3</t>
-  </si>
-  <si>
-    <t>LON:ITRK</t>
-  </si>
-  <si>
-    <t>NASDAQ:TSLA</t>
-  </si>
-  <si>
-    <t>NASDAQ:NFLX</t>
-  </si>
-  <si>
-    <t>NASDAQ:BKNG</t>
-  </si>
-  <si>
-    <t>FRA:DPW</t>
-  </si>
-  <si>
-    <t>LON:SPX</t>
-  </si>
-  <si>
-    <t>FRA:SIE</t>
-  </si>
-  <si>
-    <t>LON:TSCO</t>
-  </si>
-  <si>
-    <t>NYSE:CRM</t>
-  </si>
-  <si>
-    <t>NASDAQ:PYPL</t>
-  </si>
-  <si>
-    <t>NYSE:HD</t>
-  </si>
-  <si>
-    <t>NYSE:GD</t>
-  </si>
-  <si>
-    <t>LON:HLMA</t>
-  </si>
-  <si>
-    <t>NYSE:LOW</t>
-  </si>
-  <si>
-    <t>LON:EXPN</t>
-  </si>
-  <si>
-    <t>FRA:LIN</t>
-  </si>
-  <si>
-    <t>NYSE:DUK</t>
-  </si>
-  <si>
-    <t>NASDAQ:CHTR</t>
-  </si>
-  <si>
-    <t>LON:CRDA</t>
-  </si>
-  <si>
-    <t>FRA:EOAN</t>
-  </si>
-  <si>
-    <t>MRW.L</t>
-  </si>
-  <si>
-    <t>ADS.F</t>
-  </si>
-  <si>
-    <t>JD.L</t>
-  </si>
-  <si>
-    <t>JMAT.L</t>
-  </si>
-  <si>
-    <t>FERG.L</t>
-  </si>
-  <si>
-    <t>WMT.F</t>
-  </si>
-  <si>
-    <t>NKE.F</t>
-  </si>
-  <si>
-    <t>NXT.L</t>
-  </si>
-  <si>
-    <t>RTO.F</t>
-  </si>
-  <si>
-    <t>SMDS.L</t>
-  </si>
-  <si>
-    <t>AHT.F</t>
-  </si>
-  <si>
-    <t>BNZL.L</t>
-  </si>
-  <si>
-    <t>BMW.F</t>
-  </si>
-  <si>
-    <t>SMIN.L</t>
-  </si>
-  <si>
-    <t>AD.AS</t>
-  </si>
-  <si>
-    <t>FDX.F</t>
-  </si>
-  <si>
-    <t>PSON.L</t>
-  </si>
-  <si>
-    <t>AVV.L</t>
-  </si>
-  <si>
-    <t>DAI.F</t>
-  </si>
-  <si>
-    <t>VOW3.F</t>
-  </si>
-  <si>
-    <t>ITRK.L</t>
-  </si>
-  <si>
-    <t>DPW.F</t>
-  </si>
-  <si>
-    <t>SPX.L</t>
-  </si>
-  <si>
-    <t>SIE.F</t>
-  </si>
-  <si>
-    <t>TSCO.L</t>
-  </si>
-  <si>
-    <t>HLMA.L</t>
-  </si>
-  <si>
-    <t>EXPN.L</t>
-  </si>
-  <si>
-    <t>LIN.F</t>
-  </si>
-  <si>
-    <t>CRDA.L</t>
-  </si>
-  <si>
-    <t>EOAN.F</t>
-  </si>
-  <si>
-    <t>Costco Wholesale Corporation, together with its subsidiaries, engages in the operation of membership warehouses in the United States, Puerto Rico, Canada, the United Kingdom, Mexico, Japan, Korea, Australia, Spain, France, Iceland, China, and Taiwan. It offers branded and private-label products in a range of merchandise categories. The company provides dry and packaged foods, and groceries; snack foods, candies, alcoholic and nonalcoholic beverages, and cleaning supplies; appliances, electronics, health and beauty aids, hardware, and garden and patio products; meat, bakery, and deli products, as well as produce; and apparel and small appliances. It also operates pharmacies, optical dispensing centers, food courts, and hearing-aid centers, as well as 615 gas stations; and offers business delivery, travel, same-day grocery, and various other services online in various countries. As of October 07, 2020, the company operated 796 warehouses, including 552 in the United States and Puerto Rico, 102 in Canada, 39 in Mexico, 29 in the United Kingdom, 27 in Japan, 16 in South Korea, 13 in Taiwan, 12 in Australia, 3 in Spain, 1 in Iceland, 1 in France, and 1 in China. It also operates e-commerce websites in the United States, Canada, the United Kingdom, Mexico, South Korea, Taiwan, Japan, and Australia. The company was formerly known as Costco Companies, Inc. and changed its name to Costco Wholesale Corporation in August 1999. Costco Wholesale Corporation was founded in 1976 and is based in Issaquah, Washington.</t>
-  </si>
-  <si>
-    <t>Wm Morrison Supermarkets PLC operates retail supermarket stores under the Morrisons brand name in the United Kingdom. It engages in the in-store and online grocery retailing activities. The company also supplies eggs; manufactures and distributes fresh food, and morning goods and bread; wholesales flowers and plants; prepares and supplies seafood; processes fresh meat; invests in, develops, and maintains properties; and offers leasing, technical testing and analysis, and property partnership services, as well as holds pharmaceutical license and engages in real estate management activities. It operates through 497 supermarkets, 58 Morrisons Daily kiosks, and 338 petrol filling stations. The company was founded in 1899 and is headquartered in Bradford, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>adidas AG, together with its subsidiaries, designs, develops, distributes, and markets athletic and sports lifestyle products worldwide. The company operates through ten segments: Europe, North America Adidas, North America Reebok, Asia-Pacific, Russia/CIS, Latin America, Emerging Markets, Adidas Golf, Runtastic, and Other Centrally Managed Businesses. It offers footwear; apparel; accessories and gear, such as bags, balls, and fitness equipment; and golf products under the adidas and Reebok brands. The company is also involved in the operation of Runtastic, a digital health and fitness space; and Y-3 label business activities. It sells its products through approximately 2,500 own-retail stores; mono-branded franchise stores; and wholesale distribution, as well as its e-commerce channel. The company was formerly known as adidas-Salomon AG and changed its name to adidas AG in June 2006. adidas AG was founded in 1920 and is headquartered in Herzogenaurach, Germany.</t>
-  </si>
-  <si>
-    <t>JD Sports Fashion plc engages in the retail of branded sports fashion and outdoor clothing, footwear, accessories and equipment for kids, women, and men. It operates through Sports Fashion and Outdoor segments. The company also retails leisure goods, as well as distributes sports apparel and accessories, footwear and apparel, and rugby apparel and accessories. It offers its products under the JD, Size?, Footpatrol, Chausport, Sprinter, Sport Zone, Perry Sport and Aktiesport, Finish Line, Shoe Palace, Livestock, JD Gyms, Tessuti, Scotts, Mainline, Blacks, Millets, GO Outdoors, Tiso, Fishing Republic, and Naylors brands. The company also operates online business. In addition, it licenses fashion brands and operates fitness centers; and offers management consultancy services. The company operates 2,636 stores. It has operations in the United Kingdom, Australia, Austria, Belgium, Canada, Denmark, Dubai, Finland, France, Germany, Hong Kong, India, Italy, Malaysia, the Netherlands, New Zealand, Portugal, Republic of Ireland, Singapore, South Korea, Spain and the Canary Islands, Sweden, Thailand, and the United States. The company was founded in 1981 and is headquartered in Bury, the United Kingdom. JD Sports Fashion plc is a subsidiary of Pentland Group Limited.</t>
-  </si>
-  <si>
-    <t>United Parcel Service, Inc. provides letter and package delivery, transportation, logistics, and financial services. It operates through three segments: U.S. Domestic Package, International Package, and Supply Chain &amp; Freight. The U.S. Domestic Package segment offers time-definite delivery of letters, documents, small packages, and palletized freight through air and ground services in the United States. The International Package segment provides guaranteed day and time-definite international shipping services in Europe, the Asia Pacific, Canada and Latin America, the Indian sub-continent, the Middle East, and Africa. This segment offers guaranteed time-definite express options. The Supply Chain &amp; Freight segment provides international air and ocean freight forwarding, customs brokerage, distribution and post-sales, and mail and consulting services in approximately 200 countries and territories; and less-than-truckload and truckload services to customers in North America. This segment also offers truckload brokerage services; supply chain solutions to the healthcare and life sciences industry; shipping, visibility, and billing technologies; and financial and insurance services. The company operates a fleet of approximately 127,000 package cars, vans, tractors, and motorcycles; and owns 58,000 containers that are used to transport cargo in its aircraft. United Parcel Service, Inc. was founded in 1907 and is headquartered in Atlanta, Georgia.</t>
-  </si>
-  <si>
-    <t>Johnson Matthey Plc provides specialty chemicals in the United States, Germany, rest of Europe, the United States, rest of North America, China, rest of Asia, and internationally. It operates through four segments: Clean Air, Efficient Natural Resources, Health, and New Markets. The Clean Air segment provides catalysts for emission control after-treatment systems to remove harmful emissions from vehicles. This segment also offers catalysts for light duty vehicles powered by diesel and gasoline, heavy duty diesel trucks, buses, and non- road equipment. The Efficient Natural Resources segment provides products and processing services for the use and transformation of critical natural resources including oil, gas, biomass, and platinum group metals. The Health segment develops and manufactures active pharmaceutical ingredients (API) for various treatments. The New Markets segment offers battery materials, battery systems, and fuel cell technologies; science and technology to develop the products for devices used in medical procedures; and catalysts to pharmaceutical and agricultural chemicals markets. The company was formerly known as Johnson &amp; Cock and changed its name to Johnson Matthey Plc in 1851. Johnson Matthey Plc was founded in 1817 and is based in London, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Ford Motor Company designs, manufactures, markets, and services a range of Ford trucks, cars, sport utility vehicles, electrified vehicles, and Lincoln luxury vehicles worldwide. It operates through three segments: Automotive, Mobility, and Ford Credit. The Automotive segment sells Ford and Lincoln vehicles, service parts, and accessories through distributors and dealers, as well as through dealerships to commercial fleet customers, daily rental car companies, and governments. The Mobility segment designs and builds mobility services; and provides self-driving systems development services. The Ford Credit segment primarily engages in vehicle-related financing and leasing activities to and through automotive dealers. It provides retail installment sale contracts for new and used vehicles; and direct financing leases for new vehicles to retail and commercial customers, such as leasing companies, government entities, daily rental companies, and fleet customers. This segment also offers wholesale loans to dealers to finance the purchase of vehicle inventory; and loans to dealers to finance working capital and enhance dealership facilities, purchase dealership real estate, and other dealer vehicle programs. Ford Motor Company has a strategic collaboration with ARB Corporation Limited to develop a suite of aftermarket products for the new Ford Bronco. The company was founded in 1903 and is based in Dearborn, Michigan.</t>
-  </si>
-  <si>
-    <t>Amazon.com, Inc. engages in the retail sale of consumer products and subscriptions in North America and internationally. The company operates through three segments: North America, International, and Amazon Web Services (AWS). It sells merchandise and content purchased for resale from third-party sellers through physical and online stores. The company also manufactures and sells electronic devices, including Kindle, Fire tablets, Fire TVs, Rings, and Echo and other devices; provides Kindle Direct Publishing, an online service that allows independent authors and publishers to make their books available in the Kindle Store; and develops and produces media content. In addition, it offers programs that enable sellers to sell their products on its websites, as well as its stores; and programs that allow authors, musicians, filmmakers, skill and app developers, and others to publish and sell content. Further, the company provides compute, storage, database, analytics, machine learning, and other services, as well as fulfillment, advertising, publishing, and digital content subscriptions. Additionally, it offers Amazon Prime, a membership program, which provides free shipping of various items; access to streaming of movies and TV episodes; and other services. The company serves consumers, sellers, developers, enterprises, and content creators. Amazon.com, Inc. was founded in 1994 and is headquartered in Seattle, Washington.</t>
-  </si>
-  <si>
-    <t>Ferguson plc distributes plumbing and heating products in the United States, the United Kingdom, Canada, and Central Europe. It offers plumbing and heating solutions to customers in the residential, municipal, civil and industrial markets, and commercial sectors for repair, maintenance, and improvement (RMI), as well as new construction markets. The company also distributes pipes, valves, fittings, hydrants, meters, and related water management products, as well as offers related services, such as water line tapping and pipe fusion services. In addition, it distributes heating, ventilation, air conditioning, refrigeration equipment, and parts and supplies to specialist contractors in the residential and commercial markets for repair and replacement; and PVF products to industrial customers. Further, the company fabricates and supplies fire protection systems and bespoke fabrication services to commercial contractors for new construction and renovation projects, as well as offers products, services, and solutions to enable maintenance of facilities across various RMI markets. Additionally, it offers supply chain management solutions for PVF; and industrial maintenance, repair, and operations specializing in delivering automation, instrumentation, engineered products, and turn-key solutions. The company also sells its home improvement products directly to consumers, as well as through a network of online stores. In addition, it operates its B2B business primarily under the Ferguson brand; and B2C business under the Build.com brand. Further, the company provides products and services for maintenance of multi-family properties, government agencies, hospitality, education, healthcare, and other facilities. It operates a network of 2,194 branches and 19 distribution centers. Ferguson plc was founded in 1887 and is headquartered in Wokingham, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Vodafone Group Plc engages in telecommunication services in Europe and internationally. The company offers mobile services that enable customers to call, text, and access data; fixed line services, including broadband, television (TV) offerings, and voice; and convergence services under the GigaKombi and Vodafone One names to customers. It also provides value added services, such as Internet of Things (IoT) comprising logistics and fleet management, smart metering, insurance, cloud, and security services; and automotive and health solutions. In addition, the company offers M-Pesa, an African payment platform, which provides money transfer, financial, and business and merchant payment services; and various services to operators through its partner market agreements. Vodafone Group Plc has strategic partnerships with Open Fiber. As of March 31, 2021, it had approximately 315 million mobile customers, 28 million fixed broadband customers, and 22 million TV customers. The company was incorporated in 1984 and is based in Newbury, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Walmart Inc. engages in the operation of retail, wholesale, and other units worldwide. The company operates through three segments: Walmart U.S., Walmart International, and Sam's Club. It operates supercenters, supermarkets, hypermarkets, warehouse clubs, cash and carry stores, and discount stores; membership-only warehouse clubs; ecommerce websites, such as walmart.com, walmart.com.mx, walmart.ca, flipkart.com, and samsclub.com; and mobile commerce applications. The company offers grocery products, including dry grocery, snacks, dairy, meat, produce, deli and bakery, frozen foods, and alcoholic and nonalcoholic beverages, as well as consumables, such as health and beauty aids, pet supplies, household chemicals, paper goods, and baby products; and health and wellness products covering pharmacy, over-the-counter drugs and other medical products, and optical and clinical services. It also provides gasoline stations and tobacco; home improvement, outdoor living, gardening, furniture, apparel, and jewelry, as well as tools and power equipment, housewares, toys, seasonal items, mattresses, and tire and battery centers; and consumer electronics and accessories, software, video games, office supplies, appliances, and third-party gift cards. In addition, the company offers fuel and financial services and related products, including money orders, prepaid cards, money transfers, and check cashing and bill payment. It operates approximately 11,400 stores and various e-commerce websites under 54 banners in 26 countries. The company was formerly known as Wal-Mart Stores, Inc. and changed its name to Walmart Inc. in February 2018. Walmart Inc. was founded in 1945 and is based in Bentonville, Arkansas.</t>
-  </si>
-  <si>
-    <t>NIKE, Inc., together with its subsidiaries, designs, develops, markets, and sells athletic footwear, apparel, equipment, and accessories worldwide. The company offers NIKE brand products in six categories, including running, NIKE basketball, the Jordan brand, football, training, and sportswear. It also markets products designed for kids, as well as for other athletic and recreational uses, such as American football, baseball, cricket, golf, lacrosse, skateboarding, tennis, volleyball, walking, wrestling, and other outdoor activities; and apparel with licensed college and professional team and league logos, as well as sells sports apparel. In addition, the company sells a line of performance equipment and accessories comprising bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment, and other equipment for sports activities; and various plastic products to other manufacturers. Further, it provides athletic and casual footwear, apparel, and accessories under the Jumpman trademark; casual sneakers, apparel, and accessories under the Converse, Chuck Taylor, All Star, One Star, Star Chevron, and Jack Purcell trademarks; and action sports and youth lifestyle apparel and accessories under the Hurley trademark. Additionally, the company licenses agreements that permit unaffiliated parties to manufacture and sell apparel, digital devices, and applications and other equipment for sports activities under NIKE-owned trademarks. It sells its products to footwear stores; sporting goods stores; athletic specialty stores; department stores; skate, tennis, and golf shops; and other retail accounts through NIKE-owned retail stores, digital platforms, independent distributors, licensees, and sales representatives. The company was formerly known as Blue Ribbon Sports, Inc. and changed its name to NIKE, Inc. in 1971. NIKE, Inc. was founded in 1964 and is headquartered in Beaverton, Oregon.</t>
-  </si>
-  <si>
-    <t>Starbucks Corporation, together with its subsidiaries, operates as a roaster, marketer, and retailer of specialty coffee worldwide. The company operates through three segments: Americas, International, and Channel Development. Its stores offer coffee and tea beverages, roasted whole bean and ground coffees, single-serve and ready-to-drink beverages, and iced tea; and various food products, such as pastries, breakfast sandwiches, and lunch items. The company also licenses its trademarks through licensed stores, and grocery and foodservice accounts. The company offers its products under the Starbucks, Teavana, Seattle's Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve, and Princi brand names. As of October 29, 2020, it operated approximately 32,000 stores. Starbucks Corporation was founded in 1971 and is based in Seattle, Washington.</t>
-  </si>
-  <si>
-    <t>CRH plc, through its subsidiaries, manufactures and distributes building materials. It operates in three segments: Americas Materials, Europe Materials, and Building Products. The company manufactures and supplies cement, lime, aggregates, precast, ready mixed concrete, and asphalt products; concrete masonry and hardscape products comprising pavers, kerbs, retaining walls, and related patio products; and glass and glazing products, including architectural glass, custom-engineered curtain and window walls, architectural windows, storefront systems, doors, skylights, and architectural hardware. It also offers precast concrete and polymer-based products, such as underground vaults, drainage pipes and structures, utility enclosures, and modular precast structures to the water, energy, communication, transportation, and building structures markets; and construction accessories, such as anchoring, fixing, and connection solutions, as well as lifting systems, formwork accessories, and other accessories used in construction applications. In addition, the company offers network access products, which include composite access chambers, covers, passive safety systems, retention sockets, sealants, and meter boxes; and paving and construction services. Further, it provides building and civil engineering contracting, contract surfacing, operates logistics and owned railway infrastructure; sells and distributes cement; and supplies access chambers and ducting products. It serves governments, contractors, homebuilders, homeowners, and sub-contractors. The company operates primarily in the Republic of Ireland, the United Kingdom, the rest of Europe, the United States, and internationally. CRH plc was founded in 1936 and is headquartered in Dublin, Ireland.</t>
-  </si>
-  <si>
-    <t>NEXT plc engages in the retail of clothing, footwear, and home products in the United Kingdom, rest of Europe, the Middle East, Asia, and internationally. The company operates through NEXT Retail, NEXT Online, NEXT Finance, NEXT International Retail, NEXT Sourcing, Lipsy, NENA, and Property Management segments. It operates retail stores; an online retail platform; and 190 franchise stores in 36 countries. The company also offers consumer credit; NEXT branded products; and women's, men's, children's, home, and beauty products under the LABEL and Lipsy's own brand, and other third-party brands. In addition, it provides property management services, including holding and lease of properties. The company was formerly known as J Hepworth &amp; Son and changed its name to NEXT plc in 1986. NEXT plc was founded in 1864 and is headquartered in Enderby, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Rentokil Initial plc, together with its subsidiaries, provides route-based services in North America, the United Kingdom, rest of Europe, Asia, the Pacific, and internationally. It offers a range of pest control services from rodents to flying and crawling insects, as well as to other forms of wildlife management for commercial and residential customers. The company also provides hygiene services, including the provision and maintenance of products, such as air fresheners, sanitizers, feminine hygiene units, hand dryers, paper and linen towel dispensers, soap and hand sanitizer dispensers, toilet paper dispensers, and floor protection mats. In addition, it engages in the supply and laundering of workwear, uniforms, cleanroom uniforms, and protective equipment. Further, the company installs and services interior and exterior plant displays, flowers, replica foliage, Christmas decorations, and ambient scenting for commercial businesses; offers property care services consisting of damp proofing, property conservation, and woodworm and wood rot treatment; and provides a range of specialist cleaning services, such as deep cleaning of kitchens and washrooms, trauma cleaning, and flood or fire damage cleaning, as well as graffiti removal, specialist deep cleaning, and disinfection services, including the professional and discreet disinfection of areas that have been exposed to bio-hazardous situations, such as crime and trauma scenes, prison cells, void properties, emergency vehicles, and healthcare establishments. Additionally, it offers a range of healthcare waste management services comprising the collection, disposal, and recycling of hazardous and offensive waste produced by businesses and organizations associated with the provision of healthcare; and color-coded sharps disposal bins to deal with various types of waste. Rentokil Initial plc was founded in 1903 and is headquartered in Camberley, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>DS Smith Plc provides packaging solutions, paper products, and recycling services worldwide. The company offers transit and transport, consumer, retail and shelf ready, online and e-retail, industrial, hazardous, multi-material, inserts and cushioning, and electrostatic discharge packaging products, as well as wrap arounds, trays, and bag-in-boxes; displays and promotional packaging products; corrugated pallets; Sheetfeeding products; packaging machine systems; and Sizzlepak, a stuffing material made of paper, folded in a zigzag shape, and cut into narrow strips, as well as provides outdoor advertising services. It also provides various recycling and waste management services, including total waste management, paper and cardboard recycling, confidential shredding, and plastics recycling, as well as equipment for the retail, manufacturing, print and publishing, paper mills, automotive, and public sectors. In addition, the company offers recycled corrugated case materials, specialty papers, and kraft papers, as well as related technical and supply chain services. It provides its packaging solutions for the food and drink, consumer goods, industrial, e-commerce and e-retail, and converter industries. The company was formerly known as David S. Smith (Holdings) PLC and changed its name to DS Smith Plc in 2001. DS Smith Plc was founded in 1940 and is headquartered in London, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Ashland Global Holdings Inc. provides specialty chemical solutions worldwide. The company's Specialty Ingredients segment offers products, technologies, and resources for solving formulation and product-performance challenges. It provides solutions using natural, synthetic, and semisynthetic polymers derived from cellulose ethers, vinyl pyrrolidones, acrylic polymers, polyester and polyurethane-based adhesives, and plant and seed extracts. This segment offers its solutions for the pharmaceutical companies; makers of personal care products, food, and beverages; makers of nutraceuticals and supplements; manufacturers of paint, coatings, and construction materials; packaging and converting markets; and oilfield service companies. Its Intermediates and Solvents produces 1,4 butanediol and related derivatives, including n-methylpyrrolidone that are used as chemical intermediates in the production of engineering polymers and polyurethanes, as well as specialty process solvents used in electronics, pharmaceuticals, water filtration membranes, and others. The company was formerly known as Ashland Inc. and changed its name to Ashland Global Holdings Inc. in September 2016. Ashland Global Holdings Inc. was founded in 1924 and is headquartered in Covington, Kentucky.</t>
-  </si>
-  <si>
-    <t>Caterpillar Inc. manufactures and sells construction and mining equipment, diesel and natural gas engines, industrial gas turbines, and diesel-electric locomotives worldwide. Its Construction Industries segment offers asphalt pavers, compactors, cold planers, motorgraders, pipelayers, road reclaimers, telehandlers, and utility vehicles; backhoe, compact track, multi-terrain, skid steer, and track-type loaders; forestry and wheel excavators; and site prep and track-type tractors. The company's Resource Industries segment provides electric rope and hydraulic shovels, draglines, rotary drills, hard rock vehicles, track-type tractors, mining trucks, longwall miners, wheel loaders, off-highway and articulated trucks, wheel tractor scrapers, wheel dozers, landfill and soil compactors, machinery components, autonomous ready vehicles and solutions, and select work tools. Its Energy &amp; Transportation segment offers reciprocating engine powered generator sets; reciprocating engines and integrated systems for the power generation, marine, oil, and gas industries; turbines, centrifugal gas compressors, and related services; remanufactured reciprocating engines and components; and diesel-electric locomotives and components, and other rail-related products. The company's Financial Products segment provides operating and finance leases, installment sale contracts, working capital loans, and wholesale financing; and insurance and risk management, as well as other equipment-related loans. Its All Other Operating segment offers filters and fluids, undercarriage, ground engaging tools, fluid transfer products, precision seals, and rubber sealing and connecting components; parts distribution; integrated logistics solutions; portfolio management; brand management and marketing strategy; and digital investments services. The company was formerly known as Caterpillar Tractor Co. The company was founded in 1925 and is headquartered in Deerfield, Illinois.</t>
-  </si>
-  <si>
-    <t>Bunzl plc operates as a distribution and services company in the North America, Continental Europe, the United Kingdom, Ireland, and internationally. The company offers food packaging, films, labels, counter-service packaging, foodservice disposables, take-out food packaging, first aid products, point of purchase displays, stationery, bags, and cleaning and hygiene supplies to grocery stores, supermarkets, retail chains, convenience stores, food wholesalers, ethnic grocers, and organic food outlets. It also provides food packaging, napkins, disposable tableware, food service disposables, guest amenities, light and heavy catering equipment, cleaning and hygiene products, and safety items to hotels, restaurants, caterers, the leisure sector, and food processors and packers; and footwear, gloves, safety helmets, workwear, harness equipment, tools, safety signs, traffic management, and ancillary site equipment, as well as ear, eye, respiratory, and face protection products to customers in the industrial and construction markets. In addition, the company offers cleaning systems, floorcare items, hand cleansing products, hygiene paper, janitorial products, cleaning machines, mops, polishes, and protective clothing and washroom chemicals to facilities management companies, contract cleaners, and other industrial and healthcare customers; and counter service packaging, point of purchase display items, stationery, and cleaning and hygiene products to department stores, boutiques, office supply companies, retail chains, and home improvement chains. Further, it provides gloves, aprons, bandages, facemasks, gowns, headwear, mattress covers, overshoes, procedure packs, tapes, wipes, incontinence products, and swabs to the healthcare sector, including hospitals, retirement and nursing homes, and doctors' surgeries and clinics; and various products to government and education establishments. Bunzl plc was founded in 1854 and is headquartered in London, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Bayerische Motoren Werke AG, together with its subsidiaries, develops, manufactures, and sells automobiles and motorcycles, and spare parts and accessories worldwide. It operates through Automotive, Motorcycles, and Financial Services segments. The Automotive segment develops, manufactures, assembles, and sells passenger cars, including off-road vehicles as well as spare parts, accessories, and mobility services under the BMW, MINI and Rolls-Royce brands. This segment sells its products through independent and authorized dealerships. The Motorcycles segment develops, manufactures, assembles, and sells motorcycles under the BMW Motorrad brand, as well as spare parts and accessories. The Financial Services segment engages in the multi-brand, retail and dealership financing, customer deposit, and insurance activities; and provision of fleet financing services under the Alphabet brand. Bayerische Motoren Werke AG was founded in 1916 and is based in Munich, Germany.</t>
-  </si>
-  <si>
-    <t>Accenture plc, a professional services company, provides strategy and consulting, interactive, and technology and operations services worldwide. The company also provides outsourcing services. It serves communications, media, high tech, software, and platform companies; banking, capital market, and insurance industries; and consumer goods, retail, travel services, industrial, and life science industries, as well as clients in health, public service, chemicals and natural resources, energy, and utilities sectors. Accenture plc has alliance relationships with Adobe, Alibaba, Amazon Web Services, Blue Yonder, Cisco, Dell, Google, HPE, IBM RedHat, Microsoft, Oracle, Pegasystems, Salesforce, SAP, ServiceNow, VMWare, Workday, Massachusetts Institute of Technology, Institut Polytechnique de Paris, CNH Industrial, and Reactive Technologies. The company was incorporated in 2009 and is based in Dublin, Ireland.</t>
-  </si>
-  <si>
-    <t>Exelon Corporation, a utility services holding company, engages in the energy generation, delivery, and marketing businesses in the United States and Canada. It owns nuclear, fossil, wind, hydroelectric, biomass, and solar generating facilities. The company also sells electricity to wholesale and retail customers; and sells natural gas, renewable energy, and other energy-related products and services. In addition, it is involved in the purchase and regulated retail sale of electricity and natural gas; and transmission and distribution of electricity, and distribution of natural gas to retail customers. Further, the company offers support services, including legal, human resources, information technology, financial, supply management, accounting, engineering, customer operations, distribution and transmission planning, asset management, system operations, and power procurement services. It serves distribution utilities, municipalities, cooperatives, and financial institutions, as well as commercial, industrial, governmental, and residential customers. The company was incorporated in 1999 and is headquartered in Chicago, Illinois.</t>
-  </si>
-  <si>
-    <t>Smiths Group plc operates as a technology company serving the medical technology, security and defense, general industrial, energy, and space and aerospace markets worldwide. It operates through John Crane, Smiths Detection, Flex-Tek, Smiths Interconnect divisions. The John Crane division offers mechanical seals, seal support systems, hydrodynamic bearings, packing materials, power transmission couplings, and specialized filtration systems. The Smiths Detection division provides sensors and systems that detect and identify explosives, narcotics, weapons, chemical agents, biohazards, and contraband. The Flex-Tek division offers engineered components that heat and move fluids and gases for the aerospace, medical, industrial, construction, and domestic appliance markets. The Smiths Interconnect division provides specialized electronic and radio frequency board-level and waveguide devices, connectors, cables, test sockets, and sub-systems for applications in the security and defense, medical, general industrial, and space and aerospace markets. The company was formerly known as Smiths Industries and changed its name to Smiths Group plc in 2000. Smiths Group plc was founded in 1851 and is headquartered in London, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Koninklijke Ahold Delhaize N.V. operates retail food stores and e-commerce primarily in the United States and Europe. The company's store formats include supermarkets, convenience stores, compact hypermarkets, cash and carry, drugstores, hypermarkets, and liquor stores. As of January 3, 2021, it operated 7,137 stores primarily under local brands serving approximately 54 million customers, as well as online. The company was formerly known as Koninklijke Ahold N.V. and changed its name to Koninklijke Ahold Delhaize N.V. in July 2016. Koninklijke Ahold Delhaize N.V. was founded in 1887 and is headquartered in Zaandam, the Netherlands.</t>
-  </si>
-  <si>
-    <t>FedEx Corporation provides transportation, e-commerce, and business services worldwide. The company's FedEx Express segment offers express transportation, small-package ground delivery, and freight transportation services; time-critical transportation services; and cross-border e-commerce technology and e-commerce transportation solutions. Its FedEx Ground segment provides day-certain delivery services to businesses and residences. The company's FedEx Freight segment offers less-than-truckload freight transportation services. Its FedEx Services segment provides sales, marketing, information technology, communications, customer service, technical support, billing and collection, and back-office function services. The company's Corporate, Other and Eliminations segment offers integrated supply chain management solutions, specialty transportation, customs brokerage, and global ocean and air freight forwarding services; and an array of document and business services, and retail access to its customers for its package transportation businesses. The company was founded in 1971 and is based in Memphis, Tennessee.</t>
-  </si>
-  <si>
-    <t>Pearson plc provides educational materials and learning technologies. The company operates in four segments: Global Online Learning, Global Assessment, North America Courseware, and International. It provides test development, processing, and scoring services to governments, educational institutions, corporations, and professional bodies. The company also offers content across the curriculum and a range of education services, including teacher development, educational software, and system-wide solutions, as well as owns and operates colleges and schools comprising virtual schools. It provides content, assessment, and digital services to schools, colleges, and universities, as well as professional and vocational education to learners. Pearson plc was founded in 1844 and is headquartered in London, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>AVEVA Group plc, through its subsidiaries, provides engineering and industrial software solutions in the Asia Pacific, Europe, the Middle East, Africa, and the Americas. The company offers engineering, procurement, and construction; asset performance management; monitoring and control; planning and scheduling; and operation and optimization industrial software solutions. It also provides digital transformation solutions covering artificial intelligence, cloud, digital twin, edge, extended reality, and Industrial Internet of Things products; and customer support and training services. The company serves customers in the chemicals, food and beverage, consumer packaged goods, infrastructure, life sciences, marine, mining, oil and gas, power and utilities, pulp and paper, steel fabrication, and water and wastewater industries. The company was founded in 1967 and is headquartered in Cambridge, the United Kingdom. AVEVA Group plc is a subsidiary of Schneider Electric S.E.</t>
-  </si>
-  <si>
-    <t>Daimler AG, together its subsidiaries, develops and manufactures passenger cars, trucks, vans, and buses in Germany and internationally. It operates through Mercedes-Benz Cars &amp; Vans, Daimler Trucks and Buses, and Daimler Mobility segments. The Mercedes-Benz Cars segment offers premium and luxury vehicles of the Mercedes-Benz brand, including the Mercedes-AMG, Mercedes-Maybach, and Mercedes-EQ brands; small cars under the smart brand name; and ecosystem of Mercedes-Benz under the Mercedes me brand, as well as vans and related services under the Mercedes-Benz and Freightliner brands. Daimler Trucks and Buses segment offers its trucks and special vehicles under the Mercedes-Benz, Freightliner, Western Star, FUSO, and BharatBenz brands; and buses under the Mercedes-Benz, Setra, Thomas Built Buses, and FU brands, as well as bus chassis. The Daimler Mobility segment provides financing and leasing packages for end-customers and dealers; and automotive insurance brokerage, banking, investment, and fleet management services under the Athlon brand. It also sells vehicle related spare parts and accessories. Daimler AG was founded in 1886 and is headquartered in Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Dow Inc. provides various materials science solutions for consumer care, infrastructure, and packaging markets in the United States, Canada, Europe, the Middle East, Africa, India, the Asia Pacific, and Latin America. It operates through Packaging &amp; Specialty Plastics, Industrial Intermediates &amp; Infrastructure, and Performance Materials and Coatings segments. The Packaging &amp; Specialty Plastics segment provides ethylene, and propylene and aromatics products; and polyethylene, polyolefin elastomers, ethylene vinyl acetate, and ethylene propylene diene monomer rubbers. The Industrial Intermediates &amp; Infrastructure segment offers ethylene oxides, propylene oxide, propylene glycol and polyether polyols, aromatic isocyanates and polyurethane systems, coatings, adhesives, sealants, elastomers, and composites. This segment also provides caustic soda, and ethylene dichloride and vinyl chloride monomers; and cellulose ethers, redispersible latex powders, silicones, and acrylic emulsions. The Performance Materials and Coatings segment provides architectural paints and coatings, and industrial coatings that are used in maintenance and protective industries, wood, metal packaging, traffic markings, thermal paper, and leather; performance monomers and silicones; standalone silicones; and home and personal care solutions. It also engages in property and casualty insurance, as well as reinsurance business. Dow Inc. was incorporated in 2018 and is headquartered in Midland, Michigan.</t>
-  </si>
-  <si>
-    <t>Target Corporation operates as a general merchandise retailer in the United States. The company offers food assortments, including perishables, dry grocery, dairy, and frozen items; apparel, accessories, home dÃ©cor products, electronics, toys, seasonal offerings, food, and other merchandise; and beauty and household essentials. It also provides in-store amenities, such as Target CafÃ©, Target Optical, Starbucks, and other food service offerings. The company sells its products through its stores; and digital channels, including Target.com. As of January 30, 2021, the company operated approximately 1,897 stores. Target Corporation was founded in 1902 and is headquartered in Minneapolis, Minnesota.</t>
-  </si>
-  <si>
-    <t>Volkswagen AG manufactures and sells automobiles primarily in Europe, North America, South America, and the Asia-Pacific. The company operates in four segments: Passenger Cars and Light Commercial Vehicles, Commercial Vehicles, Power Engineering, and Financial Services. The Passenger Cars and Light Commercial Vehicles segment develops vehicles and engines, and light commercial vehicles; and produces and sells passenger cars and related parts. The Commercial Vehicles segment develops, produces, and sells trucks and buses; and offers parts and related services. The Power Engineering segment offers large-bore diesel engines, turbomachinery, special gear units, and propulsion components. The Financial Services segment provides dealer and customer financing, leasing, banking and insurance, fleet management, and mobility services. The company also offers motorcycles. It provides its products under the Volkswagen Passenger Cars, Audi, ÂKODA, SEAT, Bentley, Porsche, Volkswagen Commercial Vehicles, Scania, MAN, Lamborghini, Ducati, and Bugatti brands. Volkswagen AG was incorporated in 1937 and is based in Wolfsburg, Germany. Volkswagen AG operates as a subsidiary of Porsche Automobil Holding SE.</t>
-  </si>
-  <si>
-    <t>Intertek Group plc provides quality assurance solutions to various industries worldwide. It operates in three segments: Products, Trade, and Resources. The Products segment offers assurance, testing, inspection, and certification services (ATIC), including laboratory safety, quality and performance testing, second-party supplier auditing, sustainability analysis, products assurance, vendor compliance, process performance analysis, facility plant and equipment verification, and third party certification. This segment serves a range of industries, including textiles, footwear, toys, hardlines, home appliances, consumer electronics, information and communication technology, automotive, aerospace, lighting, building products, industrial and renewable energy products, food and hospitality, healthcare and beauty, and pharmaceuticals. The Trade segment provides cargo inspection, analytical assessment, calibration, and related research and technical services to the petroleum and biofuels industries; inspection services to governments and regulatory bodies to support trade activities; and analytical and testing services to agricultural trading companies and growers. The Resources segment offers technical inspection, asset integrity management, analytical testing, and ongoing training services for the oil, gas, nuclear, and power industries. This segment also provides a range of ATIC service solutions to the mining and minerals exploration industries covering the resource supply chain from exploration and resource development, through to production, shipping, and commercial settlement. The company also offers cyber security services. Intertek Group plc was founded in 1885 and is based in London, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Tesla, Inc. designs, develops, manufactures, leases, and sells electric vehicles, and energy generation and storage systems in the United States, China, and internationally. The company operates in two segments, Automotive, and Energy Generation and Storage. The Automotive segment offers electric vehicles, as well as sells automotive regulatory credits. It provides sedans and sport utility vehicles through direct and used vehicle sales, a network of Tesla Superchargers, and in-app upgrades; and purchase financing and leasing services. This segment is also involved in the provision of non-warranty after-sales vehicle services, sale of used vehicles, retail merchandise, and vehicle insurance, as well as sale of products through its subsidiaries to third party customers; services for electric vehicles through its company-owned service locations, and Tesla mobile service technicians; and vehicle limited warranties and extended service plans. The Energy Generation and Storage segment engages in the design, manufacture, installation, sale, and leasing of solar energy generation and energy storage products, and related services to residential, commercial, and industrial customers and utilities through its website, stores, and galleries, as well as through a network of channel partners. This segment also offers service and repairs to its energy product customers, including under warranty; and various financing options to its solar customers. The company was formerly known as Tesla Motors, Inc. and changed its name to Tesla, Inc. in February 2017. Tesla, Inc. was founded in 2003 and is headquartered in Palo Alto, California.</t>
-  </si>
-  <si>
-    <t>Netflix, Inc. provides entertainment services. It offers TV series, documentaries, and feature films across various genres and languages. The company provides members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, television set-top boxes, and mobile devices. It also provides DVDs-by-mail membership services. The company has approximately 204 million paid members in 190 countries. Netflix, Inc. was founded in 1997 and is headquartered in Los Gatos, California.</t>
-  </si>
-  <si>
-    <t>Booking Holdings Inc. provides travel and restaurant online reservation and related services worldwide. The company operates Booking.com, which offers online accommodation reservations; Rentalcars.com that provides online rental car reservation services; Priceline, which offer online travel reservation services, including hotel, rental car and airline ticket reservation services, as well as vacation packages and cruises; and Agoda that provides online accommodation reservation services, as well as flight, ground transportation and activities reservation services. It also operates KAYAK, an online price comparison service that allows consumers to search and compare travel itineraries and prices, comprising airline ticket, accommodation reservation, and rental car reservation information; and OpenTable for booking online restaurant reservations. Further, it offers travel-related insurance products, and restaurant management services. The company was formerly known as The Priceline Group Inc. and changed its name to Booking Holdings Inc. in February 2018. Booking Holdings Inc. was founded in 1997 and is headquartered in Norwalk, Connecticut.</t>
-  </si>
-  <si>
-    <t>Deutsche Post AG operates as a mail and logistics company in Germany, rest of Europe, the Americas, the Asia Pacific, the Middle East, and Africa. The company operates through five segments: Post &amp; Parcel Germany; Express; Global Forwarding, Freight; Supply Chain; and eCommerce Solutions. The Post &amp; Parcel Germany segment transports and delivers mail, letters, parcels, physical and hybrid letters, special products for merchandize, and registered mail to private and business customers. It also provides additional services, such as registered mail, cash on delivery, and insured items. The Express segment transport and offers time-definite international (TDI) shipments comprising urgent documents and goods. The Global Forwarding, Freight segment transports goods by air, ocean, and overland; and offers multimodal and sector-specific solutions. This segment's business model is based on brokering transport services between customers and freight carriers. The Supply Chain segment provides contract logistics solutions, including warehousing and transport services; and value-added services, such as e-fulfilment, lead logistics partner, real estate solutions, service logistics, and packaging solutions for various industrial sectors. The eCommerce Solutions segment provides parcel delivery and cross-border non-TDI services. Deutsche Post AG is headquartered in Bonn, Germany.</t>
-  </si>
-  <si>
-    <t>Spirax-Sarco Engineering plc provides engineered solutions for the users of industrial and commercial steam systems, electrical heating and temperature management systems, and pumps and fluid path technologies. It offers industrial and commercial steam systems, including condensate management, controls, and thermal energy management products and solutions for heating and curing, cleaning and sterilizing, hot water generation, space heating, and humidification; electrical process heating and temperature management solutions, such as industrial heaters and systems, heat tracing, and various component technologies for industrial processes, heaters, and systems; and peristaltic and niche pumps and associated fluid path technologies, including pumps, tubing, and specialty filling systems and products for single-use applications. The company serves food, beverage, pharmaceutical and biotechnology, oil, gas, chemical, healthcare, power generation, buildings, mining and precious metal processing, water and wastewater, and pulp and paper, as well as original equipment manufacturers. The company sells its products directly, as well as through distributors. It operates in Europe, the Middle East, and Africa; the Asia Pacific; and the Americas. Spirax-Sarco Engineering plc was founded in 1888 and is headquartered in Cheltenham, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Siemens Aktiengesellschaft, a technology company, focuses in the areas of automation and digitalization in Europe, Commonwealth of Independent States, Africa, the Middle East, the Americas, Asia, and Australia. Its Digital Industries segment offers automation systems and software for factories, numerical control systems, motors, drives and inverters, and integrated automation systems for machine tools and production machines; process control systems, machine-to-machine communication products, sensors and radio frequency identification systems; production and product lifecycle management software; mechatronic systems simulation and testing software; and cloud-based industrial Internet of Things operating system. The company's Smart Infrastructure segment supplies and connects energy systems and building technologies to enhance efficiency and sustainability; and supports customers to address technology shifts. Its Mobility segment provides passenger and freight transportation, such as rail vehicles, rail automation and electrification systems, road traffic technology, digital solutions, and related services; and mobility system services. The company's Siemens Healthineers segment offers medical technology and software solutions; and clinical consulting and training services. Its Siemens Financial Services segment provides leasing solutions and equipment; and debt and equity investment products. The company was founded in 1847 and is headquartered in Munich, Germany.</t>
-  </si>
-  <si>
-    <t>Tesco PLC, together with its subsidiaries, engages in retailing and retail banking activities. It provides food products in stores and online; and operates mobile virtual network. The company is also involved in the food wholesaling activities; and provision of banking, insurance, and money services. It operates in the United Kingdom, Republic of Ireland, the Czech Republic, Slovakia, and Hungary. Tesco PLC was founded in 1919 and is headquartered in Welwyn Garden City, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>salesforce.com, inc. develops enterprise cloud computing solutions with a focus on customer relationship management worldwide. The company offers Sales Cloud to store data, monitor leads and progress, forecast opportunities, and gain insights through analytics and relationship intelligence, as well as deliver quotes, contracts, and invoices. It also provides Service Cloud, which enables companies to deliver personalized customer service and support, as well as a field service solution that enables companies to connect agents, dispatchers, and mobile employees through a centralized platform, which helps to schedule and dispatch work, and track and manage jobs in real-time. In addition, the company offers Marketing Cloud to plan, personalize, and optimize one-to-one customer marketing interactions; and Commerce Cloud, which enables companies to enhance engagement, conversion, revenue, and loyalty from their customers. Further, it provides Customer 360 Platform that offers no-code to pro-code Platform-as-a-Service tools for building, securing, integrating, and managing the business apps; MuleSoft Anypoint Platform enables customers to connect any system, application, data, or device; Quip collaboration platform, which combines documents, spreadsheets, apps, and chat with live CRM data; and Tableau and Einstein Analytics, provides analytical technology to customers. Additionally, the company offers various solutions for financial services, healthcare and life sciences, manufacturing, consumer goods, government, and philanthropy. The company also provides professional services and education services, including instructor-led and online courses; and support and adoption programs. It provides its services through direct sales; and consulting firms, systems integrators, and other partners. Salesforce and Siemens has a strategic partnership. The company was founded in 1999 and is headquartered in San Francisco, California.</t>
-  </si>
-  <si>
-    <t>PayPal Holdings, Inc. operates as a technology platform and digital payments company that enables digital and mobile payments on behalf of consumers and merchants worldwide. Its payment solutions include PayPal, PayPal Credit, Braintree, Venmo, Xoom, Hyperwallet, and iZettle products. The company's payments platform allows consumers to send and receive payments, withdraw funds to their bank accounts, and hold balances in their PayPal accounts in various currencies. It also offers gateway services that enable merchants to accept payments online with credit or debit cards, as well as digital wallets. PayPal Holdings, Inc. was founded in 1998 and is headquartered in San Jose, California.</t>
-  </si>
-  <si>
-    <t>The Home Depot, Inc. operates as a home improvement retailer. It operates The Home Depot stores that sell various building materials, home improvement products, building materials, lawn and garden products, and dÃ©cor products, as well as provide installation, home maintenance, and professional service programs to do-it-yourself and professional customers. The company also offers installation programs that include flooring, cabinets and cabinet makeovers, countertops, furnaces and central air systems, and windows; and professional installation in various categories sold through its stores and in-home sales programs, as well as acts as a general contractor to provide installation services to its do-it-for-me customers through third-party installers. In addition, it provides tool and equipment rental services. The company primarily serves homeowners; and professional renovators/remodelers, general contractors, handymen, property managers, building service contractors, and specialty tradesmen, such as electricians, plumbers, and painters. It also sells its products online. As of January 31, 2021, the company operated 2,296 retail stores in the United States, including the Commonwealth of Puerto Rico, and the territories of the U.S. Virgin Islands and Guam; Canada; and Mexico. The Home Depot, Inc. was incorporated in 1978 and is based in Atlanta, Georgia.</t>
-  </si>
-  <si>
-    <t>General Dynamics Corporation operates as an aerospace and defense company worldwide. It operates through four segments: Aerospace, Marine Systems, Combat Systems, and Technologies. The Marine Systems segment designs and builds nuclear-powered submarines, surface combatants, and auxiliary ships for the United States Navy and Jones Act ships for commercial customers, as well as oil and product tankers, and container and cargo ships. This segment also provides submarine maintenance and modernization services; lifecycle support services for navy surface ships; and program management, planning, engineering, and design support services for submarines and surface-ships. The Combat Systems segment manufactures land combat solutions, such as wheeled and tracked combat vehicles, weapons systems, munitions, mobile bridge systems with payloads, tactical vehicles, main battle tanks, armored vehicles, weapons systems, and armaments. This segment also offers modernization program, engineering, support, and sustainment services. The Technologies segment provides information technology solutions and mission-support services; mobile communication, computers, and command-and-control mission systems; and intelligence, surveillance, and reconnaissance solutions to military, intelligence, and federal civilian customers. This segment also offers cloud computing, artificial intelligence, machine learning, big data analytics, development, security and operation, software-defined network, everything as-a-service and defense enterprise office system solutions. General Dynamics Corporation was founded in 1899 and is headquartered in Reston, Virginia.</t>
-  </si>
-  <si>
-    <t>Halma plc provides technology solutions in the safety, health, and environmental markets. It operates through four segments: Process Safety, Infrastructure Safety, Environmental &amp; Analysis, and Medical. The Process Safety segment offers specialized interlocks that control critical processes safely; instruments that detect flammable and hazardous gases; and explosion protection and corrosion monitoring systems. This segment serves the gas detection, industrial access control, pressure management, and safe storage and transfer markets. The Infrastructure Safety segment provides fire detection systems, specialist fire suppression systems, elevator safety systems, people and vehicle flow technologies, and security sensors. It serves the fire detection and suppression, and elevator markets. The Environmental &amp; Analysis segment offers opto-electronic technology and sensors, flow gap measurement instruments, and gas conditioning products, as well as solutions for environmental data recording, water quality testing, water distribution network monitoring, and UV water treatment. It serves the optical analysis, water analysis and treatment, and environmental monitoring markets. The Medical segment provides devices that assess eye health; assist with eye surgery and primary care applications; critical fluidic components used by medical diagnostics and original equipment manufacturers; and laboratory devices and sensor technologies used in hospitals to understand patient health. This segment serves the life sciences, health assessment, and therapeutic solutions market. The company was incorporated in 1894 and is headquartered in Amersham, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Lowe's Companies, Inc., together with its subsidiaries, operates as a home improvement retailer in the United States and internationally. The company offers a line of products for construction, maintenance, repair, remodeling, and decorating. It provides home improvement products in various categories, such as appliances, dÃ©cor, paint, hardware, millwork, lawn and garden, lighting, lumber and building materials, flooring, kitchens and bath, rough plumbing and electrical, seasonal and outdoor living, and tools. It also offers installation services through independent contractors in various product categories; extended protection plans; and in-warranty and out-of-warranty repair services. The company sells its national brand-name merchandise and private branded products to homeowners, renters, and professional customers. As of January 29, 2021, it operated 1,974 home improvement and hardware stores. The company also sells its products through websites comprising Lowes.com and Lowesforpros.com; and through mobile applications. Lowe's Companies, Inc. was founded in 1921 and is based in Mooresville, North Carolina.</t>
-  </si>
-  <si>
-    <t>Experian plc, together with its subsidiaries, operates as a technology company. The company operates through two segments, Business-to-Business and Consumer Services. It provides data services to identify and understand their customers, as well as to manage the risks related with lending. The company also offers analytical and decision tools that enhance businesses to manage their customers, minimize the risk of fraud, comply with legal requirements, and automate decisions and processes. In addition, it provides financial education, free access to Experian credit reports and scores, online educational tools, and applications to manage their financial position, access credit offers, and protect themselves from identity fraud. The company serves customers in financial service, direct-to-consumer, health, retail, automotive, software and professional services, telecommunications and utility, insurance, media and technology, government and public, and other sectors. It operates in North America, Latin America, the United Kingdom, Ireland, Europe, the Middle East, Africa, and the Asia Pacific. Experian plc was formerly known as Experian Group Limited and changed its name to Experian plc in July 2008. Experian plc was founded in 1897 and is headquartered in Dublin, Ireland.</t>
-  </si>
-  <si>
-    <t>Linde plc operates as an industrial gas company in North and South America, Europe, the Middle East, Africa, and the Asia Pacific. It offers oxygen, nitrogen, argon, rare gases, carbon dioxide, hydrogen, helium, electronic and specialty gases, acetylene, and carbon monoxide. The company also designs and constructs turnkey process plants, such as olefin, natural gas, air separation, hydrogen and synthesis gas, and other plants. It serves healthcare, petroleum refining, manufacturing, food, beverage carbonation, fiber-optics, steel making, aerospace, electronics, chemical, and water treatment industries. The company was founded in 1879 and is based in Guildford, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>Duke Energy Corporation, together with its subsidiaries, operates as an energy company in the United States. It operates through three segments: Electric Utilities and Infrastructure, Gas Utilities and Infrastructure, and Commercial Renewables. The Electric Utilities and Infrastructure segment generates, transmits, distributes, and sells electricity in the Carolinas, Florida, and the Midwest; and uses coal, hydroelectric, natural gas, oil, renewable sources, and nuclear fuel to generate electricity. It also engages in the wholesale of electricity to municipalities, electric cooperative utilities, and load-serving entities. This segment serves approximately 7.9 million retail electric customers in 6 states in the Southeast and Midwest regions of the United States covering a service territory of approximately 91,000 square miles; and owns approximately 50,807 megawatts (MW) of generation capacity. The Gas Utilities and Infrastructure segment distributes natural gas to residential, commercial, industrial, and power generation natural gas customers; and owns, operates, and invests in pipeline transmission and natural gas storage facilities. It has approximately 1.6 million customers, including 1.1 million customers in North Carolina, South Carolina, and Tennessee, as well as 541,000 customers in southwestern Ohio and northern Kentucky. The Commercial Renewables segment acquires, owns, develops, builds, and operates wind and solar renewable generation projects, including nonregulated renewable energy and energy storage services to utilities, electric cooperatives, municipalities, and commercial and industrial customers. It has 21 wind, 150 solar, and 2 battery storage facilities, as well as 11 fuel cell locations with a capacity of 2,282 MW across 19 states. The company was formerly known as Duke Energy Holding Corp. and changed its name to Duke Energy Corporation in April 2005. The company was incorporated in 2005 and is headquartered in Charlotte, North Carolina.</t>
-  </si>
-  <si>
-    <t>Charter Communications, Inc. operates as a broadband connectivity and cable operator company serving residential and commercial customers in the United States. The company provides Internet services, such as security suite that protects computers from viruses and spyware; in-home WiFi, which provides customers with high performance wireless routers to enhance their in-home wireless Internet experience; out-of-home WiFi; and Spectrum WiFi services, as well as video services. It also offers voice communications services using voice over Internet protocol technology; and broadband communications solutions, such as Internet access, data networking, fiber connectivity, video entertainment, and business telephone services to cellular towers and office buildings for business and carrier organizations. In addition, the company provides mobile services; offers video programming, static IP and business WiFi, email and security, and multi-line telephone services, as well as Web-based service management; sells local advertising across various platforms for networks, such as MTV, CNN, and ESPN; sells advertising inventory to local sports and news channels; and offers Audience App for optimizes linear inventory. Further, it offers communications products and managed service solutions; data connectivity services to mobile and wireline carriers on a wholesale basis; and owns and operates regional sports and news networks. The company serves approximately 31 million customers in 41 states. Charter Communications, Inc. was founded in 1993 and is headquartered in Stamford, Connecticut.</t>
-  </si>
-  <si>
-    <t>Croda International Plc creates, makes, and sells specialty chemicals in Europe, the Middle East, Africa, North America, Asia, and Latin America. The company operates in four segments: Personal Care, Life Sciences, Performance Technologies, and Industrial Chemicals. It offers adhesives; crop protection additives and adjuvants, seed enhancement and animal health chemicals, chemical bio-stimulants, and specialty additives for agricultural films; and lubricant additives, coatings and polymers, vehicle cleaning chemicals, and products for automotive textiles and fibers, as well as specialty additives for plastics, and battery and catalyst industries. The company also provides specialty ingredients for self-tanning, color cosmetics, bath and shower, deodorants, anti-perspirants, depilatories, men's grooming, and oral hygiene, as well as skin, hair, sun, body, and baby care applications; construction chemicals and bitumen additives; dietary supplements; and advanced materials, and polymer additives for electronics and devices. In addition, it offers chemistries, emulsifiers, fuel and power generation additives, and polymer additives; food additives; specialty polymer additives for furniture and wood applications; household, industrial, and institutional cleaning products; lubricants; oleochemicals; and packaging, print, and paper chemicals. Further, the company provides paints and coatings; active pharmaceutical ingredients; thermal management products; plastic and rubber products; skin health products; hygiene and industrial nonwovens, botanical extracts, tissues, and textile auxiliaries; and water treatment chemicals. Additionally, it offers bio-based phase change materials for buildings and ventilation, clothing and healthcare, electronics and devices, food and refrigeration, energy storage and recovery, temperature controlled packaging, and vehicles and automotive applications. The company was incorporated in 1925 and is headquartered in Goole, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>E.ON SE operates as an energy company in Germany, the United Kingdom, Sweden, Turkey, the Netherlands, Belgium, rest of Europe, and internationally. It operates through two segments, Energy Networks and Customer Solutions. The Energy Networks segment operates power and gas distribution networks, as well as provides maintenance, repairs, and related services. The Customer Solutions segment supplies power, gas, and heat, as well as with products and services that enhance energy efficiency to residential, small and medium-sized enterprises, large commercial and industrial, sales partners, and public entities. In addition, the company operates, generates, and dismantles nuclear power stations in Germany and Turkey. Further, it provides SmartSim, a software solution that allows renewable gases to be fed into gas grids; gas quality tracking solutions; GasPro, a mobile gas sample collector; and GasCalc, a software that calculates natural gases, LNG, and biogases properties. E.ON SE has a strategic partnership with Kraken Technologies to use Kraken Technologies' technology platform to transform the United Kingdom's business with residential and small and medium enterprise customers. The company was founded in 1923 and is headquartered in Essen, Germany.</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>NASDAQ 100, S&amp;P 100, S&amp;P 500</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>DAX, EURO STOXX 50</t>
-  </si>
-  <si>
-    <t>S&amp;P 100, S&amp;P 500</t>
-  </si>
-  <si>
-    <t>DOW JONES, S&amp;P 100, S&amp;P 500</t>
-  </si>
-  <si>
-    <t>EURO STOXX 50, FTSE 100</t>
-  </si>
-  <si>
-    <t>AEX, EURO STOXX 50</t>
-  </si>
-  <si>
-    <t>DAX, EURO STOXX 50, S&amp;P 500</t>
-  </si>
-  <si>
-    <t>Diversified Retail, Retailers, Discount Stores, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Consumer Non-Cyclicals, Food &amp; Drug Retailing, Food Retail &amp; Distribution</t>
-  </si>
-  <si>
-    <t>Cyclical Consumer Products, Footwear, Textiles &amp; Apparel, Consumer Cyclicals, Sportswear, Toiletries</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>Industrial Goods, Industrials, Aerospace &amp; Defense</t>
-  </si>
-  <si>
-    <t>Specialty Chemicals, Basic Materials, Chemicals</t>
-  </si>
-  <si>
-    <t>Auto &amp; Truck Manufacturers, Automobiles &amp; Auto Parts, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Diversified Retail, Retailers, Department Stores, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Building materials</t>
-  </si>
-  <si>
-    <t>Telecommunications Services, Wireless Telecommunications Services</t>
-  </si>
-  <si>
-    <t>Cyclical Consumer Products, Footwear, Textiles &amp; Apparel, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Hotels &amp; Entertainment Services, Restaurants &amp; Bars, Cyclical Consumer Services, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Construction Materials, Mineral Resources, Basic Materials</t>
-  </si>
-  <si>
-    <t>Other Specialty Retailers, Retailers, Specialty Retailers, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Business Support Services, Industrials, Professional &amp; Commercial Services, Industrial &amp; Commercial Services</t>
-  </si>
-  <si>
-    <t>Paper Packaging, Basic Materials, Containers &amp; Packaging, Applied Resources</t>
-  </si>
-  <si>
-    <t>Industrial Goods, Industrials, Heavy Machinery &amp; Vehicles, Machinery, Equipment &amp; Components</t>
-  </si>
-  <si>
-    <t>Industrials, Diversified Trading &amp; Distributing, Industrial &amp; Commercial Services</t>
-  </si>
-  <si>
-    <t>Automotive, Auto &amp; Truck Manufacturers, Automobiles &amp; Auto Parts, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Technology, Software &amp; IT Services, IT Services &amp; Consulting</t>
-  </si>
-  <si>
-    <t>Electric Utilities, Electric Utilities &amp; IPPs, Utilities</t>
-  </si>
-  <si>
-    <t>Industrials, Industrial Conglomerates</t>
-  </si>
-  <si>
-    <t>Industrials, Air Freight &amp; Courier Services, Freight &amp; Logistics Services, Transportation</t>
-  </si>
-  <si>
-    <t>Media &amp; Publishing, Consumer Publishing, Cyclical Consumer Services, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Software, Enterprise Asset Management, Manufacturing Execution System, Enterprise Solutions</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
-    <t>Technology, Software &amp; IT Services, Internet Services</t>
-  </si>
-  <si>
-    <t>Hotels &amp; Entertainment Services, Leisure &amp; Recreation, Cyclical Consumer Services, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Industrial Goods, Industrials, Machinery, Equipment &amp; Components, Industrial Machinery &amp; Equipment</t>
-  </si>
-  <si>
-    <t>Retailers, Specialty Retailers, Home Improvement Products &amp; Services Retailers, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Aerospace, Defense</t>
-  </si>
-  <si>
-    <t>Industrial Goods, Industrials, Machinery, Equipment &amp; Components, Electrical Components &amp; Equipment</t>
-  </si>
-  <si>
-    <t>Professional Information Services, Industrials, Professional &amp; Commercial Services, Industrial &amp; Commercial Services</t>
-  </si>
-  <si>
-    <t>Commodity Chemicals, Basic Materials, Chemicals</t>
-  </si>
-  <si>
-    <t>Media &amp; Publishing, Cyclical Consumer Services, Broadcasting, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1334,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1485,7 +1488,7 @@
         <v>11.203</v>
       </c>
       <c r="O3" s="4">
-        <v>21.27659574468085</v>
+        <v>22.34042553191489</v>
       </c>
       <c r="P3" s="3">
         <v>0.499</v>
@@ -1494,7 +1497,7 @@
         <v>98.40425531914893</v>
       </c>
       <c r="R3" s="5">
-        <v>76.72872340425532</v>
+        <v>76.99468085106383</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1532,7 +1535,7 @@
         <v>88.29787234042553</v>
       </c>
       <c r="L4" s="3">
-        <v>2.979053</v>
+        <v>2.9836707</v>
       </c>
       <c r="M4" s="4">
         <v>48.93617021276596</v>
@@ -1709,7 +1712,7 @@
         <v>10.171</v>
       </c>
       <c r="O7" s="4">
-        <v>17.02127659574468</v>
+        <v>18.08510638297872</v>
       </c>
       <c r="P7" s="3">
         <v>0.431</v>
@@ -1718,7 +1721,7 @@
         <v>100</v>
       </c>
       <c r="R7" s="5">
-        <v>65.15957446808511</v>
+        <v>65.42553191489361</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2074,43 +2077,43 @@
         <v>216</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>280</v>
       </c>
       <c r="I14" s="2">
-        <v>117.47</v>
+        <v>50.44</v>
       </c>
       <c r="J14" s="3">
-        <v>138.36278</v>
+        <v>35.571228</v>
       </c>
       <c r="K14" s="4">
-        <v>96.80851063829788</v>
+        <v>63.82978723404256</v>
       </c>
       <c r="L14" s="3">
-        <v>5.805337</v>
+        <v>1.4307027</v>
       </c>
       <c r="M14" s="4">
-        <v>27.65957446808511</v>
+        <v>73.40425531914893</v>
       </c>
       <c r="N14" s="3">
-        <v>44.572</v>
+        <v>11.879</v>
       </c>
       <c r="O14" s="4">
-        <v>91.48936170212765</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="P14" s="3">
-        <v>6.346</v>
+        <v>1.688</v>
       </c>
       <c r="Q14" s="4">
-        <v>28.72340425531915</v>
+        <v>77.65957446808511</v>
       </c>
       <c r="R14" s="5">
-        <v>61.17021276595744</v>
+        <v>61.43617021276596</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2130,40 +2133,40 @@
         <v>217</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>281</v>
       </c>
       <c r="I15" s="2">
-        <v>50.44</v>
+        <v>117.47</v>
       </c>
       <c r="J15" s="3">
-        <v>35.571228</v>
+        <v>138.36278</v>
       </c>
       <c r="K15" s="4">
-        <v>63.82978723404256</v>
+        <v>96.80851063829788</v>
       </c>
       <c r="L15" s="3">
-        <v>1.4466261</v>
+        <v>5.805337</v>
       </c>
       <c r="M15" s="4">
-        <v>72.34042553191489</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="N15" s="3">
-        <v>11.883</v>
+        <v>44.572</v>
       </c>
       <c r="O15" s="4">
-        <v>30.85106382978723</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="P15" s="3">
-        <v>1.689</v>
+        <v>6.346</v>
       </c>
       <c r="Q15" s="4">
-        <v>77.65957446808511</v>
+        <v>28.72340425531915</v>
       </c>
       <c r="R15" s="5">
         <v>61.17021276595744</v>
@@ -2404,46 +2407,46 @@
         <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>222</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>285</v>
       </c>
       <c r="I20" s="2">
-        <v>217.42</v>
+        <v>2556</v>
       </c>
       <c r="J20" s="3">
-        <v>34.76495</v>
+        <v>19.922058</v>
       </c>
       <c r="K20" s="4">
-        <v>60.63829787234042</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="L20" s="3">
-        <v>2.769764</v>
+        <v>0.85249126</v>
       </c>
       <c r="M20" s="4">
-        <v>56.38297872340426</v>
+        <v>85.1063829787234</v>
       </c>
       <c r="N20" s="3">
-        <v>18.818</v>
+        <v>12.06</v>
       </c>
       <c r="O20" s="4">
-        <v>60.63829787234042</v>
+        <v>32.97872340425532</v>
       </c>
       <c r="P20" s="3">
-        <v>3.417</v>
+        <v>0.96</v>
       </c>
       <c r="Q20" s="4">
-        <v>54.25531914893617</v>
+        <v>92.55319148936171</v>
       </c>
       <c r="R20" s="5">
         <v>57.97872340425532</v>
@@ -2460,46 +2463,46 @@
         <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>286</v>
       </c>
       <c r="I21" s="2">
-        <v>2556</v>
+        <v>217.42</v>
       </c>
       <c r="J21" s="3">
-        <v>19.922058</v>
+        <v>34.76495</v>
       </c>
       <c r="K21" s="4">
-        <v>21.27659574468085</v>
+        <v>60.63829787234042</v>
       </c>
       <c r="L21" s="3">
-        <v>0.85249126</v>
+        <v>2.769764</v>
       </c>
       <c r="M21" s="4">
-        <v>85.1063829787234</v>
+        <v>56.38297872340426</v>
       </c>
       <c r="N21" s="3">
-        <v>12.06</v>
+        <v>18.818</v>
       </c>
       <c r="O21" s="4">
-        <v>32.97872340425532</v>
+        <v>60.63829787234042</v>
       </c>
       <c r="P21" s="3">
-        <v>0.96</v>
+        <v>3.417</v>
       </c>
       <c r="Q21" s="4">
-        <v>92.55319148936171</v>
+        <v>54.25531914893617</v>
       </c>
       <c r="R21" s="5">
         <v>57.97872340425532</v>
@@ -2578,40 +2581,40 @@
         <v>225</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>288</v>
       </c>
       <c r="I23" s="2">
-        <v>312.62</v>
+        <v>44.91</v>
       </c>
       <c r="J23" s="3">
-        <v>36.99645</v>
+        <v>40.459457</v>
       </c>
       <c r="K23" s="4">
-        <v>67.02127659574468</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="L23" s="3">
-        <v>4.3504705</v>
+        <v>1.2838608</v>
       </c>
       <c r="M23" s="4">
-        <v>39.36170212765958</v>
+        <v>75.53191489361703</v>
       </c>
       <c r="N23" s="3">
-        <v>23.745</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="O23" s="4">
-        <v>75.53191489361703</v>
+        <v>17.02127659574468</v>
       </c>
       <c r="P23" s="3">
-        <v>3.945</v>
+        <v>2.504</v>
       </c>
       <c r="Q23" s="4">
-        <v>46.80851063829788</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="R23" s="5">
         <v>57.18085106382979</v>
@@ -2634,43 +2637,43 @@
         <v>226</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I24" s="2">
-        <v>44.91</v>
+        <v>312.62</v>
       </c>
       <c r="J24" s="3">
-        <v>40.459457</v>
+        <v>36.99645</v>
       </c>
       <c r="K24" s="4">
-        <v>70.21276595744681</v>
+        <v>67.02127659574468</v>
       </c>
       <c r="L24" s="3">
-        <v>1.2838608</v>
+        <v>4.3504705</v>
       </c>
       <c r="M24" s="4">
+        <v>39.36170212765958</v>
+      </c>
+      <c r="N24" s="3">
+        <v>23.745</v>
+      </c>
+      <c r="O24" s="4">
         <v>75.53191489361703</v>
       </c>
-      <c r="N24" s="3">
-        <v>9.936999999999999</v>
-      </c>
-      <c r="O24" s="4">
-        <v>15.95744680851064</v>
-      </c>
       <c r="P24" s="3">
-        <v>2.504</v>
+        <v>3.945</v>
       </c>
       <c r="Q24" s="4">
-        <v>65.95744680851064</v>
+        <v>46.80851063829788</v>
       </c>
       <c r="R24" s="5">
-        <v>56.91489361702128</v>
+        <v>57.18085106382979</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2985,7 +2988,7 @@
         <v>9.995896999999999</v>
       </c>
       <c r="K30" s="4">
-        <v>5.319148936170213</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L30" s="3">
         <v>0.4958006</v>
@@ -3006,7 +3009,7 @@
         <v>84.04255319148936</v>
       </c>
       <c r="R30" s="5">
-        <v>54.25531914893617</v>
+        <v>54.52127659574468</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3053,7 +3056,7 @@
         <v>10.944</v>
       </c>
       <c r="O31" s="4">
-        <v>20.21276595744681</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="P31" s="3">
         <v>1.535</v>
@@ -3062,7 +3065,7 @@
         <v>79.78723404255319</v>
       </c>
       <c r="R31" s="5">
-        <v>54.25531914893617</v>
+        <v>54.52127659574468</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3138,40 +3141,40 @@
         <v>235</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I33" s="2">
-        <v>212.8</v>
+        <v>5602</v>
       </c>
       <c r="J33" s="3">
-        <v>12.8</v>
+        <v>36.758533</v>
       </c>
       <c r="K33" s="4">
-        <v>9.574468085106384</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="L33" s="3">
-        <v>0.5331352</v>
+        <v>3.2976747</v>
       </c>
       <c r="M33" s="4">
-        <v>91.48936170212765</v>
+        <v>46.80851063829788</v>
       </c>
       <c r="N33" s="3">
-        <v>11.519</v>
+        <v>16.506</v>
       </c>
       <c r="O33" s="4">
-        <v>26.59574468085106</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="P33" s="3">
-        <v>1.194</v>
+        <v>3.516</v>
       </c>
       <c r="Q33" s="4">
-        <v>88.29787234042553</v>
+        <v>50</v>
       </c>
       <c r="R33" s="5">
         <v>53.98936170212766</v>
@@ -3188,49 +3191,49 @@
         <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I34" s="2">
-        <v>5602</v>
+        <v>656.95</v>
       </c>
       <c r="J34" s="3">
-        <v>36.758533</v>
+        <v>658.26654</v>
       </c>
       <c r="K34" s="4">
-        <v>65.95744680851064</v>
+        <v>100</v>
       </c>
       <c r="L34" s="3">
-        <v>3.2976747</v>
+        <v>17.608784</v>
       </c>
       <c r="M34" s="4">
-        <v>46.80851063829788</v>
+        <v>7.446808510638298</v>
       </c>
       <c r="N34" s="3">
-        <v>16.506</v>
+        <v>138.28</v>
       </c>
       <c r="O34" s="4">
-        <v>53.19148936170212</v>
+        <v>98.93617021276596</v>
       </c>
       <c r="P34" s="3">
-        <v>3.516</v>
+        <v>17.51</v>
       </c>
       <c r="Q34" s="4">
-        <v>50</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="R34" s="5">
-        <v>53.98936170212766</v>
+        <v>53.72340425531915</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3244,49 +3247,49 @@
         <v>155</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="I35" s="2">
-        <v>656.95</v>
+        <v>58.43</v>
       </c>
       <c r="J35" s="3">
-        <v>658.26654</v>
+        <v>19.126022</v>
       </c>
       <c r="K35" s="4">
-        <v>100</v>
+        <v>18.08510638297872</v>
       </c>
       <c r="L35" s="3">
-        <v>17.608784</v>
+        <v>1.0273631</v>
       </c>
       <c r="M35" s="4">
-        <v>7.446808510638298</v>
+        <v>81.91489361702128</v>
       </c>
       <c r="N35" s="3">
-        <v>138.28</v>
+        <v>11.488</v>
       </c>
       <c r="O35" s="4">
-        <v>98.93617021276596</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="P35" s="3">
-        <v>17.51</v>
+        <v>1.203</v>
       </c>
       <c r="Q35" s="4">
-        <v>8.51063829787234</v>
+        <v>87.23404255319149</v>
       </c>
       <c r="R35" s="5">
-        <v>53.72340425531915</v>
+        <v>53.45744680851064</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3418,43 +3421,43 @@
         <v>240</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="I38" s="2">
-        <v>58.43</v>
+        <v>14010</v>
       </c>
       <c r="J38" s="3">
-        <v>19.126022</v>
+        <v>59.6678</v>
       </c>
       <c r="K38" s="4">
+        <v>87.23404255319149</v>
+      </c>
+      <c r="L38" s="3">
+        <v>8.659808999999999</v>
+      </c>
+      <c r="M38" s="4">
         <v>18.08510638297872</v>
       </c>
-      <c r="L38" s="3">
-        <v>1.0273631</v>
-      </c>
-      <c r="M38" s="4">
-        <v>81.91489361702128</v>
-      </c>
       <c r="N38" s="3">
-        <v>11.488</v>
+        <v>34.705</v>
       </c>
       <c r="O38" s="4">
-        <v>25.53191489361702</v>
+        <v>86.17021276595744</v>
       </c>
       <c r="P38" s="3">
-        <v>1.203</v>
+        <v>8.5</v>
       </c>
       <c r="Q38" s="4">
-        <v>87.23404255319149</v>
+        <v>20.21276595744681</v>
       </c>
       <c r="R38" s="5">
-        <v>53.19148936170212</v>
+        <v>52.92553191489362</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3474,40 +3477,40 @@
         <v>241</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I39" s="2">
-        <v>14010</v>
+        <v>132.54</v>
       </c>
       <c r="J39" s="3">
-        <v>59.6678</v>
+        <v>18.133806</v>
       </c>
       <c r="K39" s="4">
-        <v>87.23404255319149</v>
+        <v>17.02127659574468</v>
       </c>
       <c r="L39" s="3">
-        <v>8.659808999999999</v>
+        <v>1.8135535</v>
       </c>
       <c r="M39" s="4">
-        <v>18.08510638297872</v>
+        <v>67.02127659574468</v>
       </c>
       <c r="N39" s="3">
-        <v>34.705</v>
+        <v>16.873</v>
       </c>
       <c r="O39" s="4">
-        <v>86.17021276595744</v>
+        <v>57.4468085106383</v>
       </c>
       <c r="P39" s="3">
-        <v>8.5</v>
+        <v>2.242</v>
       </c>
       <c r="Q39" s="4">
-        <v>20.21276595744681</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="R39" s="5">
         <v>52.92553191489362</v>
@@ -3530,43 +3533,43 @@
         <v>242</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I40" s="2">
-        <v>132.54</v>
+        <v>237.7</v>
       </c>
       <c r="J40" s="3">
-        <v>18.133806</v>
+        <v>2.9491315</v>
       </c>
       <c r="K40" s="4">
-        <v>17.02127659574468</v>
+        <v>3.191489361702128</v>
       </c>
       <c r="L40" s="3">
-        <v>1.8135535</v>
+        <v>0.31748536</v>
       </c>
       <c r="M40" s="4">
-        <v>67.02127659574468</v>
+        <v>98.93617021276596</v>
       </c>
       <c r="N40" s="3">
-        <v>17.192</v>
+        <v>9.334</v>
       </c>
       <c r="O40" s="4">
-        <v>57.4468085106383</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="P40" s="3">
-        <v>2.285</v>
+        <v>0.499</v>
       </c>
       <c r="Q40" s="4">
-        <v>70.21276595744681</v>
+        <v>98.40425531914893</v>
       </c>
       <c r="R40" s="5">
-        <v>52.92553191489362</v>
+        <v>52.79255319148936</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3580,49 +3583,49 @@
         <v>161</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="I41" s="2">
-        <v>237.7</v>
+        <v>245.06</v>
       </c>
       <c r="J41" s="3">
-        <v>2.9491315</v>
+        <v>55.949768</v>
       </c>
       <c r="K41" s="4">
-        <v>3.191489361702128</v>
+        <v>82.97872340425532</v>
       </c>
       <c r="L41" s="3">
-        <v>0.31748536</v>
+        <v>10.111965</v>
       </c>
       <c r="M41" s="4">
-        <v>98.93617021276596</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="N41" s="3">
-        <v>9.334</v>
+        <v>61.911</v>
       </c>
       <c r="O41" s="4">
-        <v>10.63829787234043</v>
+        <v>94.68085106382979</v>
       </c>
       <c r="P41" s="3">
-        <v>0.499</v>
+        <v>9.629</v>
       </c>
       <c r="Q41" s="4">
-        <v>98.40425531914893</v>
+        <v>18.08510638297872</v>
       </c>
       <c r="R41" s="5">
-        <v>52.79255319148936</v>
+        <v>52.6595744680851</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3645,40 +3648,40 @@
         <v>256</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I42" s="2">
-        <v>245.06</v>
+        <v>300.21</v>
       </c>
       <c r="J42" s="3">
-        <v>55.949768</v>
+        <v>68.41613</v>
       </c>
       <c r="K42" s="4">
-        <v>82.97872340425532</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="L42" s="3">
-        <v>10.111965</v>
+        <v>15.4211235</v>
       </c>
       <c r="M42" s="4">
-        <v>14.8936170212766</v>
+        <v>9.574468085106384</v>
       </c>
       <c r="N42" s="3">
-        <v>61.911</v>
+        <v>67.03100000000001</v>
       </c>
       <c r="O42" s="4">
-        <v>94.68085106382979</v>
+        <v>95.74468085106383</v>
       </c>
       <c r="P42" s="3">
-        <v>9.629</v>
+        <v>14.582</v>
       </c>
       <c r="Q42" s="4">
-        <v>18.08510638297872</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="R42" s="5">
-        <v>52.6595744680851</v>
+        <v>51.86170212765958</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3701,40 +3704,40 @@
         <v>256</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I43" s="2">
-        <v>300.21</v>
+        <v>195.33</v>
       </c>
       <c r="J43" s="3">
-        <v>68.41613</v>
+        <v>21.305628</v>
       </c>
       <c r="K43" s="4">
-        <v>91.48936170212765</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="L43" s="3">
-        <v>15.4211235</v>
+        <v>1.4635463</v>
       </c>
       <c r="M43" s="4">
-        <v>9.574468085106384</v>
+        <v>71.27659574468085</v>
       </c>
       <c r="N43" s="3">
-        <v>67.03100000000001</v>
+        <v>11.418</v>
       </c>
       <c r="O43" s="4">
-        <v>95.74468085106383</v>
+        <v>25.53191489361702</v>
       </c>
       <c r="P43" s="3">
-        <v>14.582</v>
+        <v>1.671</v>
       </c>
       <c r="Q43" s="4">
-        <v>10.63829787234043</v>
+        <v>78.72340425531915</v>
       </c>
       <c r="R43" s="5">
-        <v>51.86170212765958</v>
+        <v>51.59574468085106</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3757,37 +3760,37 @@
         <v>256</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I44" s="2">
-        <v>322.09</v>
+        <v>190.22</v>
       </c>
       <c r="J44" s="3">
-        <v>23.47937</v>
+        <v>17.292727</v>
       </c>
       <c r="K44" s="4">
-        <v>35.1063829787234</v>
+        <v>15.95744680851064</v>
       </c>
       <c r="L44" s="3">
-        <v>2.4228187</v>
+        <v>1.4119883</v>
       </c>
       <c r="M44" s="4">
-        <v>59.57446808510638</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="N44" s="3">
-        <v>14.774</v>
+        <v>12.962</v>
       </c>
       <c r="O44" s="4">
-        <v>46.80851063829788</v>
+        <v>40.42553191489362</v>
       </c>
       <c r="P44" s="3">
-        <v>2.609</v>
+        <v>1.719</v>
       </c>
       <c r="Q44" s="4">
-        <v>64.8936170212766</v>
+        <v>75.53191489361703</v>
       </c>
       <c r="R44" s="5">
         <v>51.59574468085106</v>
@@ -3813,37 +3816,37 @@
         <v>256</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I45" s="2">
-        <v>190.22</v>
+        <v>322.09</v>
       </c>
       <c r="J45" s="3">
-        <v>17.292727</v>
+        <v>23.47937</v>
       </c>
       <c r="K45" s="4">
-        <v>15.95744680851064</v>
+        <v>35.1063829787234</v>
       </c>
       <c r="L45" s="3">
-        <v>1.4119883</v>
+        <v>2.4228187</v>
       </c>
       <c r="M45" s="4">
-        <v>74.46808510638297</v>
+        <v>59.57446808510638</v>
       </c>
       <c r="N45" s="3">
-        <v>12.962</v>
+        <v>14.774</v>
       </c>
       <c r="O45" s="4">
-        <v>40.42553191489362</v>
+        <v>46.80851063829788</v>
       </c>
       <c r="P45" s="3">
-        <v>1.719</v>
+        <v>2.609</v>
       </c>
       <c r="Q45" s="4">
-        <v>75.53191489361703</v>
+        <v>64.8936170212766</v>
       </c>
       <c r="R45" s="5">
         <v>51.59574468085106</v>
@@ -3860,7 +3863,7 @@
         <v>166</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>248</v>
@@ -3916,46 +3919,46 @@
         <v>167</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I47" s="2">
-        <v>195.33</v>
+        <v>2938</v>
       </c>
       <c r="J47" s="3">
-        <v>21.305628</v>
+        <v>56.391556</v>
       </c>
       <c r="K47" s="4">
-        <v>30.85106382978723</v>
+        <v>84.04255319148936</v>
       </c>
       <c r="L47" s="3">
-        <v>1.4635463</v>
+        <v>5.017018</v>
       </c>
       <c r="M47" s="4">
-        <v>71.27659574468085</v>
+        <v>32.97872340425532</v>
       </c>
       <c r="N47" s="3">
-        <v>11.418</v>
+        <v>15.699</v>
       </c>
       <c r="O47" s="4">
-        <v>24.46808510638298</v>
+        <v>52.12765957446808</v>
       </c>
       <c r="P47" s="3">
-        <v>1.671</v>
+        <v>5.301</v>
       </c>
       <c r="Q47" s="4">
-        <v>78.72340425531915</v>
+        <v>36.17021276595744</v>
       </c>
       <c r="R47" s="5">
         <v>51.32978723404256</v>
@@ -3978,43 +3981,43 @@
         <v>250</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I48" s="2">
-        <v>2938</v>
+        <v>247.35</v>
       </c>
       <c r="J48" s="3">
-        <v>56.391556</v>
+        <v>53.331177</v>
       </c>
       <c r="K48" s="4">
-        <v>84.04255319148936</v>
+        <v>80.85106382978724</v>
       </c>
       <c r="L48" s="3">
-        <v>5.017018</v>
+        <v>4.6361074</v>
       </c>
       <c r="M48" s="4">
-        <v>32.97872340425532</v>
+        <v>36.17021276595744</v>
       </c>
       <c r="N48" s="3">
-        <v>15.699</v>
+        <v>15.567</v>
       </c>
       <c r="O48" s="4">
-        <v>52.12765957446808</v>
+        <v>50</v>
       </c>
       <c r="P48" s="3">
-        <v>5.301</v>
+        <v>5.081</v>
       </c>
       <c r="Q48" s="4">
-        <v>36.17021276595744</v>
+        <v>37.23404255319149</v>
       </c>
       <c r="R48" s="5">
-        <v>51.32978723404256</v>
+        <v>51.06382978723404</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4028,49 +4031,49 @@
         <v>169</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I49" s="2">
-        <v>247.35</v>
+        <v>100.66</v>
       </c>
       <c r="J49" s="3">
-        <v>53.331177</v>
+        <v>58.557304</v>
       </c>
       <c r="K49" s="4">
-        <v>80.85106382978724</v>
+        <v>86.17021276595744</v>
       </c>
       <c r="L49" s="3">
-        <v>4.6361074</v>
+        <v>3.3014708</v>
       </c>
       <c r="M49" s="4">
-        <v>36.17021276595744</v>
+        <v>45.74468085106383</v>
       </c>
       <c r="N49" s="3">
-        <v>15.567</v>
+        <v>13.1</v>
       </c>
       <c r="O49" s="4">
-        <v>50</v>
+        <v>41.48936170212766</v>
       </c>
       <c r="P49" s="3">
-        <v>5.081</v>
+        <v>6.167</v>
       </c>
       <c r="Q49" s="4">
-        <v>37.23404255319149</v>
+        <v>29.78723404255319</v>
       </c>
       <c r="R49" s="5">
-        <v>51.06382978723404</v>
+        <v>50.79787234042553</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4084,49 +4087,49 @@
         <v>170</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="I50" s="2">
-        <v>100.66</v>
+        <v>10.088</v>
       </c>
       <c r="J50" s="3">
-        <v>58.557304</v>
+        <v>11.662428</v>
       </c>
       <c r="K50" s="4">
-        <v>86.17021276595744</v>
+        <v>7.446808510638298</v>
       </c>
       <c r="L50" s="3">
-        <v>3.3014708</v>
+        <v>0.42180875</v>
       </c>
       <c r="M50" s="4">
-        <v>45.74468085106383</v>
+        <v>94.68085106382979</v>
       </c>
       <c r="N50" s="3">
-        <v>13.1</v>
+        <v>8.718</v>
       </c>
       <c r="O50" s="4">
-        <v>41.48936170212766</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="P50" s="3">
-        <v>6.167</v>
+        <v>0.992</v>
       </c>
       <c r="Q50" s="4">
-        <v>29.78723404255319</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="R50" s="5">
-        <v>50.79787234042553</v>
+        <v>50.53191489361702</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4152,7 +4155,7 @@
         <v>261</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I51" s="2">
         <v>736.47</v>
@@ -4264,34 +4267,34 @@
         <v>263</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="I53" s="2">
-        <v>10.088</v>
+        <v>212.8</v>
       </c>
       <c r="J53" s="3">
-        <v>11.662428</v>
+        <v>9.547739</v>
       </c>
       <c r="K53" s="4">
-        <v>6.382978723404255</v>
+        <v>5.319148936170213</v>
       </c>
       <c r="L53" s="3">
-        <v>0.42180875</v>
+        <v>0.5488341</v>
       </c>
       <c r="M53" s="4">
-        <v>94.68085106382979</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="N53" s="3">
-        <v>8.718</v>
+        <v>9.909000000000001</v>
       </c>
       <c r="O53" s="4">
-        <v>8.51063829787234</v>
+        <v>15.95744680851064</v>
       </c>
       <c r="P53" s="3">
-        <v>0.992</v>
+        <v>1.17</v>
       </c>
       <c r="Q53" s="4">
-        <v>91.48936170212765</v>
+        <v>88.29787234042553</v>
       </c>
       <c r="R53" s="5">
         <v>50.26595744680851</v>

--- a/dist/market_stock_value_scoring.xlsx
+++ b/dist/market_stock_value_scoring.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="311">
   <si>
     <t>Company</t>
   </si>
@@ -91,18 +91,15 @@
     <t>United Parcel Service Inc.</t>
   </si>
   <si>
-    <t>Walgreens Boots Alliance Inc.</t>
-  </si>
-  <si>
     <t>Johnson Matthey PLC</t>
   </si>
   <si>
+    <t>Ford Motor Company</t>
+  </si>
+  <si>
     <t>Amazon.com Inc.</t>
   </si>
   <si>
-    <t>Ford Motor Company</t>
-  </si>
-  <si>
     <t>Ferguson PLC</t>
   </si>
   <si>
@@ -112,28 +109,34 @@
     <t>Walmart Inc.</t>
   </si>
   <si>
+    <t>NIKE Inc.</t>
+  </si>
+  <si>
+    <t>CRH PLC</t>
+  </si>
+  <si>
+    <t>Starbucks Corporation</t>
+  </si>
+  <si>
     <t>NEXT PLC</t>
   </si>
   <si>
-    <t>Starbucks Corporation</t>
-  </si>
-  <si>
-    <t>CRH PLC</t>
-  </si>
-  <si>
     <t>Rentokil Initial PLC</t>
   </si>
   <si>
+    <t>DS Smith PLC</t>
+  </si>
+  <si>
+    <t>Ashtead Group PLC</t>
+  </si>
+  <si>
     <t>Bunzl PLC</t>
   </si>
   <si>
-    <t>DS Smith PLC</t>
-  </si>
-  <si>
     <t>Caterpillar Inc.</t>
   </si>
   <si>
-    <t>Ashtead Group PLC</t>
+    <t>Bayerische Motoren Werke AG</t>
   </si>
   <si>
     <t>Exelon Corporation</t>
@@ -142,18 +145,12 @@
     <t>Accenture PLC</t>
   </si>
   <si>
-    <t>Bayerische Motoren Werke AG</t>
+    <t>Smiths Group PLC</t>
   </si>
   <si>
     <t>Koninklijke Ahold Delhaize N.V.</t>
   </si>
   <si>
-    <t>Smiths Group PLC</t>
-  </si>
-  <si>
-    <t>NIKE Inc.</t>
-  </si>
-  <si>
     <t>FedEx Corporation</t>
   </si>
   <si>
@@ -163,10 +160,13 @@
     <t>AVEVA Group plc</t>
   </si>
   <si>
+    <t>Daimler AG</t>
+  </si>
+  <si>
     <t>Dow Inc.</t>
   </si>
   <si>
-    <t>Daimler AG</t>
+    <t>Target Corporation</t>
   </si>
   <si>
     <t>Intertek Group PLC</t>
@@ -175,7 +175,7 @@
     <t>Tesla Inc.</t>
   </si>
   <si>
-    <t>Target Corporation</t>
+    <t>Deutsche Post AG</t>
   </si>
   <si>
     <t>Netflix Inc.</t>
@@ -184,55 +184,52 @@
     <t>Booking Holdings Inc.</t>
   </si>
   <si>
-    <t>Deutsche Post AG</t>
-  </si>
-  <si>
     <t>Spirax-Sarco Engineering PLC</t>
   </si>
   <si>
+    <t>Siemens AG</t>
+  </si>
+  <si>
+    <t>Tesco PLC</t>
+  </si>
+  <si>
+    <t>salesforce.com Inc.</t>
+  </si>
+  <si>
+    <t>PayPal Holdings Inc.</t>
+  </si>
+  <si>
+    <t>Lowe's Companies Inc.</t>
+  </si>
+  <si>
+    <t>General Dynamics Corporation</t>
+  </si>
+  <si>
+    <t>The Home Depot Inc.</t>
+  </si>
+  <si>
     <t>Halma PLC</t>
   </si>
   <si>
-    <t>Tesco PLC</t>
-  </si>
-  <si>
-    <t>Siemens AG</t>
-  </si>
-  <si>
-    <t>PayPal Holdings Inc.</t>
-  </si>
-  <si>
-    <t>salesforce.com Inc.</t>
+    <t>Experian PLC</t>
   </si>
   <si>
     <t>Linde PLC</t>
   </si>
   <si>
-    <t>The Home Depot Inc.</t>
-  </si>
-  <si>
-    <t>Lowe's Companies Inc.</t>
+    <t>Duke Energy Corporation</t>
+  </si>
+  <si>
+    <t>E.ON SE</t>
+  </si>
+  <si>
+    <t>Charter Communications Inc.</t>
   </si>
   <si>
     <t>Croda International PLC</t>
   </si>
   <si>
-    <t>General Dynamics Corporation</t>
-  </si>
-  <si>
-    <t>Duke Energy Corporation</t>
-  </si>
-  <si>
-    <t>Honeywell International Inc.</t>
-  </si>
-  <si>
-    <t>E.ON SE</t>
-  </si>
-  <si>
-    <t>Experian PLC</t>
-  </si>
-  <si>
-    <t>Charter Communications Inc.</t>
+    <t>Volkswagen AG</t>
   </si>
   <si>
     <t>COST</t>
@@ -250,18 +247,15 @@
     <t>UPS</t>
   </si>
   <si>
-    <t>WBA</t>
-  </si>
-  <si>
     <t>JMAT</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>AMZN</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>FERG</t>
   </si>
   <si>
@@ -271,28 +265,34 @@
     <t>WMT</t>
   </si>
   <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
     <t>NXT</t>
   </si>
   <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>CRH</t>
-  </si>
-  <si>
     <t>RTO</t>
   </si>
   <si>
+    <t>SMDS</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
     <t>BNZL</t>
   </si>
   <si>
-    <t>SMDS</t>
-  </si>
-  <si>
     <t>CAT</t>
   </si>
   <si>
-    <t>AHT</t>
+    <t>BMW</t>
   </si>
   <si>
     <t>EXC</t>
@@ -301,18 +301,12 @@
     <t>ACN</t>
   </si>
   <si>
-    <t>BMW</t>
+    <t>SMIN</t>
   </si>
   <si>
     <t>AD</t>
   </si>
   <si>
-    <t>SMIN</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
     <t>FDX</t>
   </si>
   <si>
@@ -322,10 +316,13 @@
     <t>AVV</t>
   </si>
   <si>
+    <t>DAI</t>
+  </si>
+  <si>
     <t>DOW</t>
   </si>
   <si>
-    <t>DAI</t>
+    <t>TGT</t>
   </si>
   <si>
     <t>ITRK</t>
@@ -334,7 +331,7 @@
     <t>TSLA</t>
   </si>
   <si>
-    <t>TGT</t>
+    <t>DPW</t>
   </si>
   <si>
     <t>NFLX</t>
@@ -343,55 +340,52 @@
     <t>BKNG</t>
   </si>
   <si>
-    <t>DPW</t>
-  </si>
-  <si>
     <t>SPX</t>
   </si>
   <si>
+    <t>SIE</t>
+  </si>
+  <si>
+    <t>TSCO</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
     <t>HLMA</t>
   </si>
   <si>
-    <t>TSCO</t>
-  </si>
-  <si>
-    <t>SIE</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>CRM</t>
+    <t>EXPN</t>
   </si>
   <si>
     <t>LIN</t>
   </si>
   <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>LOW</t>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>EOAN</t>
+  </si>
+  <si>
+    <t>CHTR</t>
   </si>
   <si>
     <t>CRDA</t>
   </si>
   <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>DUK</t>
-  </si>
-  <si>
-    <t>HON</t>
-  </si>
-  <si>
-    <t>EOAN</t>
-  </si>
-  <si>
-    <t>EXPN</t>
-  </si>
-  <si>
-    <t>CHTR</t>
+    <t>VOW3</t>
   </si>
   <si>
     <t>NASDAQ:COST</t>
@@ -409,18 +403,15 @@
     <t>NYSE:UPS</t>
   </si>
   <si>
-    <t>NASDAQ:WBA</t>
-  </si>
-  <si>
     <t>LON:JMAT</t>
   </si>
   <si>
+    <t>NYSE:F</t>
+  </si>
+  <si>
     <t>NASDAQ:AMZN</t>
   </si>
   <si>
-    <t>NYSE:F</t>
-  </si>
-  <si>
     <t>LON:FERG</t>
   </si>
   <si>
@@ -430,28 +421,34 @@
     <t>FRA:WMT</t>
   </si>
   <si>
+    <t>FRA:NKE</t>
+  </si>
+  <si>
+    <t>NYSE:CRH</t>
+  </si>
+  <si>
+    <t>NASDAQ:SBUX</t>
+  </si>
+  <si>
     <t>LON:NXT</t>
   </si>
   <si>
-    <t>NASDAQ:SBUX</t>
-  </si>
-  <si>
-    <t>NYSE:CRH</t>
-  </si>
-  <si>
     <t>FRA:RTO</t>
   </si>
   <si>
+    <t>LON:SMDS</t>
+  </si>
+  <si>
+    <t>FRA:AHT</t>
+  </si>
+  <si>
     <t>LON:BNZL</t>
   </si>
   <si>
-    <t>LON:SMDS</t>
-  </si>
-  <si>
     <t>NYSE:CAT</t>
   </si>
   <si>
-    <t>FRA:AHT</t>
+    <t>FRA:BMW</t>
   </si>
   <si>
     <t>NYSE:EXC</t>
@@ -460,18 +457,12 @@
     <t>NYSE:ACN</t>
   </si>
   <si>
-    <t>FRA:BMW</t>
+    <t>LON:SMIN</t>
   </si>
   <si>
     <t>AMS:AD</t>
   </si>
   <si>
-    <t>LON:SMIN</t>
-  </si>
-  <si>
-    <t>FRA:NKE</t>
-  </si>
-  <si>
     <t>FRA:FDX</t>
   </si>
   <si>
@@ -481,10 +472,13 @@
     <t>LON:AVV</t>
   </si>
   <si>
+    <t>FRA:DAI</t>
+  </si>
+  <si>
     <t>NYSE:DOW</t>
   </si>
   <si>
-    <t>FRA:DAI</t>
+    <t>NYSE:TGT</t>
   </si>
   <si>
     <t>LON:ITRK</t>
@@ -493,7 +487,7 @@
     <t>NASDAQ:TSLA</t>
   </si>
   <si>
-    <t>NYSE:TGT</t>
+    <t>FRA:DPW</t>
   </si>
   <si>
     <t>NASDAQ:NFLX</t>
@@ -502,55 +496,52 @@
     <t>NASDAQ:BKNG</t>
   </si>
   <si>
-    <t>FRA:DPW</t>
-  </si>
-  <si>
     <t>LON:SPX</t>
   </si>
   <si>
+    <t>FRA:SIE</t>
+  </si>
+  <si>
+    <t>LON:TSCO</t>
+  </si>
+  <si>
+    <t>NYSE:CRM</t>
+  </si>
+  <si>
+    <t>NASDAQ:PYPL</t>
+  </si>
+  <si>
+    <t>NYSE:LOW</t>
+  </si>
+  <si>
+    <t>NYSE:GD</t>
+  </si>
+  <si>
+    <t>NYSE:HD</t>
+  </si>
+  <si>
     <t>LON:HLMA</t>
   </si>
   <si>
-    <t>LON:TSCO</t>
-  </si>
-  <si>
-    <t>FRA:SIE</t>
-  </si>
-  <si>
-    <t>NASDAQ:PYPL</t>
-  </si>
-  <si>
-    <t>NYSE:CRM</t>
+    <t>LON:EXPN</t>
   </si>
   <si>
     <t>FRA:LIN</t>
   </si>
   <si>
-    <t>NYSE:HD</t>
-  </si>
-  <si>
-    <t>NYSE:LOW</t>
+    <t>NYSE:DUK</t>
+  </si>
+  <si>
+    <t>FRA:EOAN</t>
+  </si>
+  <si>
+    <t>NASDAQ:CHTR</t>
   </si>
   <si>
     <t>LON:CRDA</t>
   </si>
   <si>
-    <t>NYSE:GD</t>
-  </si>
-  <si>
-    <t>NYSE:DUK</t>
-  </si>
-  <si>
-    <t>NYSE:HON</t>
-  </si>
-  <si>
-    <t>FRA:EOAN</t>
-  </si>
-  <si>
-    <t>LON:EXPN</t>
-  </si>
-  <si>
-    <t>NASDAQ:CHTR</t>
+    <t>FRA:VOW3</t>
   </si>
   <si>
     <t>MRW.L</t>
@@ -571,33 +562,33 @@
     <t>WMT.F</t>
   </si>
   <si>
+    <t>NKE.F</t>
+  </si>
+  <si>
     <t>NXT.L</t>
   </si>
   <si>
     <t>RTO.F</t>
   </si>
   <si>
+    <t>SMDS.L</t>
+  </si>
+  <si>
+    <t>AHT.F</t>
+  </si>
+  <si>
     <t>BNZL.L</t>
   </si>
   <si>
-    <t>SMDS.L</t>
-  </si>
-  <si>
-    <t>AHT.F</t>
-  </si>
-  <si>
     <t>BMW.F</t>
   </si>
   <si>
+    <t>SMIN.L</t>
+  </si>
+  <si>
     <t>AD.AS</t>
   </si>
   <si>
-    <t>SMIN.L</t>
-  </si>
-  <si>
-    <t>NKE.F</t>
-  </si>
-  <si>
     <t>FDX.F</t>
   </si>
   <si>
@@ -619,25 +610,28 @@
     <t>SPX.L</t>
   </si>
   <si>
+    <t>SIE.F</t>
+  </si>
+  <si>
+    <t>TSCO.L</t>
+  </si>
+  <si>
     <t>HLMA.L</t>
   </si>
   <si>
-    <t>TSCO.L</t>
-  </si>
-  <si>
-    <t>SIE.F</t>
+    <t>EXPN.L</t>
   </si>
   <si>
     <t>LIN.F</t>
   </si>
   <si>
+    <t>EOAN.F</t>
+  </si>
+  <si>
     <t>CRDA.L</t>
   </si>
   <si>
-    <t>EOAN.F</t>
-  </si>
-  <si>
-    <t>EXPN.L</t>
+    <t>VOW3.F</t>
   </si>
   <si>
     <t>Costco Wholesale Corporation, together with its subsidiaries, engages in the operation of membership warehouses in the United States, Puerto Rico, Canada, the United Kingdom, Mexico, Japan, Korea, Australia, Spain, France, Iceland, China, and Taiwan. It offers branded and private-label products in a range of merchandise categories. The company provides dry and packaged foods, and groceries; snack foods, candies, alcoholic and nonalcoholic beverages, and cleaning supplies; appliances, electronics, health and beauty aids, hardware, and garden and patio products; meat, bakery, and deli products, as well as produce; and apparel and small appliances. It also operates pharmacies, optical dispensing centers, food courts, and hearing-aid centers, as well as 615 gas stations; and offers business delivery, travel, same-day grocery, and various other services online in various countries. As of October 07, 2020, the company operated 796 warehouses, including 552 in the United States and Puerto Rico, 102 in Canada, 39 in Mexico, 29 in the United Kingdom, 27 in Japan, 16 in South Korea, 13 in Taiwan, 12 in Australia, 3 in Spain, 1 in Iceland, 1 in France, and 1 in China. It also operates e-commerce websites in the United States, Canada, the United Kingdom, Mexico, South Korea, Taiwan, Japan, and Australia. The company was formerly known as Costco Companies, Inc. and changed its name to Costco Wholesale Corporation in August 1999. Costco Wholesale Corporation was founded in 1976 and is based in Issaquah, Washington.</t>
@@ -655,18 +649,15 @@
     <t>United Parcel Service, Inc. provides letter and package delivery, transportation, logistics, and financial services. It operates through three segments: U.S. Domestic Package, International Package, and Supply Chain &amp; Freight. The U.S. Domestic Package segment offers time-definite delivery of letters, documents, small packages, and palletized freight through air and ground services in the United States. The International Package segment provides guaranteed day and time-definite international shipping services in Europe, the Asia Pacific, Canada and Latin America, the Indian sub-continent, the Middle East, and Africa. This segment offers guaranteed time-definite express options. The Supply Chain &amp; Freight segment provides international air and ocean freight forwarding, customs brokerage, distribution and post-sales, and mail and consulting services in approximately 200 countries and territories; and less-than-truckload and truckload services to customers in North America. This segment also offers truckload brokerage services; supply chain solutions to the healthcare and life sciences industry; shipping, visibility, and billing technologies; and financial and insurance services. The company operates a fleet of approximately 127,000 package cars, vans, tractors, and motorcycles; and owns 58,000 containers that are used to transport cargo in its aircraft. United Parcel Service, Inc. was founded in 1907 and is headquartered in Atlanta, Georgia.</t>
   </si>
   <si>
-    <t>Walgreens Boots Alliance, Inc. operates as a pharmacy-led health and beauty retail company. It operates through three segments: Retail Pharmacy USA, Retail Pharmacy International, and Pharmaceutical Wholesale. The Retail Pharmacy USA segment sells prescription drugs and an assortment of retail products, including health, wellness, beauty, personal care, consumable, and general merchandise products through its retail drugstores. It also provides specialty pharmacy services and mail services. As of August 31, 2020, this segment operated 9,021 retail stores under the Walgreens and Duane Reade brands in the United States; and six specialty pharmacies. The Retail Pharmacy International segment sells prescription drugs; and health and wellness, beauty, personal care, and other consumer products through its pharmacy-led health and beauty stores and optical practices, as well as through boots.com and an integrated mobile application. This segment operated 4,428 retail stores under the Boots, Benavides, and Ahumada in the United Kingdom, Thailand, Norway, the Republic of Ireland, the Netherlands, Mexico, and Chile; and 550 optical practices, including 165 on a franchise basis. The Pharmaceutical Wholesale segment engages in the wholesale and distribution of specialty and generic pharmaceuticals, health and beauty products, and home healthcare supplies and equipment, as well as provides related services to pharmacies and other healthcare providers. This segment operates in the United Kingdom, Germany, France, Turkey, Spain, the Netherlands, Egypt, Norway, Romania, the Czech Republic, and Lithuania. Walgreens Boots Alliance, Inc. was founded in 1901 and is based in Deerfield, Illinois.</t>
-  </si>
-  <si>
     <t>Johnson Matthey Plc provides specialty chemicals in the United States, Germany, rest of Europe, the United States, rest of North America, China, rest of Asia, and internationally. It operates through four segments: Clean Air, Efficient Natural Resources, Health, and New Markets. The Clean Air segment provides catalysts for emission control after-treatment systems to remove harmful emissions from vehicles. This segment also offers catalysts for light duty vehicles powered by diesel and gasoline, heavy duty diesel trucks, buses, and non- road equipment. The Efficient Natural Resources segment provides products and processing services for the use and transformation of critical natural resources including oil, gas, biomass, and platinum group metals. The Health segment develops and manufactures active pharmaceutical ingredients (API) for various treatments. The New Markets segment offers battery materials, battery systems, and fuel cell technologies; science and technology to develop the products for devices used in medical procedures; and catalysts to pharmaceutical and agricultural chemicals markets. The company was formerly known as Johnson &amp; Cock and changed its name to Johnson Matthey Plc in 1851. Johnson Matthey Plc was founded in 1817 and is based in London, the United Kingdom.</t>
   </si>
   <si>
+    <t>Ford Motor Company designs, manufactures, markets, and services a range of Ford trucks, cars, sport utility vehicles, electrified vehicles, and Lincoln luxury vehicles worldwide. It operates through three segments: Automotive, Mobility, and Ford Credit. The Automotive segment sells Ford and Lincoln vehicles, service parts, and accessories through distributors and dealers, as well as through dealerships to commercial fleet customers, daily rental car companies, and governments. The Mobility segment designs and builds mobility services; and provides self-driving systems development services. The Ford Credit segment primarily engages in vehicle-related financing and leasing activities to and through automotive dealers. It provides retail installment sale contracts for new and used vehicles; and direct financing leases for new vehicles to retail and commercial customers, such as leasing companies, government entities, daily rental companies, and fleet customers. This segment also offers wholesale loans to dealers to finance the purchase of vehicle inventory; and loans to dealers to finance working capital and enhance dealership facilities, purchase dealership real estate, and other dealer vehicle programs. Ford Motor Company has a strategic collaboration with ARB Corporation Limited to develop a suite of aftermarket products for the new Ford Bronco. The company was founded in 1903 and is based in Dearborn, Michigan.</t>
+  </si>
+  <si>
     <t>Amazon.com, Inc. engages in the retail sale of consumer products and subscriptions in North America and internationally. The company operates through three segments: North America, International, and Amazon Web Services (AWS). It sells merchandise and content purchased for resale from third-party sellers through physical and online stores. The company also manufactures and sells electronic devices, including Kindle, Fire tablets, Fire TVs, Rings, and Echo and other devices; provides Kindle Direct Publishing, an online service that allows independent authors and publishers to make their books available in the Kindle Store; and develops and produces media content. In addition, it offers programs that enable sellers to sell their products on its websites, as well as its stores; and programs that allow authors, musicians, filmmakers, skill and app developers, and others to publish and sell content. Further, the company provides compute, storage, database, analytics, machine learning, and other services, as well as fulfillment, advertising, publishing, and digital content subscriptions. Additionally, it offers Amazon Prime, a membership program, which provides free shipping of various items; access to streaming of movies and TV episodes; and other services. The company serves consumers, sellers, developers, enterprises, and content creators. Amazon.com, Inc. was founded in 1994 and is headquartered in Seattle, Washington.</t>
   </si>
   <si>
-    <t>Ford Motor Company designs, manufactures, markets, and services a range of Ford trucks, cars, sport utility vehicles, electrified vehicles, and Lincoln luxury vehicles worldwide. It operates through three segments: Automotive, Mobility, and Ford Credit. The Automotive segment sells Ford and Lincoln vehicles, service parts, and accessories through distributors and dealers, as well as through dealerships to commercial fleet customers, daily rental car companies, and governments. The Mobility segment designs and builds mobility services; and provides self-driving systems development services. The Ford Credit segment primarily engages in vehicle-related financing and leasing activities to and through automotive dealers. It provides retail installment sale contracts for new and used vehicles; and direct financing leases for new vehicles to retail and commercial customers, such as leasing companies, government entities, daily rental companies, and fleet customers. This segment also offers wholesale loans to dealers to finance the purchase of vehicle inventory; and loans to dealers to finance working capital and enhance dealership facilities, purchase dealership real estate, and other dealer vehicle programs. Ford Motor Company has a strategic collaboration with ARB Corporation Limited to develop a suite of aftermarket products for the new Ford Bronco. The company was founded in 1903 and is based in Dearborn, Michigan.</t>
-  </si>
-  <si>
     <t>Ferguson plc distributes plumbing and heating products in the United States, the United Kingdom, Canada, and Central Europe. It offers plumbing and heating solutions to customers in the residential, municipal, civil and industrial markets, and commercial sectors for repair, maintenance, and improvement (RMI), as well as new construction markets. The company also distributes pipes, valves, fittings, hydrants, meters, and related water management products, as well as offers related services, such as water line tapping and pipe fusion services. In addition, it distributes heating, ventilation, air conditioning, refrigeration equipment, and parts and supplies to specialist contractors in the residential and commercial markets for repair and replacement; and PVF products to industrial customers. Further, the company fabricates and supplies fire protection systems and bespoke fabrication services to commercial contractors for new construction and renovation projects, as well as offers products, services, and solutions to enable maintenance of facilities across various RMI markets. Additionally, it offers supply chain management solutions for PVF; and industrial maintenance, repair, and operations specializing in delivering automation, instrumentation, engineered products, and turn-key solutions. The company also sells its home improvement products directly to consumers, as well as through a network of online stores. In addition, it operates its B2B business primarily under the Ferguson brand; and B2C business under the Build.com brand. Further, the company provides products and services for maintenance of multi-family properties, government agencies, hospitality, education, healthcare, and other facilities. It operates a network of 2,194 branches and 19 distribution centers. Ferguson plc was founded in 1887 and is headquartered in Wokingham, the United Kingdom.</t>
   </si>
   <si>
@@ -676,28 +667,34 @@
     <t>Walmart Inc. engages in the operation of retail, wholesale, and other units worldwide. The company operates through three segments: Walmart U.S., Walmart International, and Sam's Club. It operates supercenters, supermarkets, hypermarkets, warehouse clubs, cash and carry stores, and discount stores; membership-only warehouse clubs; ecommerce websites, such as walmart.com, walmart.com.mx, walmart.ca, flipkart.com, and samsclub.com; and mobile commerce applications. The company offers grocery products, including dry grocery, snacks, dairy, meat, produce, deli and bakery, frozen foods, and alcoholic and nonalcoholic beverages, as well as consumables, such as health and beauty aids, pet supplies, household chemicals, paper goods, and baby products; and health and wellness products covering pharmacy, over-the-counter drugs and other medical products, and optical and clinical services. It also provides gasoline stations and tobacco; home improvement, outdoor living, gardening, furniture, apparel, and jewelry, as well as tools and power equipment, housewares, toys, seasonal items, mattresses, and tire and battery centers; and consumer electronics and accessories, software, video games, office supplies, appliances, and third-party gift cards. In addition, the company offers fuel and financial services and related products, including money orders, prepaid cards, money transfers, and check cashing and bill payment. It operates approximately 11,400 stores and various e-commerce websites under 54 banners in 26 countries. The company was formerly known as Wal-Mart Stores, Inc. and changed its name to Walmart Inc. in February 2018. Walmart Inc. was founded in 1945 and is based in Bentonville, Arkansas.</t>
   </si>
   <si>
+    <t>NIKE, Inc., together with its subsidiaries, designs, develops, markets, and sells athletic footwear, apparel, equipment, and accessories worldwide. The company offers NIKE brand products in six categories, including running, NIKE basketball, the Jordan brand, football, training, and sportswear. It also markets products designed for kids, as well as for other athletic and recreational uses, such as American football, baseball, cricket, golf, lacrosse, skateboarding, tennis, volleyball, walking, wrestling, and other outdoor activities; and apparel with licensed college and professional team and league logos, as well as sells sports apparel. In addition, the company sells a line of performance equipment and accessories comprising bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment, and other equipment for sports activities; and various plastic products to other manufacturers. Further, it provides athletic and casual footwear, apparel, and accessories under the Jumpman trademark; casual sneakers, apparel, and accessories under the Converse, Chuck Taylor, All Star, One Star, Star Chevron, and Jack Purcell trademarks; and action sports and youth lifestyle apparel and accessories under the Hurley trademark. Additionally, the company licenses agreements that permit unaffiliated parties to manufacture and sell apparel, digital devices, and applications and other equipment for sports activities under NIKE-owned trademarks. It sells its products to footwear stores; sporting goods stores; athletic specialty stores; department stores; skate, tennis, and golf shops; and other retail accounts through NIKE-owned retail stores, digital platforms, independent distributors, licensees, and sales representatives. The company was formerly known as Blue Ribbon Sports, Inc. and changed its name to NIKE, Inc. in 1971. NIKE, Inc. was founded in 1964 and is headquartered in Beaverton, Oregon.</t>
+  </si>
+  <si>
+    <t>CRH plc, through its subsidiaries, manufactures and distributes building materials. It operates in three segments: Americas Materials, Europe Materials, and Building Products. The company manufactures and supplies cement, lime, aggregates, precast, ready mixed concrete, and asphalt products; concrete masonry and hardscape products comprising pavers, kerbs, retaining walls, and related patio products; and glass and glazing products, including architectural glass, custom-engineered curtain and window walls, architectural windows, storefront systems, doors, skylights, and architectural hardware. It also offers precast concrete and polymer-based products, such as underground vaults, drainage pipes and structures, utility enclosures, and modular precast structures to the water, energy, communication, transportation, and building structures markets; and construction accessories, such as anchoring, fixing, and connection solutions, as well as lifting systems, formwork accessories, and other accessories used in construction applications. In addition, the company offers network access products, which include composite access chambers, covers, passive safety systems, retention sockets, sealants, and meter boxes; and paving and construction services. Further, it provides building and civil engineering contracting, contract surfacing, operates logistics and owned railway infrastructure; sells and distributes cement; and supplies access chambers and ducting products. It serves governments, contractors, homebuilders, homeowners, and sub-contractors. The company operates primarily in the Republic of Ireland, the United Kingdom, the rest of Europe, the United States, and internationally. CRH plc was founded in 1936 and is headquartered in Dublin, Ireland.</t>
+  </si>
+  <si>
+    <t>Starbucks Corporation, together with its subsidiaries, operates as a roaster, marketer, and retailer of specialty coffee worldwide. The company operates through three segments: Americas, International, and Channel Development. Its stores offer coffee and tea beverages, roasted whole bean and ground coffees, single-serve and ready-to-drink beverages, and iced tea; and various food products, such as pastries, breakfast sandwiches, and lunch items. The company also licenses its trademarks through licensed stores, and grocery and foodservice accounts. The company offers its products under the Starbucks, Teavana, Seattle's Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve, and Princi brand names. As of October 29, 2020, it operated approximately 32,000 stores. Starbucks Corporation was founded in 1971 and is based in Seattle, Washington.</t>
+  </si>
+  <si>
     <t>NEXT plc engages in the retail of clothing, footwear, and home products in the United Kingdom, rest of Europe, the Middle East, Asia, and internationally. The company operates through NEXT Retail, NEXT Online, NEXT Finance, NEXT International Retail, NEXT Sourcing, Lipsy, NENA, and Property Management segments. It operates retail stores; an online retail platform; and 190 franchise stores in 36 countries. The company also offers consumer credit; NEXT branded products; and women's, men's, children's, home, and beauty products under the LABEL and Lipsy's own brand, and other third-party brands. In addition, it provides property management services, including holding and lease of properties. The company was formerly known as J Hepworth &amp; Son and changed its name to NEXT plc in 1986. NEXT plc was founded in 1864 and is headquartered in Enderby, the United Kingdom.</t>
   </si>
   <si>
-    <t>Starbucks Corporation, together with its subsidiaries, operates as a roaster, marketer, and retailer of specialty coffee worldwide. The company operates through three segments: Americas, International, and Channel Development. Its stores offer coffee and tea beverages, roasted whole bean and ground coffees, single-serve and ready-to-drink beverages, and iced tea; and various food products, such as pastries, breakfast sandwiches, and lunch items. The company also licenses its trademarks through licensed stores, and grocery and foodservice accounts. The company offers its products under the Starbucks, Teavana, Seattle's Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve, and Princi brand names. As of October 29, 2020, it operated approximately 32,000 stores. Starbucks Corporation was founded in 1971 and is based in Seattle, Washington.</t>
-  </si>
-  <si>
-    <t>CRH plc, through its subsidiaries, manufactures and distributes building materials. It operates in three segments: Americas Materials, Europe Materials, and Building Products. The company manufactures and supplies cement, lime, aggregates, precast, ready mixed concrete, and asphalt products; concrete masonry and hardscape products comprising pavers, kerbs, retaining walls, and related patio products; and glass and glazing products, including architectural glass, custom-engineered curtain and window walls, architectural windows, storefront systems, doors, skylights, and architectural hardware. It also offers precast concrete and polymer-based products, such as underground vaults, drainage pipes and structures, utility enclosures, and modular precast structures to the water, energy, communication, transportation, and building structures markets; and construction accessories, such as anchoring, fixing, and connection solutions, as well as lifting systems, formwork accessories, and other accessories used in construction applications. In addition, the company offers network access products, which include composite access chambers, covers, passive safety systems, retention sockets, sealants, and meter boxes; and paving and construction services. Further, it provides building and civil engineering contracting, contract surfacing, operates logistics and owned railway infrastructure; sells and distributes cement; and supplies access chambers and ducting products. It serves governments, contractors, homebuilders, homeowners, and sub-contractors. The company operates primarily in the Republic of Ireland, the United Kingdom, the rest of Europe, the United States, and internationally. CRH plc was founded in 1936 and is headquartered in Dublin, Ireland.</t>
-  </si>
-  <si>
     <t>Rentokil Initial plc, together with its subsidiaries, provides route-based services in North America, the United Kingdom, rest of Europe, Asia, the Pacific, and internationally. It offers a range of pest control services from rodents to flying and crawling insects, as well as to other forms of wildlife management for commercial and residential customers. The company also provides hygiene services, including the provision and maintenance of products, such as air fresheners, sanitizers, feminine hygiene units, hand dryers, paper and linen towel dispensers, soap and hand sanitizer dispensers, toilet paper dispensers, and floor protection mats. In addition, it engages in the supply and laundering of workwear, uniforms, cleanroom uniforms, and protective equipment. Further, the company installs and services interior and exterior plant displays, flowers, replica foliage, Christmas decorations, and ambient scenting for commercial businesses; offers property care services consisting of damp proofing, property conservation, and woodworm and wood rot treatment; and provides a range of specialist cleaning services, such as deep cleaning of kitchens and washrooms, trauma cleaning, and flood or fire damage cleaning, as well as graffiti removal, specialist deep cleaning, and disinfection services, including the professional and discreet disinfection of areas that have been exposed to bio-hazardous situations, such as crime and trauma scenes, prison cells, void properties, emergency vehicles, and healthcare establishments. Additionally, it offers a range of healthcare waste management services comprising the collection, disposal, and recycling of hazardous and offensive waste produced by businesses and organizations associated with the provision of healthcare; and color-coded sharps disposal bins to deal with various types of waste. Rentokil Initial plc was founded in 1903 and is headquartered in Camberley, the United Kingdom.</t>
   </si>
   <si>
+    <t>DS Smith Plc provides packaging solutions, paper products, and recycling services worldwide. The company offers transit and transport, consumer, retail and shelf ready, online and e-retail, industrial, hazardous, multi-material, inserts and cushioning, and electrostatic discharge packaging products, as well as wrap arounds, trays, and bag-in-boxes; displays and promotional packaging products; corrugated pallets; Sheetfeeding products; packaging machine systems; and Sizzlepak, a stuffing material made of paper, folded in a zigzag shape, and cut into narrow strips, as well as provides outdoor advertising services. It also provides various recycling and waste management services, including total waste management, paper and cardboard recycling, confidential shredding, and plastics recycling, as well as equipment for the retail, manufacturing, print and publishing, paper mills, automotive, and public sectors. In addition, the company offers recycled corrugated case materials, specialty papers, and kraft papers, as well as related technical and supply chain services. It provides its packaging solutions for the food and drink, consumer goods, industrial, e-commerce and e-retail, and converter industries. The company was formerly known as David S. Smith (Holdings) PLC and changed its name to DS Smith Plc in 2001. DS Smith Plc was founded in 1940 and is headquartered in London, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Ashland Global Holdings Inc. provides specialty chemical solutions worldwide. The company's Specialty Ingredients segment offers products, technologies, and resources for solving formulation and product-performance challenges. It provides solutions using natural, synthetic, and semisynthetic polymers derived from cellulose ethers, vinyl pyrrolidones, acrylic polymers, polyester and polyurethane-based adhesives, and plant and seed extracts. This segment offers its solutions for the pharmaceutical companies; makers of personal care products, food, and beverages; makers of nutraceuticals and supplements; manufacturers of paint, coatings, and construction materials; packaging and converting markets; and oilfield service companies. Its Intermediates and Solvents produces 1,4 butanediol and related derivatives, including n-methylpyrrolidone that are used as chemical intermediates in the production of engineering polymers and polyurethanes, as well as specialty process solvents used in electronics, pharmaceuticals, water filtration membranes, and others. The company was formerly known as Ashland Inc. and changed its name to Ashland Global Holdings Inc. in September 2016. Ashland Global Holdings Inc. was founded in 1924 and is headquartered in Covington, Kentucky.</t>
+  </si>
+  <si>
     <t>Bunzl plc operates as a distribution and services company in the North America, Continental Europe, the United Kingdom, Ireland, and internationally. The company offers food packaging, films, labels, counter-service packaging, foodservice disposables, take-out food packaging, first aid products, point of purchase displays, stationery, bags, and cleaning and hygiene supplies to grocery stores, supermarkets, retail chains, convenience stores, food wholesalers, ethnic grocers, and organic food outlets. It also provides food packaging, napkins, disposable tableware, food service disposables, guest amenities, light and heavy catering equipment, cleaning and hygiene products, and safety items to hotels, restaurants, caterers, the leisure sector, and food processors and packers; and footwear, gloves, safety helmets, workwear, harness equipment, tools, safety signs, traffic management, and ancillary site equipment, as well as ear, eye, respiratory, and face protection products to customers in the industrial and construction markets. In addition, the company offers cleaning systems, floorcare items, hand cleansing products, hygiene paper, janitorial products, cleaning machines, mops, polishes, and protective clothing and washroom chemicals to facilities management companies, contract cleaners, and other industrial and healthcare customers; and counter service packaging, point of purchase display items, stationery, and cleaning and hygiene products to department stores, boutiques, office supply companies, retail chains, and home improvement chains. Further, it provides gloves, aprons, bandages, facemasks, gowns, headwear, mattress covers, overshoes, procedure packs, tapes, wipes, incontinence products, and swabs to the healthcare sector, including hospitals, retirement and nursing homes, and doctors' surgeries and clinics; and various products to government and education establishments. Bunzl plc was founded in 1854 and is headquartered in London, the United Kingdom.</t>
   </si>
   <si>
-    <t>DS Smith Plc provides packaging solutions, paper products, and recycling services worldwide. The company offers transit and transport, consumer, retail and shelf ready, online and e-retail, industrial, hazardous, multi-material, inserts and cushioning, and electrostatic discharge packaging products, as well as wrap arounds, trays, and bag-in-boxes; displays and promotional packaging products; corrugated pallets; Sheetfeeding products; packaging machine systems; and Sizzlepak, a stuffing material made of paper, folded in a zigzag shape, and cut into narrow strips, as well as provides outdoor advertising services. It also provides various recycling and waste management services, including total waste management, paper and cardboard recycling, confidential shredding, and plastics recycling, as well as equipment for the retail, manufacturing, print and publishing, paper mills, automotive, and public sectors. In addition, the company offers recycled corrugated case materials, specialty papers, and kraft papers, as well as related technical and supply chain services. It provides its packaging solutions for the food and drink, consumer goods, industrial, e-commerce and e-retail, and converter industries. The company was formerly known as David S. Smith (Holdings) PLC and changed its name to DS Smith Plc in 2001. DS Smith Plc was founded in 1940 and is headquartered in London, the United Kingdom.</t>
-  </si>
-  <si>
     <t>Caterpillar Inc. manufactures and sells construction and mining equipment, diesel and natural gas engines, industrial gas turbines, and diesel-electric locomotives worldwide. Its Construction Industries segment offers asphalt pavers, compactors, cold planers, motorgraders, pipelayers, road reclaimers, telehandlers, and utility vehicles; backhoe, compact track, multi-terrain, skid steer, and track-type loaders; forestry and wheel excavators; and site prep and track-type tractors. The company's Resource Industries segment provides electric rope and hydraulic shovels, draglines, rotary drills, hard rock vehicles, track-type tractors, mining trucks, longwall miners, wheel loaders, off-highway and articulated trucks, wheel tractor scrapers, wheel dozers, landfill and soil compactors, machinery components, autonomous ready vehicles and solutions, and select work tools. Its Energy &amp; Transportation segment offers reciprocating engine powered generator sets; reciprocating engines and integrated systems for the power generation, marine, oil, and gas industries; turbines, centrifugal gas compressors, and related services; remanufactured reciprocating engines and components; and diesel-electric locomotives and components, and other rail-related products. The company's Financial Products segment provides operating and finance leases, installment sale contracts, working capital loans, and wholesale financing; and insurance and risk management, as well as other equipment-related loans. Its All Other Operating segment offers filters and fluids, undercarriage, ground engaging tools, fluid transfer products, precision seals, and rubber sealing and connecting components; parts distribution; integrated logistics solutions; portfolio management; brand management and marketing strategy; and digital investments services. The company was formerly known as Caterpillar Tractor Co. The company was founded in 1925 and is headquartered in Deerfield, Illinois.</t>
   </si>
   <si>
-    <t>Ashland Global Holdings Inc. provides specialty chemical solutions worldwide. The company's Specialty Ingredients segment offers products, technologies, and resources for solving formulation and product-performance challenges. It provides solutions using natural, synthetic, and semisynthetic polymers derived from cellulose ethers, vinyl pyrrolidones, acrylic polymers, polyester and polyurethane-based adhesives, and plant and seed extracts. This segment offers its solutions for the pharmaceutical companies; makers of personal care products, food, and beverages; makers of nutraceuticals and supplements; manufacturers of paint, coatings, and construction materials; packaging and converting markets; and oilfield service companies. Its Intermediates and Solvents produces 1,4 butanediol and related derivatives, including n-methylpyrrolidone that are used as chemical intermediates in the production of engineering polymers and polyurethanes, as well as specialty process solvents used in electronics, pharmaceuticals, water filtration membranes, and others. The company was formerly known as Ashland Inc. and changed its name to Ashland Global Holdings Inc. in September 2016. Ashland Global Holdings Inc. was founded in 1924 and is headquartered in Covington, Kentucky.</t>
+    <t>Bayerische Motoren Werke AG, together with its subsidiaries, develops, manufactures, and sells automobiles and motorcycles, and spare parts and accessories worldwide. It operates through Automotive, Motorcycles, and Financial Services segments. The Automotive segment develops, manufactures, assembles, and sells passenger cars, including off-road vehicles as well as spare parts, accessories, and mobility services under the BMW, MINI and Rolls-Royce brands. This segment sells its products through independent and authorized dealerships. The Motorcycles segment develops, manufactures, assembles, and sells motorcycles under the BMW Motorrad brand, as well as spare parts and accessories. The Financial Services segment engages in the multi-brand, retail and dealership financing, customer deposit, and insurance activities; and provision of fleet financing services under the Alphabet brand. Bayerische Motoren Werke AG was founded in 1916 and is based in Munich, Germany.</t>
   </si>
   <si>
     <t>Exelon Corporation, a utility services holding company, engages in the energy generation, delivery, and marketing businesses in the United States and Canada. It owns nuclear, fossil, wind, hydroelectric, biomass, and solar generating facilities. The company also sells electricity to wholesale and retail customers; and sells natural gas, renewable energy, and other energy-related products and services. In addition, it is involved in the purchase and regulated retail sale of electricity and natural gas; and transmission and distribution of electricity, and distribution of natural gas to retail customers. Further, the company offers support services, including legal, human resources, information technology, financial, supply management, accounting, engineering, customer operations, distribution and transmission planning, asset management, system operations, and power procurement services. It serves distribution utilities, municipalities, cooperatives, and financial institutions, as well as commercial, industrial, governmental, and residential customers. The company was incorporated in 1999 and is headquartered in Chicago, Illinois.</t>
@@ -706,18 +703,12 @@
     <t>Accenture plc, a professional services company, provides strategy and consulting, interactive, and technology and operations services worldwide. The company also provides outsourcing services. It serves communications, media, high tech, software, and platform companies; banking, capital market, and insurance industries; and consumer goods, retail, travel services, industrial, and life science industries, as well as clients in health, public service, chemicals and natural resources, energy, and utilities sectors. Accenture plc has alliance relationships with Adobe, Alibaba, Amazon Web Services, Blue Yonder, Cisco, Dell, Google, HPE, IBM RedHat, Microsoft, Oracle, Pegasystems, Salesforce, SAP, ServiceNow, VMWare, Workday, Massachusetts Institute of Technology, Institut Polytechnique de Paris, CNH Industrial, and Reactive Technologies. The company was incorporated in 2009 and is based in Dublin, Ireland.</t>
   </si>
   <si>
-    <t>Bayerische Motoren Werke AG, together with its subsidiaries, develops, manufactures, and sells automobiles and motorcycles, and spare parts and accessories worldwide. It operates through Automotive, Motorcycles, and Financial Services segments. The Automotive segment develops, manufactures, assembles, and sells passenger cars, including off-road vehicles as well as spare parts, accessories, and mobility services under the BMW, MINI and Rolls-Royce brands. This segment sells its products through independent and authorized dealerships. The Motorcycles segment develops, manufactures, assembles, and sells motorcycles under the BMW Motorrad brand, as well as spare parts and accessories. The Financial Services segment engages in the multi-brand, retail and dealership financing, customer deposit, and insurance activities; and provision of fleet financing services under the Alphabet brand. Bayerische Motoren Werke AG was founded in 1916 and is based in Munich, Germany.</t>
+    <t>Smiths Group plc operates as a technology company serving the medical technology, security and defense, general industrial, energy, and space and aerospace markets worldwide. It operates through John Crane, Smiths Detection, Flex-Tek, Smiths Interconnect divisions. The John Crane division offers mechanical seals, seal support systems, hydrodynamic bearings, packing materials, power transmission couplings, and specialized filtration systems. The Smiths Detection division provides sensors and systems that detect and identify explosives, narcotics, weapons, chemical agents, biohazards, and contraband. The Flex-Tek division offers engineered components that heat and move fluids and gases for the aerospace, medical, industrial, construction, and domestic appliance markets. The Smiths Interconnect division provides specialized electronic and radio frequency board-level and waveguide devices, connectors, cables, test sockets, and sub-systems for applications in the security and defense, medical, general industrial, and space and aerospace markets. The company was formerly known as Smiths Industries and changed its name to Smiths Group plc in 2000. Smiths Group plc was founded in 1851 and is headquartered in London, the United Kingdom.</t>
   </si>
   <si>
     <t>Koninklijke Ahold Delhaize N.V. operates retail food stores and e-commerce primarily in the United States and Europe. The company's store formats include supermarkets, convenience stores, compact hypermarkets, cash and carry, drugstores, hypermarkets, and liquor stores. As of January 3, 2021, it operated 7,137 stores primarily under local brands serving approximately 54 million customers, as well as online. The company was formerly known as Koninklijke Ahold N.V. and changed its name to Koninklijke Ahold Delhaize N.V. in July 2016. Koninklijke Ahold Delhaize N.V. was founded in 1887 and is headquartered in Zaandam, the Netherlands.</t>
   </si>
   <si>
-    <t>Smiths Group plc operates as a technology company serving the medical technology, security and defense, general industrial, energy, and space and aerospace markets worldwide. It operates through John Crane, Smiths Detection, Flex-Tek, Smiths Interconnect divisions. The John Crane division offers mechanical seals, seal support systems, hydrodynamic bearings, packing materials, power transmission couplings, and specialized filtration systems. The Smiths Detection division provides sensors and systems that detect and identify explosives, narcotics, weapons, chemical agents, biohazards, and contraband. The Flex-Tek division offers engineered components that heat and move fluids and gases for the aerospace, medical, industrial, construction, and domestic appliance markets. The Smiths Interconnect division provides specialized electronic and radio frequency board-level and waveguide devices, connectors, cables, test sockets, and sub-systems for applications in the security and defense, medical, general industrial, and space and aerospace markets. The company was formerly known as Smiths Industries and changed its name to Smiths Group plc in 2000. Smiths Group plc was founded in 1851 and is headquartered in London, the United Kingdom.</t>
-  </si>
-  <si>
-    <t>NIKE, Inc., together with its subsidiaries, designs, develops, markets, and sells athletic footwear, apparel, equipment, and accessories worldwide. The company offers NIKE brand products in six categories, including running, NIKE basketball, the Jordan brand, football, training, and sportswear. It also markets products designed for kids, as well as for other athletic and recreational uses, such as American football, baseball, cricket, golf, lacrosse, skateboarding, tennis, volleyball, walking, wrestling, and other outdoor activities; and apparel with licensed college and professional team and league logos, as well as sells sports apparel. In addition, the company sells a line of performance equipment and accessories comprising bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment, and other equipment for sports activities; and various plastic products to other manufacturers. Further, it provides athletic and casual footwear, apparel, and accessories under the Jumpman trademark; casual sneakers, apparel, and accessories under the Converse, Chuck Taylor, All Star, One Star, Star Chevron, and Jack Purcell trademarks; and action sports and youth lifestyle apparel and accessories under the Hurley trademark. Additionally, the company licenses agreements that permit unaffiliated parties to manufacture and sell apparel, digital devices, and applications and other equipment for sports activities under NIKE-owned trademarks. It sells its products to footwear stores; sporting goods stores; athletic specialty stores; department stores; skate, tennis, and golf shops; and other retail accounts through NIKE-owned retail stores, digital platforms, independent distributors, licensees, and sales representatives. The company was formerly known as Blue Ribbon Sports, Inc. and changed its name to NIKE, Inc. in 1971. NIKE, Inc. was founded in 1964 and is headquartered in Beaverton, Oregon.</t>
-  </si>
-  <si>
     <t>FedEx Corporation provides transportation, e-commerce, and business services worldwide. The company's FedEx Express segment offers express transportation, small-package ground delivery, and freight transportation services; time-critical transportation services; and cross-border e-commerce technology and e-commerce transportation solutions. Its FedEx Ground segment provides day-certain delivery services to businesses and residences. The company's FedEx Freight segment offers less-than-truckload freight transportation services. Its FedEx Services segment provides sales, marketing, information technology, communications, customer service, technical support, billing and collection, and back-office function services. The company's Corporate, Other and Eliminations segment offers integrated supply chain management solutions, specialty transportation, customs brokerage, and global ocean and air freight forwarding services; and an array of document and business services, and retail access to its customers for its package transportation businesses. The company was founded in 1971 and is based in Memphis, Tennessee.</t>
   </si>
   <si>
@@ -727,10 +718,13 @@
     <t>AVEVA Group plc, through its subsidiaries, provides engineering and industrial software solutions in the Asia Pacific, Europe, the Middle East, Africa, and the Americas. The company offers engineering, procurement, and construction; asset performance management; monitoring and control; planning and scheduling; and operation and optimization industrial software solutions. It also provides digital transformation solutions covering artificial intelligence, cloud, digital twin, edge, extended reality, and Industrial Internet of Things products; and customer support and training services. The company serves customers in the chemicals, food and beverage, consumer packaged goods, infrastructure, life sciences, marine, mining, oil and gas, power and utilities, pulp and paper, steel fabrication, and water and wastewater industries. The company was founded in 1967 and is headquartered in Cambridge, the United Kingdom. AVEVA Group plc is a subsidiary of Schneider Electric S.E.</t>
   </si>
   <si>
+    <t>Daimler AG, together its subsidiaries, develops and manufactures passenger cars, trucks, vans, and buses in Germany and internationally. It operates through Mercedes-Benz Cars &amp; Vans, Daimler Trucks and Buses, and Daimler Mobility segments. The Mercedes-Benz Cars segment offers premium and luxury vehicles of the Mercedes-Benz brand, including the Mercedes-AMG, Mercedes-Maybach, and Mercedes-EQ brands; small cars under the smart brand name; and ecosystem of Mercedes-Benz under the Mercedes me brand, as well as vans and related services under the Mercedes-Benz and Freightliner brands. Daimler Trucks and Buses segment offers its trucks and special vehicles under the Mercedes-Benz, Freightliner, Western Star, FUSO, and BharatBenz brands; and buses under the Mercedes-Benz, Setra, Thomas Built Buses, and FU brands, as well as bus chassis. The Daimler Mobility segment provides financing and leasing packages for end-customers and dealers; and automotive insurance brokerage, banking, investment, and fleet management services under the Athlon brand. It also sells vehicle related spare parts and accessories. Daimler AG was founded in 1886 and is headquartered in Stuttgart, Germany</t>
+  </si>
+  <si>
     <t>Dow Inc. provides various materials science solutions for consumer care, infrastructure, and packaging markets in the United States, Canada, Europe, the Middle East, Africa, India, the Asia Pacific, and Latin America. It operates through Packaging &amp; Specialty Plastics, Industrial Intermediates &amp; Infrastructure, and Performance Materials and Coatings segments. The Packaging &amp; Specialty Plastics segment provides ethylene, and propylene and aromatics products; and polyethylene, polyolefin elastomers, ethylene vinyl acetate, and ethylene propylene diene monomer rubbers. The Industrial Intermediates &amp; Infrastructure segment offers ethylene oxides, propylene oxide, propylene glycol and polyether polyols, aromatic isocyanates and polyurethane systems, coatings, adhesives, sealants, elastomers, and composites. This segment also provides caustic soda, and ethylene dichloride and vinyl chloride monomers; and cellulose ethers, redispersible latex powders, silicones, and acrylic emulsions. The Performance Materials and Coatings segment provides architectural paints and coatings, and industrial coatings that are used in maintenance and protective industries, wood, metal packaging, traffic markings, thermal paper, and leather; performance monomers and silicones; standalone silicones; and home and personal care solutions. It also engages in property and casualty insurance, as well as reinsurance business. Dow Inc. was incorporated in 2018 and is headquartered in Midland, Michigan.</t>
   </si>
   <si>
-    <t>Daimler AG, together its subsidiaries, develops and manufactures passenger cars, trucks, vans, and buses in Germany and internationally. It operates through Mercedes-Benz Cars &amp; Vans, Daimler Trucks and Buses, and Daimler Mobility segments. The Mercedes-Benz Cars segment offers premium and luxury vehicles of the Mercedes-Benz brand, including the Mercedes-AMG, Mercedes-Maybach, and Mercedes-EQ brands; small cars under the smart brand name; and ecosystem of Mercedes-Benz under the Mercedes me brand, as well as vans and related services under the Mercedes-Benz and Freightliner brands. Daimler Trucks and Buses segment offers its trucks and special vehicles under the Mercedes-Benz, Freightliner, Western Star, FUSO, and BharatBenz brands; and buses under the Mercedes-Benz, Setra, Thomas Built Buses, and FU brands, as well as bus chassis. The Daimler Mobility segment provides financing and leasing packages for end-customers and dealers; and automotive insurance brokerage, banking, investment, and fleet management services under the Athlon brand. It also sells vehicle related spare parts and accessories. Daimler AG was founded in 1886 and is headquartered in Stuttgart, Germany</t>
+    <t>Target Corporation operates as a general merchandise retailer in the United States. The company offers food assortments, including perishables, dry grocery, dairy, and frozen items; apparel, accessories, home dÃ©cor products, electronics, toys, seasonal offerings, food, and other merchandise; and beauty and household essentials. It also provides in-store amenities, such as Target CafÃ©, Target Optical, Starbucks, and other food service offerings. The company sells its products through its stores; and digital channels, including Target.com. As of January 30, 2021, the company operated approximately 1,897 stores. Target Corporation was founded in 1902 and is headquartered in Minneapolis, Minnesota.</t>
   </si>
   <si>
     <t>Intertek Group plc provides quality assurance solutions to various industries worldwide. It operates in three segments: Products, Trade, and Resources. The Products segment offers assurance, testing, inspection, and certification services (ATIC), including laboratory safety, quality and performance testing, second-party supplier auditing, sustainability analysis, products assurance, vendor compliance, process performance analysis, facility plant and equipment verification, and third party certification. This segment serves a range of industries, including textiles, footwear, toys, hardlines, home appliances, consumer electronics, information and communication technology, automotive, aerospace, lighting, building products, industrial and renewable energy products, food and hospitality, healthcare and beauty, and pharmaceuticals. The Trade segment provides cargo inspection, analytical assessment, calibration, and related research and technical services to the petroleum and biofuels industries; inspection services to governments and regulatory bodies to support trade activities; and analytical and testing services to agricultural trading companies and growers. The Resources segment offers technical inspection, asset integrity management, analytical testing, and ongoing training services for the oil, gas, nuclear, and power industries. This segment also provides a range of ATIC service solutions to the mining and minerals exploration industries covering the resource supply chain from exploration and resource development, through to production, shipping, and commercial settlement. The company also offers cyber security services. Intertek Group plc was founded in 1885 and is based in London, the United Kingdom.</t>
@@ -739,7 +733,7 @@
     <t>Tesla, Inc. designs, develops, manufactures, leases, and sells electric vehicles, and energy generation and storage systems in the United States, China, and internationally. The company operates in two segments, Automotive, and Energy Generation and Storage. The Automotive segment offers electric vehicles, as well as sells automotive regulatory credits. It provides sedans and sport utility vehicles through direct and used vehicle sales, a network of Tesla Superchargers, and in-app upgrades; and purchase financing and leasing services. This segment is also involved in the provision of non-warranty after-sales vehicle services, sale of used vehicles, retail merchandise, and vehicle insurance, as well as sale of products through its subsidiaries to third party customers; services for electric vehicles through its company-owned service locations, and Tesla mobile service technicians; and vehicle limited warranties and extended service plans. The Energy Generation and Storage segment engages in the design, manufacture, installation, sale, and leasing of solar energy generation and energy storage products, and related services to residential, commercial, and industrial customers and utilities through its website, stores, and galleries, as well as through a network of channel partners. This segment also offers service and repairs to its energy product customers, including under warranty; and various financing options to its solar customers. The company was formerly known as Tesla Motors, Inc. and changed its name to Tesla, Inc. in February 2017. Tesla, Inc. was founded in 2003 and is headquartered in Palo Alto, California.</t>
   </si>
   <si>
-    <t>Target Corporation operates as a general merchandise retailer in the United States. The company offers food assortments, including perishables, dry grocery, dairy, and frozen items; apparel, accessories, home dÃ©cor products, electronics, toys, seasonal offerings, food, and other merchandise; and beauty and household essentials. It also provides in-store amenities, such as Target CafÃ©, Target Optical, Starbucks, and other food service offerings. The company sells its products through its stores; and digital channels, including Target.com. As of January 30, 2021, the company operated approximately 1,897 stores. Target Corporation was founded in 1902 and is headquartered in Minneapolis, Minnesota.</t>
+    <t>Deutsche Post AG operates as a mail and logistics company in Germany, rest of Europe, the Americas, the Asia Pacific, the Middle East, and Africa. The company operates through five segments: Post &amp; Parcel Germany; Express; Global Forwarding, Freight; Supply Chain; and eCommerce Solutions. The Post &amp; Parcel Germany segment transports and delivers mail, letters, parcels, physical and hybrid letters, special products for merchandize, and registered mail to private and business customers. It also provides additional services, such as registered mail, cash on delivery, and insured items. The Express segment transport and offers time-definite international (TDI) shipments comprising urgent documents and goods. The Global Forwarding, Freight segment transports goods by air, ocean, and overland; and offers multimodal and sector-specific solutions. This segment's business model is based on brokering transport services between customers and freight carriers. The Supply Chain segment provides contract logistics solutions, including warehousing and transport services; and value-added services, such as e-fulfilment, lead logistics partner, real estate solutions, service logistics, and packaging solutions for various industrial sectors. The eCommerce Solutions segment provides parcel delivery and cross-border non-TDI services. Deutsche Post AG is headquartered in Bonn, Germany.</t>
   </si>
   <si>
     <t>Netflix, Inc. provides entertainment services. It offers TV series, documentaries, and feature films across various genres and languages. The company provides members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, television set-top boxes, and mobile devices. It also provides DVDs-by-mail membership services. The company has approximately 204 million paid members in 190 countries. Netflix, Inc. was founded in 1997 and is headquartered in Los Gatos, California.</t>
@@ -748,55 +742,52 @@
     <t>Booking Holdings Inc. provides travel and restaurant online reservation and related services worldwide. The company operates Booking.com, which offers online accommodation reservations; Rentalcars.com that provides online rental car reservation services; Priceline, which offer online travel reservation services, including hotel, rental car and airline ticket reservation services, as well as vacation packages and cruises; and Agoda that provides online accommodation reservation services, as well as flight, ground transportation and activities reservation services. It also operates KAYAK, an online price comparison service that allows consumers to search and compare travel itineraries and prices, comprising airline ticket, accommodation reservation, and rental car reservation information; and OpenTable for booking online restaurant reservations. Further, it offers travel-related insurance products, and restaurant management services. The company was formerly known as The Priceline Group Inc. and changed its name to Booking Holdings Inc. in February 2018. Booking Holdings Inc. was founded in 1997 and is headquartered in Norwalk, Connecticut.</t>
   </si>
   <si>
-    <t>Deutsche Post AG operates as a mail and logistics company in Germany, rest of Europe, the Americas, the Asia Pacific, the Middle East, and Africa. The company operates through five segments: Post &amp; Parcel Germany; Express; Global Forwarding, Freight; Supply Chain; and eCommerce Solutions. The Post &amp; Parcel Germany segment transports and delivers mail, letters, parcels, physical and hybrid letters, special products for merchandize, and registered mail to private and business customers. It also provides additional services, such as registered mail, cash on delivery, and insured items. The Express segment transport and offers time-definite international (TDI) shipments comprising urgent documents and goods. The Global Forwarding, Freight segment transports goods by air, ocean, and overland; and offers multimodal and sector-specific solutions. This segment's business model is based on brokering transport services between customers and freight carriers. The Supply Chain segment provides contract logistics solutions, including warehousing and transport services; and value-added services, such as e-fulfilment, lead logistics partner, real estate solutions, service logistics, and packaging solutions for various industrial sectors. The eCommerce Solutions segment provides parcel delivery and cross-border non-TDI services. Deutsche Post AG is headquartered in Bonn, Germany.</t>
-  </si>
-  <si>
     <t>Spirax-Sarco Engineering plc provides engineered solutions for the users of industrial and commercial steam systems, electrical heating and temperature management systems, and pumps and fluid path technologies. It offers industrial and commercial steam systems, including condensate management, controls, and thermal energy management products and solutions for heating and curing, cleaning and sterilizing, hot water generation, space heating, and humidification; electrical process heating and temperature management solutions, such as industrial heaters and systems, heat tracing, and various component technologies for industrial processes, heaters, and systems; and peristaltic and niche pumps and associated fluid path technologies, including pumps, tubing, and specialty filling systems and products for single-use applications. The company serves food, beverage, pharmaceutical and biotechnology, oil, gas, chemical, healthcare, power generation, buildings, mining and precious metal processing, water and wastewater, and pulp and paper, as well as original equipment manufacturers. The company sells its products directly, as well as through distributors. It operates in Europe, the Middle East, and Africa; the Asia Pacific; and the Americas. Spirax-Sarco Engineering plc was founded in 1888 and is headquartered in Cheltenham, the United Kingdom.</t>
   </si>
   <si>
-    <t>Halma plc provides technology solutions in the safety, health, and environmental markets. It operates through four segments: Process Safety, Infrastructure Safety, Environmental &amp; Analysis, and Medical. The Process Safety segment offers specialized interlocks that control critical processes safely; instruments that detect hazardous gases; and explosion protection and corrosion monitoring systems. This segment serves the gas detection, industrial access control, pressure management, and safe storage and transfer markets. The Infrastructure Safety segment provides fire detection systems, specialist fire suppression systems, elevator safety systems, people and vehicle flow technologies, and security sensors. It serves the fire detection and suppression, People and Vehicle Flow, Security Sensors, and elevator markets. The Environmental &amp; Analysis segment offers optical, optoelectronic, and spectral imaging systems; water, air and gases monitoring technologies; and systems for water analysis and treatment. It serves the optical analysis, water analysis and treatment, and environmental monitoring markets. The Medical segment provides critical fluidic components used by medical diagnostics and Original Equipment Manufacturers; laboratory devices and systems that provide information to understand patient health and enable providers to make decisions across the continuum of care; technologies and solutions to enable in-vitro diagnostic systems and life-science discoveries and development; and technologies that enable positive outcomes across clinical specialties. This segment serves the life sciences, health assessment, and therapeutic solutions market. The company was incorporated in 1894 and is headquartered in Amersham, the United Kingdom.</t>
+    <t>Siemens Aktiengesellschaft, a technology company, focuses in the areas of automation and digitalization in Europe, Commonwealth of Independent States, Africa, the Middle East, the Americas, Asia, and Australia. Its Digital Industries segment offers automation systems and software for factories, numerical control systems, motors, drives and inverters, and integrated automation systems for machine tools and production machines; process control systems, machine-to-machine communication products, sensors and radio frequency identification systems; production and product lifecycle management software; mechatronic systems simulation and testing software; and cloud-based industrial Internet of Things operating system. The company's Smart Infrastructure segment supplies and connects energy systems and building technologies to enhance efficiency and sustainability; and supports customers to address technology shifts. Its Mobility segment provides passenger and freight transportation, such as rail vehicles, rail automation and electrification systems, road traffic technology, digital solutions, and related services; and mobility system services. The company's Siemens Healthineers segment offers medical technology and software solutions; and clinical consulting and training services. Its Siemens Financial Services segment provides leasing solutions and equipment; and debt and equity investment products. The company was founded in 1847 and is headquartered in Munich, Germany.</t>
   </si>
   <si>
     <t>Tesco PLC, together with its subsidiaries, engages in retailing and retail banking activities. It provides food products in stores and online; and operates mobile virtual network. The company is also involved in the food wholesaling activities; and provision of banking, insurance, and money services. It operates in the United Kingdom, Republic of Ireland, the Czech Republic, Slovakia, and Hungary. Tesco PLC was founded in 1919 and is headquartered in Welwyn Garden City, the United Kingdom.</t>
   </si>
   <si>
-    <t>Siemens Aktiengesellschaft, a technology company, focuses in the areas of automation and digitalization in Europe, Commonwealth of Independent States, Africa, the Middle East, the Americas, Asia, and Australia. Its Digital Industries segment offers automation systems and software for factories, numerical control systems, motors, drives and inverters, and integrated automation systems for machine tools and production machines; process control systems, machine-to-machine communication products, sensors and radio frequency identification systems; production and product lifecycle management software; mechatronic systems simulation and testing software; and cloud-based industrial Internet of Things operating system. The company's Smart Infrastructure segment supplies and connects energy systems and building technologies to enhance efficiency and sustainability; and supports customers to address technology shifts. Its Mobility segment provides passenger and freight transportation, such as rail vehicles, rail automation and electrification systems, road traffic technology, digital solutions, and related services; and mobility system services. The company's Siemens Healthineers segment offers medical technology and software solutions; and clinical consulting and training services. Its Siemens Financial Services segment provides leasing solutions and equipment; and debt and equity investment products. The company was founded in 1847 and is headquartered in Munich, Germany.</t>
+    <t>salesforce.com, inc. develops enterprise cloud computing solutions with a focus on customer relationship management worldwide. The company offers Sales Cloud to store data, monitor leads and progress, forecast opportunities, and gain insights through analytics and relationship intelligence, as well as deliver quotes, contracts, and invoices. It also provides Service Cloud, which enables companies to deliver personalized customer service and support, as well as a field service solution that enables companies to connect agents, dispatchers, and mobile employees through a centralized platform, which helps to schedule and dispatch work, and track and manage jobs in real-time. In addition, the company offers Marketing Cloud to plan, personalize, and optimize one-to-one customer marketing interactions; and Commerce Cloud, which enables companies to enhance engagement, conversion, revenue, and loyalty from their customers. Further, it provides Customer 360 Platform that offers no-code to pro-code Platform-as-a-Service tools for building, securing, integrating, and managing the business apps; MuleSoft Anypoint Platform enables customers to connect any system, application, data, or device; Quip collaboration platform, which combines documents, spreadsheets, apps, and chat with live CRM data; and Tableau and Einstein Analytics, provides analytical technology to customers. Additionally, the company offers various solutions for financial services, healthcare and life sciences, manufacturing, consumer goods, government, and philanthropy. The company also provides professional services and education services, including instructor-led and online courses; and support and adoption programs. It provides its services through direct sales; and consulting firms, systems integrators, and other partners. Salesforce and Siemens has a strategic partnership. The company was founded in 1999 and is headquartered in San Francisco, California.</t>
   </si>
   <si>
     <t>PayPal Holdings, Inc. operates as a technology platform and digital payments company that enables digital and mobile payments on behalf of consumers and merchants worldwide. Its payment solutions include PayPal, PayPal Credit, Braintree, Venmo, Xoom, Hyperwallet, and iZettle products. The company's payments platform allows consumers to send and receive payments, withdraw funds to their bank accounts, and hold balances in their PayPal accounts in various currencies. It also offers gateway services that enable merchants to accept payments online with credit or debit cards, as well as digital wallets. PayPal Holdings, Inc. was founded in 1998 and is headquartered in San Jose, California.</t>
   </si>
   <si>
-    <t>salesforce.com, inc. develops enterprise cloud computing solutions with a focus on customer relationship management worldwide. The company offers Sales Cloud to store data, monitor leads and progress, forecast opportunities, and gain insights through analytics and relationship intelligence, as well as deliver quotes, contracts, and invoices. It also provides Service Cloud, which enables companies to deliver personalized customer service and support, as well as a field service solution that enables companies to connect agents, dispatchers, and mobile employees through a centralized platform, which helps to schedule and dispatch work, and track and manage jobs in real-time. In addition, the company offers Marketing Cloud to plan, personalize, and optimize one-to-one customer marketing interactions; and Commerce Cloud, which enables companies to enhance engagement, conversion, revenue, and loyalty from their customers. Further, it provides Customer 360 Platform that offers no-code to pro-code Platform-as-a-Service tools for building, securing, integrating, and managing the business apps; MuleSoft Anypoint Platform enables customers to connect any system, application, data, or device; Quip collaboration platform, which combines documents, spreadsheets, apps, and chat with live CRM data; and Tableau and Einstein Analytics, provides analytical technology to customers. Additionally, the company offers various solutions for financial services, healthcare and life sciences, manufacturing, consumer goods, government, and philanthropy. The company also provides professional services and education services, including instructor-led and online courses; and support and adoption programs. It provides its services through direct sales; and consulting firms, systems integrators, and other partners. salesforce.com, inc. has a strategic partnership with Siemens and Amazon Web Services, Inc. The company was founded in 1999 and is headquartered in San Francisco, California.</t>
+    <t>Lowe's Companies, Inc., together with its subsidiaries, operates as a home improvement retailer in the United States and internationally. The company offers a line of products for construction, maintenance, repair, remodeling, and decorating. It provides home improvement products in various categories, such as appliances, dÃ©cor, paint, hardware, millwork, lawn and garden, lighting, lumber and building materials, flooring, kitchens and bath, rough plumbing and electrical, seasonal and outdoor living, and tools. It also offers installation services through independent contractors in various product categories; extended protection plans; and in-warranty and out-of-warranty repair services. The company sells its national brand-name merchandise and private branded products to homeowners, renters, and professional customers. As of January 29, 2021, it operated 1,974 home improvement and hardware stores. The company also sells its products through websites comprising Lowes.com and Lowesforpros.com; and through mobile applications. Lowe's Companies, Inc. was founded in 1921 and is based in Mooresville, North Carolina.</t>
+  </si>
+  <si>
+    <t>General Dynamics Corporation operates as an aerospace and defense company worldwide. It operates through four segments: Aerospace, Marine Systems, Combat Systems, and Technologies. The Marine Systems segment designs and builds nuclear-powered submarines, surface combatants, and auxiliary ships for the United States Navy and Jones Act ships for commercial customers, as well as oil and product tankers, and container and cargo ships. This segment also provides submarine maintenance and modernization services; lifecycle support services for navy surface ships; and program management, planning, engineering, and design support services for submarines and surface-ships. The Combat Systems segment manufactures land combat solutions, such as wheeled and tracked combat vehicles, weapons systems, munitions, mobile bridge systems with payloads, tactical vehicles, main battle tanks, armored vehicles, weapons systems, and armaments. This segment also offers modernization program, engineering, support, and sustainment services. The Technologies segment provides information technology solutions and mission-support services; mobile communication, computers, and command-and-control mission systems; and intelligence, surveillance, and reconnaissance solutions to military, intelligence, and federal civilian customers. This segment also offers cloud computing, artificial intelligence, machine learning, big data analytics, development, security and operation, software-defined network, everything as-a-service and defense enterprise office system solutions. General Dynamics Corporation was founded in 1899 and is headquartered in Reston, Virginia.</t>
+  </si>
+  <si>
+    <t>The Home Depot, Inc. operates as a home improvement retailer. It operates The Home Depot stores that sell various building materials, home improvement products, building materials, lawn and garden products, and dÃ©cor products, as well as provide installation, home maintenance, and professional service programs to do-it-yourself and professional customers. The company also offers installation programs that include flooring, cabinets and cabinet makeovers, countertops, furnaces and central air systems, and windows; and professional installation in various categories sold through its stores and in-home sales programs, as well as acts as a general contractor to provide installation services to its do-it-for-me customers through third-party installers. In addition, it provides tool and equipment rental services. The company primarily serves homeowners; and professional renovators/remodelers, general contractors, handymen, property managers, building service contractors, and specialty tradesmen, such as electricians, plumbers, and painters. It also sells its products online. As of January 31, 2021, the company operated 2,296 retail stores in the United States, including the Commonwealth of Puerto Rico, and the territories of the U.S. Virgin Islands and Guam; Canada; and Mexico. The Home Depot, Inc. was incorporated in 1978 and is based in Atlanta, Georgia.</t>
+  </si>
+  <si>
+    <t>Halma plc provides technology solutions in the safety, health, and environmental markets. It operates through four segments: Process Safety, Infrastructure Safety, Environmental &amp; Analysis, and Medical. The Process Safety segment offers specialized interlocks that control critical processes safely; instruments that detect flammable and hazardous gases; and explosion protection and corrosion monitoring systems. This segment serves the gas detection, industrial access control, pressure management, and safe storage and transfer markets. The Infrastructure Safety segment provides fire detection systems, specialist fire suppression systems, elevator safety systems, people and vehicle flow technologies, and security sensors. It serves the fire detection and suppression, and elevator markets. The Environmental &amp; Analysis segment offers opto-electronic technology and sensors, flow gap measurement instruments, and gas conditioning products, as well as solutions for environmental data recording, water quality testing, water distribution network monitoring, and UV water treatment. It serves the optical analysis, water analysis and treatment, and environmental monitoring markets. The Medical segment provides devices that assess eye health; assist with eye surgery and primary care applications; critical fluidic components used by medical diagnostics and original equipment manufacturers; and laboratory devices and sensor technologies used in hospitals to understand patient health. This segment serves the life sciences, health assessment, and therapeutic solutions market. The company was incorporated in 1894 and is headquartered in Amersham, the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Experian plc, together with its subsidiaries, operates as a technology company. The company operates through two segments, Business-to-Business and Consumer Services. It provides data services to identify and understand their customers, as well as to manage the risks related with lending. The company also offers analytical and decision tools that enhance businesses to manage their customers, minimize the risk of fraud, comply with legal requirements, and automate decisions and processes. In addition, it provides financial education, free access to Experian credit reports and scores, online educational tools, and applications to manage their financial position, access credit offers, and protect themselves from identity fraud. The company serves customers in financial service, direct-to-consumer, health, retail, automotive, software and professional services, telecommunications and utility, insurance, media and technology, government and public, and other sectors. It operates in North America, Latin America, the United Kingdom, Ireland, Europe, the Middle East, Africa, and the Asia Pacific. Experian plc was formerly known as Experian Group Limited and changed its name to Experian plc in July 2008. Experian plc was founded in 1897 and is headquartered in Dublin, Ireland.</t>
   </si>
   <si>
     <t>Linde plc operates as an industrial gas company in North and South America, Europe, the Middle East, Africa, and the Asia Pacific. It offers oxygen, nitrogen, argon, rare gases, carbon dioxide, hydrogen, helium, electronic and specialty gases, acetylene, and carbon monoxide. The company also designs and constructs turnkey process plants, such as olefin, natural gas, air separation, hydrogen and synthesis gas, and other plants. It serves healthcare, petroleum refining, manufacturing, food, beverage carbonation, fiber-optics, steel making, aerospace, electronics, chemical, and water treatment industries. The company was founded in 1879 and is based in Guildford, the United Kingdom.</t>
   </si>
   <si>
-    <t>The Home Depot, Inc. operates as a home improvement retailer. It operates The Home Depot stores that sell various building materials, home improvement products, building materials, lawn and garden products, and dÃ©cor products, as well as provide installation, home maintenance, and professional service programs to do-it-yourself and professional customers. The company also offers installation programs that include flooring, cabinets and cabinet makeovers, countertops, furnaces and central air systems, and windows; and professional installation in various categories sold through its stores and in-home sales programs, as well as acts as a general contractor to provide installation services to its do-it-for-me customers through third-party installers. In addition, it provides tool and equipment rental services. The company primarily serves homeowners; and professional renovators/remodelers, general contractors, handymen, property managers, building service contractors, and specialty tradesmen, such as electricians, plumbers, and painters. It also sells its products online. As of January 31, 2021, the company operated 2,296 retail stores in the United States, including the Commonwealth of Puerto Rico, and the territories of the U.S. Virgin Islands and Guam; Canada; and Mexico. The Home Depot, Inc. was incorporated in 1978 and is based in Atlanta, Georgia.</t>
-  </si>
-  <si>
-    <t>Lowe's Companies, Inc., together with its subsidiaries, operates as a home improvement retailer in the United States and internationally. The company offers a line of products for construction, maintenance, repair, remodeling, and decorating. It provides home improvement products in various categories, such as appliances, dÃ©cor, paint, hardware, millwork, lawn and garden, lighting, lumber and building materials, flooring, kitchens and bath, rough plumbing and electrical, seasonal and outdoor living, and tools. It also offers installation services through independent contractors in various product categories; extended protection plans; and in-warranty and out-of-warranty repair services. The company sells its national brand-name merchandise and private branded products to homeowners, renters, and professional customers. As of January 29, 2021, it operated 1,974 home improvement and hardware stores. The company also sells its products through websites comprising Lowes.com and Lowesforpros.com; and through mobile applications. Lowe's Companies, Inc. was founded in 1921 and is based in Mooresville, North Carolina.</t>
+    <t>Duke Energy Corporation, together with its subsidiaries, operates as an energy company in the United States. It operates through three segments: Electric Utilities and Infrastructure, Gas Utilities and Infrastructure, and Commercial Renewables. The Electric Utilities and Infrastructure segment generates, transmits, distributes, and sells electricity in the Carolinas, Florida, and the Midwest; and uses coal, hydroelectric, natural gas, oil, renewable sources, and nuclear fuel to generate electricity. It also engages in the wholesale of electricity to municipalities, electric cooperative utilities, and load-serving entities. This segment serves approximately 7.9 million retail electric customers in 6 states in the Southeast and Midwest regions of the United States covering a service territory of approximately 91,000 square miles; and owns approximately 50,807 megawatts (MW) of generation capacity. The Gas Utilities and Infrastructure segment distributes natural gas to residential, commercial, industrial, and power generation natural gas customers; and owns, operates, and invests in pipeline transmission and natural gas storage facilities. It has approximately 1.6 million customers, including 1.1 million customers in North Carolina, South Carolina, and Tennessee, as well as 541,000 customers in southwestern Ohio and northern Kentucky. The Commercial Renewables segment acquires, owns, develops, builds, and operates wind and solar renewable generation projects, including nonregulated renewable energy and energy storage services to utilities, electric cooperatives, municipalities, and commercial and industrial customers. It has 21 wind, 150 solar, and 2 battery storage facilities, as well as 11 fuel cell locations with a capacity of 2,282 MW across 19 states. The company was formerly known as Duke Energy Holding Corp. and changed its name to Duke Energy Corporation in April 2005. The company was incorporated in 2005 and is headquartered in Charlotte, North Carolina.</t>
+  </si>
+  <si>
+    <t>E.ON SE operates as an energy company in Germany, the United Kingdom, Sweden, Turkey, the Netherlands, Belgium, rest of Europe, and internationally. It operates through two segments, Energy Networks and Customer Solutions. The Energy Networks segment operates power and gas distribution networks, as well as provides maintenance, repairs, and related services. The Customer Solutions segment supplies power, gas, and heat, as well as with products and services that enhance energy efficiency to residential, small and medium-sized enterprises, large commercial and industrial, sales partners, and public entities. In addition, the company operates, generates, and dismantles nuclear power stations in Germany and Turkey. Further, it provides SmartSim, a software solution that allows renewable gases to be fed into gas grids; gas quality tracking solutions; GasPro, a mobile gas sample collector; and GasCalc, a software that calculates natural gases, LNG, and biogases properties. E.ON SE has a strategic partnership with Kraken Technologies to use Kraken Technologies' technology platform to transform the United Kingdom's business with residential and small and medium enterprise customers. The company was founded in 1923 and is headquartered in Essen, Germany.</t>
+  </si>
+  <si>
+    <t>Charter Communications, Inc. operates as a broadband connectivity and cable operator company serving residential and commercial customers in the United States. The company provides Internet services, such as security suite that protects computers from viruses and spyware; in-home WiFi, which provides customers with high performance wireless routers to enhance their in-home wireless Internet experience; out-of-home WiFi; and Spectrum WiFi services, as well as video services. It also offers voice communications services using voice over Internet protocol technology; and broadband communications solutions, such as Internet access, data networking, fiber connectivity, video entertainment, and business telephone services to cellular towers and office buildings for business and carrier organizations. In addition, the company provides mobile services; offers video programming, static IP and business WiFi, email and security, and multi-line telephone services, as well as Web-based service management; sells local advertising across various platforms for networks, such as MTV, CNN, and ESPN; sells advertising inventory to local sports and news channels; and offers Audience App for optimizes linear inventory. Further, it offers communications products and managed service solutions; data connectivity services to mobile and wireline carriers on a wholesale basis; and owns and operates regional sports and news networks. The company serves approximately 31 million customers in 41 states. Charter Communications, Inc. was founded in 1993 and is headquartered in Stamford, Connecticut.</t>
   </si>
   <si>
     <t>Croda International Plc creates, makes, and sells specialty chemicals in Europe, the Middle East, Africa, North America, Asia, and Latin America. The company operates in four segments: Personal Care, Life Sciences, Performance Technologies, and Industrial Chemicals. It offers adhesives; crop protection additives and adjuvants, seed enhancement and animal health chemicals, chemical bio-stimulants, and specialty additives for agricultural films; and lubricant additives, coatings and polymers, vehicle cleaning chemicals, and products for automotive textiles and fibers, as well as specialty additives for plastics, and battery and catalyst industries. The company also provides specialty ingredients for self-tanning, color cosmetics, bath and shower, deodorants, anti-perspirants, depilatories, men's grooming, and oral hygiene, as well as skin, hair, sun, body, and baby care applications; construction chemicals and bitumen additives; dietary supplements; and advanced materials, and polymer additives for electronics and devices. In addition, it offers chemistries, emulsifiers, fuel and power generation additives, and polymer additives; food additives; specialty polymer additives for furniture and wood applications; household, industrial, and institutional cleaning products; lubricants; oleochemicals; and packaging, print, and paper chemicals. Further, the company provides paints and coatings; active pharmaceutical ingredients; thermal management products; plastic and rubber products; skin health products; hygiene and industrial nonwovens, botanical extracts, tissues, and textile auxiliaries; and water treatment chemicals. Additionally, it offers bio-based phase change materials for buildings and ventilation, clothing and healthcare, electronics and devices, food and refrigeration, energy storage and recovery, temperature controlled packaging, and vehicles and automotive applications. The company was incorporated in 1925 and is headquartered in Goole, the United Kingdom.</t>
   </si>
   <si>
-    <t>General Dynamics Corporation operates as an aerospace and defense company worldwide. It operates through four segments: Aerospace, Marine Systems, Combat Systems, and Technologies. The Marine Systems segment designs and builds nuclear-powered submarines, surface combatants, and auxiliary ships for the United States Navy and Jones Act ships for commercial customers, as well as oil and product tankers, and container and cargo ships. This segment also provides submarine maintenance and modernization services; lifecycle support services for navy surface ships; and program management, planning, engineering, and design support services for submarines and surface-ships. The Combat Systems segment manufactures land combat solutions, such as wheeled and tracked combat vehicles, weapons systems, munitions, mobile bridge systems with payloads, tactical vehicles, main battle tanks, armored vehicles, weapons systems, and armaments. This segment also offers modernization program, engineering, support, and sustainment services. The Technologies segment provides information technology solutions and mission-support services; mobile communication, computers, and command-and-control mission systems; and intelligence, surveillance, and reconnaissance solutions to military, intelligence, and federal civilian customers. This segment also offers cloud computing, artificial intelligence, machine learning, big data analytics, development, security and operation, software-defined network, everything as-a-service and defense enterprise office system solutions. General Dynamics Corporation was founded in 1899 and is headquartered in Reston, Virginia.</t>
-  </si>
-  <si>
-    <t>Duke Energy Corporation, together with its subsidiaries, operates as an energy company in the United States. It operates through three segments: Electric Utilities and Infrastructure, Gas Utilities and Infrastructure, and Commercial Renewables. The Electric Utilities and Infrastructure segment generates, transmits, distributes, and sells electricity in the Carolinas, Florida, and the Midwest; and uses coal, hydroelectric, natural gas, oil, renewable sources, and nuclear fuel to generate electricity. It also engages in the wholesale of electricity to municipalities, electric cooperative utilities, and load-serving entities. This segment serves approximately 7.9 million retail electric customers in 6 states in the Southeast and Midwest regions of the United States covering a service territory of approximately 91,000 square miles; and owns approximately 50,807 megawatts (MW) of generation capacity. The Gas Utilities and Infrastructure segment distributes natural gas to residential, commercial, industrial, and power generation natural gas customers; and owns, operates, and invests in pipeline transmission and natural gas storage facilities. It has approximately 1.6 million customers, including 1.1 million customers in North Carolina, South Carolina, and Tennessee, as well as 541,000 customers in southwestern Ohio and northern Kentucky. The Commercial Renewables segment acquires, owns, develops, builds, and operates wind and solar renewable generation projects, including nonregulated renewable energy and energy storage services to utilities, electric cooperatives, municipalities, and commercial and industrial customers. It has 21 wind, 150 solar, and 2 battery storage facilities, as well as 11 fuel cell locations with a capacity of 2,282 MW across 19 states. The company was formerly known as Duke Energy Holding Corp. and changed its name to Duke Energy Corporation in April 2005. The company was incorporated in 2005 and is headquartered in Charlotte, North Carolina.</t>
-  </si>
-  <si>
-    <t>Honeywell International Inc. operates as a diversified technology and manufacturing company worldwide. Its Aerospace segment offers auxiliary power units, propulsion engines, integrated avionics, environmental control and electric power systems, engine controls, flight safety, communications, navigation hardware, data and software applications, radar and surveillance systems, aircraft lighting, advanced systems and instruments, satellite and space components, and aircraft wheels and brakes; spare parts; repair, overhaul, and maintenance services; thermal systems; and connected solutions and data services for aftermarket, as well as wireless connectivity and management services. The company's Honeywell Building Technologies segment offers software applications for building control and optimization; sensors, switches, control systems, and instruments for energy management; access control; video surveillance; fire products; remote patient monitoring systems; e-cooling heat transfer agents; and installation and upgrades of systems. Its Performance Materials and Technologies segment offers automation control, instrumentation, and software and related services; catalysts and adsorbents, equipment, and consulting; and materials to manufacture end products, such as bullet-resistant armor, nylon, computer chips, and pharmaceutical packaging, as well as Honeywell forge connected solutions. The company's Safety and Productivity Solutions segment provides personal protection equipment, apparel, gear, and footwear; gas detection technology; cloud-based notification and emergency messaging; mobile devices and software; supply chain and warehouse automation equipment, and software solutions; custom-engineered sensors, switches, and controls; and data and asset management productivity software solutions. It has strategic alliances with DENSO Corporation, Signify, and IDEMIA Group, S.A.S. The company was incorporated in 1985 and is headquartered in Charlotte, North Carolina.</t>
-  </si>
-  <si>
-    <t>E.ON SE operates as an energy company in Germany, the United Kingdom, Sweden, Turkey, the Netherlands, Belgium, rest of Europe, and internationally. It operates through two segments, Energy Networks and Customer Solutions. The Energy Networks segment operates power and gas distribution networks, as well as provides maintenance, repairs, and related services. The Customer Solutions segment supplies power, gas, and heat, as well as with products and services that enhance energy efficiency to residential, small and medium-sized enterprises, large commercial and industrial, sales partners, and public entities. In addition, the company operates, generates, and dismantles nuclear power stations in Germany and Turkey. Further, it provides SmartSim, a software solution that allows renewable gases to be fed into gas grids; gas quality tracking solutions; GasPro, a mobile gas sample collector; and GasCalc, a software that calculates natural gases, LNG, and biogases properties. E.ON SE has a strategic partnership with Kraken Technologies to use Kraken Technologies' technology platform to transform the United Kingdom's business with residential and small and medium enterprise customers. The company was founded in 1923 and is headquartered in Essen, Germany.</t>
-  </si>
-  <si>
-    <t>Experian plc, together with its subsidiaries, operates as a technology company. The company operates through two segments, Business-to-Business and Consumer Services. It provides data services to identify and understand their customers, as well as to manage the risks related with lending. The company also offers analytical and decision tools that enhance businesses to manage their customers, minimize the risk of fraud, comply with legal requirements, and automate decisions and processes. In addition, it provides financial education, free access to Experian credit reports and scores, online educational tools, and applications to manage their financial position, access credit offers, and protect themselves from identity fraud. The company serves customers in financial service, direct-to-consumer, health, retail, automotive, software and professional services, telecommunications and utility, insurance, media and technology, government and public, and other sectors. It operates in North America, Latin America, the United Kingdom, Ireland, Europe, the Middle East, Africa, and the Asia Pacific. The company was formerly known as Experian Group Limited and changed its name to Experian plc in July 2008. Experian plc was founded in 1897 and is headquartered in Dublin, Ireland.</t>
-  </si>
-  <si>
-    <t>Charter Communications, Inc. operates as a broadband connectivity and cable operator company serving residential and commercial customers in the United States. The company provides Internet services, such as security suite that protects computers from viruses and spyware; in-home WiFi, which provides customers with high performance wireless routers to enhance their in-home wireless Internet experience; out-of-home WiFi; and Spectrum WiFi services, as well as video services. It also offers voice communications services using voice over Internet protocol technology; and broadband communications solutions, such as Internet access, data networking, fiber connectivity, video entertainment, and business telephone services to cellular towers and office buildings for business and carrier organizations. In addition, the company provides mobile services; offers video programming, static IP and business WiFi, email and security, and multi-line telephone services, as well as Web-based service management; sells local advertising across various platforms for networks, such as MTV, CNN, and ESPN; sells advertising inventory to local sports and news channels; and offers Audience App for optimizes linear inventory. Further, it offers communications products and managed service solutions; data connectivity services to mobile and wireline carriers on a wholesale basis; and owns and operates regional sports and news networks. The company serves approximately 31 million customers in 41 states. Charter Communications, Inc. was founded in 1993 and is headquartered in Stamford, Connecticut.</t>
+    <t>Volkswagen AG manufactures and sells automobiles primarily in Europe, North America, South America, and the Asia-Pacific. The company operates in four segments: Passenger Cars and Light Commercial Vehicles, Commercial Vehicles, Power Engineering, and Financial Services. The Passenger Cars and Light Commercial Vehicles segment develops vehicles and engines, and light commercial vehicles; and produces and sells passenger cars and related parts. The Commercial Vehicles segment develops, produces, and sells trucks and buses; and offers parts and related services. The Power Engineering segment offers large-bore diesel engines, turbomachinery, special gear units, and propulsion components. The Financial Services segment provides dealer and customer financing, leasing, banking and insurance, fleet management, and mobility services. The company also offers motorcycles. It provides its products under the Volkswagen Passenger Cars, Audi, ÂKODA, SEAT, Bentley, Porsche, Volkswagen Commercial Vehicles, Scania, MAN, Lamborghini, Ducati, and Bugatti brands. Volkswagen AG was incorporated in 1937 and is based in Wolfsburg, Germany. Volkswagen AG operates as a subsidiary of Porsche Automobil Holding SE.</t>
   </si>
   <si>
     <t>United States</t>
@@ -826,9 +817,6 @@
     <t>S&amp;P 100, S&amp;P 500</t>
   </si>
   <si>
-    <t>DOW JONES, NASDAQ 100, S&amp;P 100, S&amp;P 500</t>
-  </si>
-  <si>
     <t>DOW JONES, S&amp;P 100, S&amp;P 500</t>
   </si>
   <si>
@@ -856,60 +844,57 @@
     <t>Industrial Goods, Industrials, Aerospace &amp; Defense</t>
   </si>
   <si>
-    <t>Consumer Non-Cyclicals, Food &amp; Drug Retailing, Drug Retailers</t>
-  </si>
-  <si>
     <t>Specialty Chemicals, Basic Materials, Chemicals</t>
   </si>
   <si>
+    <t>Auto &amp; Truck Manufacturers, Automobiles &amp; Auto Parts, Consumer Cyclicals</t>
+  </si>
+  <si>
     <t>Diversified Retail, Retailers, Department Stores, Consumer Cyclicals</t>
   </si>
   <si>
-    <t>Auto &amp; Truck Manufacturers, Automobiles &amp; Auto Parts, Consumer Cyclicals</t>
-  </si>
-  <si>
     <t>Building materials</t>
   </si>
   <si>
     <t>Telecommunications Services, Wireless Telecommunications Services</t>
   </si>
   <si>
+    <t>Cyclical Consumer Products, Footwear, Textiles &amp; Apparel, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Construction Materials, Mineral Resources, Basic Materials</t>
+  </si>
+  <si>
+    <t>Hotels &amp; Entertainment Services, Restaurants &amp; Bars, Cyclical Consumer Services, Consumer Cyclicals</t>
+  </si>
+  <si>
     <t>Other Specialty Retailers, Retailers, Specialty Retailers, Consumer Cyclicals</t>
   </si>
   <si>
-    <t>Hotels &amp; Entertainment Services, Restaurants &amp; Bars, Cyclical Consumer Services, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Construction Materials, Mineral Resources, Basic Materials</t>
-  </si>
-  <si>
     <t>Business Support Services, Industrials, Professional &amp; Commercial Services, Industrial &amp; Commercial Services</t>
   </si>
   <si>
+    <t>Paper Packaging, Basic Materials, Containers &amp; Packaging, Applied Resources</t>
+  </si>
+  <si>
     <t>Industrials, Diversified Trading &amp; Distributing, Industrial &amp; Commercial Services</t>
   </si>
   <si>
-    <t>Paper Packaging, Basic Materials, Containers &amp; Packaging, Applied Resources</t>
-  </si>
-  <si>
     <t>Industrial Goods, Industrials, Heavy Machinery &amp; Vehicles, Machinery, Equipment &amp; Components</t>
   </si>
   <si>
+    <t>Automotive, Auto &amp; Truck Manufacturers, Automobiles &amp; Auto Parts, Consumer Cyclicals</t>
+  </si>
+  <si>
     <t>Electric Utilities, Electric Utilities &amp; IPPs, Utilities</t>
   </si>
   <si>
     <t>Technology, Software &amp; IT Services, IT Services &amp; Consulting</t>
   </si>
   <si>
-    <t>Automotive, Auto &amp; Truck Manufacturers, Automobiles &amp; Auto Parts, Consumer Cyclicals</t>
-  </si>
-  <si>
     <t>Industrials, Industrial Conglomerates</t>
   </si>
   <si>
-    <t>Cyclical Consumer Products, Footwear, Textiles &amp; Apparel, Consumer Cyclicals</t>
-  </si>
-  <si>
     <t>Industrials, Air Freight &amp; Courier Services, Freight &amp; Logistics Services, Transportation</t>
   </si>
   <si>
@@ -931,31 +916,31 @@
     <t>Industrial Goods, Industrials, Machinery, Equipment &amp; Components, Industrial Machinery &amp; Equipment</t>
   </si>
   <si>
+    <t>Retailers, Specialty Retailers, Home Improvement Products &amp; Services Retailers, Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Aerospace, Defense</t>
+  </si>
+  <si>
     <t>Industrial Goods, Industrials, Machinery, Equipment &amp; Components, Electrical Components &amp; Equipment</t>
   </si>
   <si>
+    <t>Professional Information Services, Industrials, Professional &amp; Commercial Services, Industrial &amp; Commercial Services</t>
+  </si>
+  <si>
     <t>Commodity Chemicals, Basic Materials, Chemicals</t>
   </si>
   <si>
-    <t>Retailers, Specialty Retailers, Home Improvement Products &amp; Services Retailers, Consumer Cyclicals</t>
-  </si>
-  <si>
-    <t>Aerospace, Defense</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Professional Information Services, Industrials, Professional &amp; Commercial Services, Industrial &amp; Commercial Services</t>
-  </si>
-  <si>
     <t>Media &amp; Publishing, Cyclical Consumer Services, Broadcasting, Consumer Cyclicals</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>GBP</t>
+    <t>GBp</t>
   </si>
   <si>
     <t>EUR</t>
@@ -1334,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1364,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1429,25 +1414,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I2" s="2">
         <v>182487744512</v>
@@ -1456,34 +1441,34 @@
         <v>412.37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L2" s="2">
         <v>42.16893</v>
       </c>
       <c r="M2" s="3">
-        <v>73.68421052631579</v>
+        <v>73.40425531914893</v>
       </c>
       <c r="N2" s="2">
         <v>0.97776836</v>
       </c>
       <c r="O2" s="3">
-        <v>83.15789473684211</v>
+        <v>84.04255319148936</v>
       </c>
       <c r="P2" s="2">
         <v>20.052</v>
       </c>
       <c r="Q2" s="3">
-        <v>64.21052631578948</v>
+        <v>63.82978723404256</v>
       </c>
       <c r="R2" s="2">
         <v>0.9320000000000001</v>
       </c>
       <c r="S2" s="3">
-        <v>92.63157894736842</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="T2" s="4">
-        <v>78.42105263157896</v>
+        <v>78.72340425531915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1491,25 +1476,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I3" s="2">
         <v>6383454208</v>
@@ -1518,34 +1503,34 @@
         <v>264.9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L3" s="2">
         <v>66.22499999999999</v>
       </c>
       <c r="M3" s="3">
-        <v>91.57894736842105</v>
+        <v>90.42553191489361</v>
       </c>
       <c r="N3" s="2">
         <v>0.3627375</v>
       </c>
       <c r="O3" s="3">
-        <v>95.78947368421052</v>
+        <v>96.80851063829788</v>
       </c>
       <c r="P3" s="2">
         <v>11.203</v>
       </c>
       <c r="Q3" s="3">
-        <v>22.10526315789474</v>
+        <v>22.34042553191489</v>
       </c>
       <c r="R3" s="2">
         <v>0.499</v>
       </c>
       <c r="S3" s="3">
-        <v>98.42105263157895</v>
+        <v>98.40425531914893</v>
       </c>
       <c r="T3" s="4">
-        <v>76.97368421052632</v>
+        <v>76.99468085106383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1553,25 +1538,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I4" s="2">
         <v>61758750720</v>
@@ -1580,34 +1565,34 @@
         <v>315.95</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L4" s="2">
         <v>64.400734</v>
       </c>
       <c r="M4" s="3">
-        <v>89.47368421052632</v>
+        <v>88.29787234042553</v>
       </c>
       <c r="N4" s="2">
         <v>2.979053</v>
       </c>
       <c r="O4" s="3">
-        <v>49.47368421052632</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="P4" s="2">
         <v>31.882</v>
       </c>
       <c r="Q4" s="3">
-        <v>83.15789473684211</v>
+        <v>81.91489361702128</v>
       </c>
       <c r="R4" s="2">
         <v>3.048</v>
       </c>
       <c r="S4" s="3">
-        <v>60</v>
+        <v>60.63829787234042</v>
       </c>
       <c r="T4" s="4">
-        <v>70.52631578947368</v>
+        <v>69.94680851063829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1615,25 +1600,25 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I5" s="2">
         <v>9872699392</v>
@@ -1642,34 +1627,34 @@
         <v>957</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L5" s="2">
         <v>41.608696</v>
       </c>
       <c r="M5" s="3">
-        <v>71.57894736842105</v>
+        <v>71.27659574468085</v>
       </c>
       <c r="N5" s="2">
         <v>1.6008139</v>
       </c>
       <c r="O5" s="3">
-        <v>69.47368421052632</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="P5" s="2">
         <v>16.822</v>
       </c>
       <c r="Q5" s="3">
-        <v>54.73684210526316</v>
+        <v>56.38297872340426</v>
       </c>
       <c r="R5" s="2">
         <v>1.709</v>
       </c>
       <c r="S5" s="3">
-        <v>75.78947368421052</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="T5" s="4">
-        <v>67.89473684210526</v>
+        <v>68.61702127659575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1677,25 +1662,25 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I6" s="2">
         <v>187483979776</v>
@@ -1704,34 +1689,34 @@
         <v>213.92</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L6" s="2">
         <v>36.122932</v>
       </c>
       <c r="M6" s="3">
-        <v>65.26315789473684</v>
+        <v>64.8936170212766</v>
       </c>
       <c r="N6" s="2">
         <v>2.0947697</v>
       </c>
       <c r="O6" s="3">
-        <v>62.10526315789474</v>
+        <v>62.76595744680851</v>
       </c>
       <c r="P6" s="2">
         <v>21.231</v>
       </c>
       <c r="Q6" s="3">
-        <v>69.47368421052632</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="R6" s="2">
         <v>2.194</v>
       </c>
       <c r="S6" s="3">
-        <v>70.52631578947368</v>
+        <v>71.27659574468085</v>
       </c>
       <c r="T6" s="4">
-        <v>66.84210526315789</v>
+        <v>67.28723404255319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1739,61 +1724,61 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I7" s="2">
-        <v>41009033216</v>
+        <v>6119513088</v>
       </c>
       <c r="J7" s="2">
-        <v>47.41</v>
+        <v>3162</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L7" s="2">
-        <v>17.924385</v>
+        <v>29.718044</v>
       </c>
       <c r="M7" s="3">
-        <v>16.84210526315789</v>
+        <v>47.87234042553192</v>
       </c>
       <c r="N7" s="2">
-        <v>0.28055328</v>
+        <v>0.39044937</v>
       </c>
       <c r="O7" s="3">
-        <v>98.94736842105263</v>
+        <v>95.74468085106383</v>
       </c>
       <c r="P7" s="2">
-        <v>15.626</v>
+        <v>10.171</v>
       </c>
       <c r="Q7" s="3">
-        <v>50.52631578947368</v>
+        <v>18.08510638297872</v>
       </c>
       <c r="R7" s="2">
-        <v>0.5600000000000001</v>
+        <v>0.431</v>
       </c>
       <c r="S7" s="3">
-        <v>95.78947368421052</v>
+        <v>100</v>
       </c>
       <c r="T7" s="4">
-        <v>65.52631578947368</v>
+        <v>65.42553191489361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1801,61 +1786,61 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I8" s="2">
-        <v>6119513088</v>
+        <v>57798946816</v>
       </c>
       <c r="J8" s="2">
-        <v>3162</v>
+        <v>14.48</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L8" s="2">
-        <v>29.718044</v>
+        <v>14.567404</v>
       </c>
       <c r="M8" s="3">
-        <v>48.42105263157895</v>
+        <v>11.70212765957447</v>
       </c>
       <c r="N8" s="2">
-        <v>0.39044937</v>
+        <v>0.44787332</v>
       </c>
       <c r="O8" s="3">
-        <v>94.73684210526316</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="P8" s="2">
-        <v>10.197</v>
+        <v>21.708</v>
       </c>
       <c r="Q8" s="3">
-        <v>17.89473684210526</v>
+        <v>71.27659574468085</v>
       </c>
       <c r="R8" s="2">
-        <v>0.432</v>
+        <v>1.422</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>82.97872340425532</v>
       </c>
       <c r="T8" s="4">
-        <v>65.26315789473685</v>
+        <v>64.8936170212766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1863,25 +1848,25 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I9" s="2">
         <v>1875752517632</v>
@@ -1890,34 +1875,34 @@
         <v>3719.34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L9" s="2">
         <v>70.76101</v>
       </c>
       <c r="M9" s="3">
-        <v>93.68421052631579</v>
+        <v>92.55319148936171</v>
       </c>
       <c r="N9" s="2">
         <v>4.4753475</v>
       </c>
       <c r="O9" s="3">
-        <v>37.89473684210526</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="P9" s="2">
         <v>32.918</v>
       </c>
       <c r="Q9" s="3">
-        <v>84.21052631578948</v>
+        <v>84.04255319148936</v>
       </c>
       <c r="R9" s="2">
         <v>4.49</v>
       </c>
       <c r="S9" s="3">
-        <v>43.1578947368421</v>
+        <v>43.61702127659574</v>
       </c>
       <c r="T9" s="4">
-        <v>64.73684210526316</v>
+        <v>64.62765957446808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1925,61 +1910,61 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I10" s="2">
-        <v>57798946816</v>
+        <v>23175823360</v>
       </c>
       <c r="J10" s="2">
-        <v>14.48</v>
+        <v>10350</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L10" s="2">
-        <v>14.567404</v>
+        <v>34.147144</v>
       </c>
       <c r="M10" s="3">
-        <v>11.57894736842105</v>
+        <v>57.4468085106383</v>
       </c>
       <c r="N10" s="2">
-        <v>0.44787332</v>
+        <v>1.0423127</v>
       </c>
       <c r="O10" s="3">
-        <v>92.63157894736842</v>
+        <v>80.85106382978724</v>
       </c>
       <c r="P10" s="2">
-        <v>21.708</v>
+        <v>11.846</v>
       </c>
       <c r="Q10" s="3">
-        <v>71.57894736842105</v>
+        <v>29.78723404255319</v>
       </c>
       <c r="R10" s="2">
-        <v>1.422</v>
+        <v>1.018</v>
       </c>
       <c r="S10" s="3">
-        <v>82.10526315789474</v>
+        <v>90.42553191489361</v>
       </c>
       <c r="T10" s="4">
-        <v>64.47368421052632</v>
+        <v>64.62765957446808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1987,61 +1972,61 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I11" s="2">
-        <v>23175823360</v>
+        <v>46460289024</v>
       </c>
       <c r="J11" s="2">
-        <v>10350</v>
+        <v>16.67</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L11" s="2">
-        <v>34.147144</v>
+        <v>333.4</v>
       </c>
       <c r="M11" s="3">
-        <v>57.89473684210526</v>
+        <v>97.87234042553192</v>
       </c>
       <c r="N11" s="2">
-        <v>1.0423127</v>
+        <v>1.0605192</v>
       </c>
       <c r="O11" s="3">
-        <v>80</v>
+        <v>79.78723404255319</v>
       </c>
       <c r="P11" s="2">
-        <v>11.846</v>
+        <v>9.491</v>
       </c>
       <c r="Q11" s="3">
-        <v>29.47368421052632</v>
+        <v>11.70212765957447</v>
       </c>
       <c r="R11" s="2">
-        <v>1.018</v>
+        <v>2.613</v>
       </c>
       <c r="S11" s="3">
-        <v>89.47368421052632</v>
+        <v>63.82978723404256</v>
       </c>
       <c r="T11" s="4">
-        <v>64.21052631578948</v>
+        <v>63.29787234042553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2049,61 +2034,61 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>267</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="I12" s="2">
-        <v>46460289024</v>
+        <v>331353456640</v>
       </c>
       <c r="J12" s="2">
-        <v>16.67</v>
+        <v>118.74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L12" s="2">
-        <v>333.4</v>
+        <v>30.137054</v>
       </c>
       <c r="M12" s="3">
-        <v>97.89473684210526</v>
+        <v>51.06382978723404</v>
       </c>
       <c r="N12" s="2">
-        <v>1.0605192</v>
+        <v>0.588718</v>
       </c>
       <c r="O12" s="3">
-        <v>78.94736842105263</v>
+        <v>89.36170212765957</v>
       </c>
       <c r="P12" s="2">
-        <v>9.491</v>
+        <v>9.51</v>
       </c>
       <c r="Q12" s="3">
-        <v>11.57894736842105</v>
+        <v>13.29787234042553</v>
       </c>
       <c r="R12" s="2">
-        <v>2.613</v>
+        <v>0.67</v>
       </c>
       <c r="S12" s="3">
-        <v>64.21052631578948</v>
+        <v>95.74468085106383</v>
       </c>
       <c r="T12" s="4">
-        <v>63.1578947368421</v>
+        <v>62.36702127659574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2111,61 +2096,61 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I13" s="2">
-        <v>332727287808</v>
+        <v>213596553216</v>
       </c>
       <c r="J13" s="2">
-        <v>118.74</v>
+        <v>135.18</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L13" s="2">
-        <v>32.407204</v>
+        <v>75.435265</v>
       </c>
       <c r="M13" s="3">
-        <v>53.68421052631579</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="N13" s="2">
-        <v>0.59115887</v>
+        <v>5.5469537</v>
       </c>
       <c r="O13" s="3">
-        <v>88.42105263157895</v>
+        <v>28.72340425531915</v>
       </c>
       <c r="P13" s="2">
-        <v>9.513</v>
+        <v>34.012</v>
       </c>
       <c r="Q13" s="3">
-        <v>12.63157894736842</v>
+        <v>85.1063829787234</v>
       </c>
       <c r="R13" s="2">
-        <v>0.67</v>
+        <v>4.583</v>
       </c>
       <c r="S13" s="3">
-        <v>94.73684210526316</v>
+        <v>41.48936170212766</v>
       </c>
       <c r="T13" s="4">
-        <v>62.36842105263158</v>
+        <v>62.23404255319149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2173,61 +2158,61 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I14" s="2">
-        <v>10423201792</v>
+        <v>39468793856</v>
       </c>
       <c r="J14" s="2">
-        <v>7840</v>
+        <v>50.44</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L14" s="2">
-        <v>35.33123</v>
+        <v>35.571228</v>
       </c>
       <c r="M14" s="3">
-        <v>62.10526315789474</v>
+        <v>63.82978723404256</v>
       </c>
       <c r="N14" s="2">
-        <v>2.9490726</v>
+        <v>1.4307027</v>
       </c>
       <c r="O14" s="3">
-        <v>50.52631578947368</v>
+        <v>73.40425531914893</v>
       </c>
       <c r="P14" s="2">
-        <v>25.66</v>
+        <v>11.879</v>
       </c>
       <c r="Q14" s="3">
-        <v>78.94736842105263</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="R14" s="2">
-        <v>3.395</v>
+        <v>1.688</v>
       </c>
       <c r="S14" s="3">
-        <v>53.68421052631579</v>
+        <v>77.65957446808511</v>
       </c>
       <c r="T14" s="4">
-        <v>61.31578947368421</v>
+        <v>61.43617021276596</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2235,25 +2220,25 @@
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I15" s="2">
         <v>138414899200</v>
@@ -2262,34 +2247,34 @@
         <v>117.47</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L15" s="2">
         <v>138.36278</v>
       </c>
       <c r="M15" s="3">
-        <v>96.84210526315789</v>
+        <v>96.80851063829788</v>
       </c>
       <c r="N15" s="2">
         <v>5.805337</v>
       </c>
       <c r="O15" s="3">
-        <v>27.36842105263158</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="P15" s="2">
         <v>44.572</v>
       </c>
       <c r="Q15" s="3">
-        <v>91.57894736842105</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="R15" s="2">
         <v>6.346</v>
       </c>
       <c r="S15" s="3">
-        <v>28.42105263157895</v>
+        <v>28.72340425531915</v>
       </c>
       <c r="T15" s="4">
-        <v>61.05263157894737</v>
+        <v>61.17021276595744</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2297,61 +2282,61 @@
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I16" s="2">
-        <v>39468793856</v>
+        <v>10423201792</v>
       </c>
       <c r="J16" s="2">
-        <v>50.44</v>
+        <v>7840</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L16" s="2">
-        <v>35.571228</v>
+        <v>35.33123</v>
       </c>
       <c r="M16" s="3">
-        <v>64.21052631578948</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="N16" s="2">
-        <v>1.4307027</v>
+        <v>2.9490726</v>
       </c>
       <c r="O16" s="3">
-        <v>72.63157894736842</v>
+        <v>51.06382978723404</v>
       </c>
       <c r="P16" s="2">
-        <v>11.879</v>
+        <v>26.478</v>
       </c>
       <c r="Q16" s="3">
-        <v>30.52631578947368</v>
+        <v>78.72340425531915</v>
       </c>
       <c r="R16" s="2">
-        <v>1.688</v>
+        <v>3.503</v>
       </c>
       <c r="S16" s="3">
-        <v>76.84210526315789</v>
+        <v>51.06382978723404</v>
       </c>
       <c r="T16" s="4">
-        <v>61.05263157894737</v>
+        <v>60.63829787234042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2359,25 +2344,25 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I17" s="2">
         <v>11464592384</v>
@@ -2386,34 +2371,34 @@
         <v>29.2</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L17" s="2">
         <v>49.91453</v>
       </c>
       <c r="M17" s="3">
-        <v>78.94736842105263</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="N17" s="2">
         <v>4.0604186</v>
       </c>
       <c r="O17" s="3">
-        <v>41.05263157894737</v>
+        <v>41.48936170212766</v>
       </c>
       <c r="P17" s="2">
         <v>21.159</v>
       </c>
       <c r="Q17" s="3">
-        <v>68.42105263157895</v>
+        <v>69.14893617021276</v>
       </c>
       <c r="R17" s="2">
         <v>3.939</v>
       </c>
       <c r="S17" s="3">
-        <v>47.36842105263158</v>
+        <v>47.87234042553192</v>
       </c>
       <c r="T17" s="4">
-        <v>58.94736842105263</v>
+        <v>58.77659574468085</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2421,61 +2406,61 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I18" s="2">
-        <v>8620340224</v>
+        <v>5866866176</v>
       </c>
       <c r="J18" s="2">
-        <v>2556</v>
+        <v>427.2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L18" s="2">
-        <v>19.922058</v>
+        <v>30.297873</v>
       </c>
       <c r="M18" s="3">
-        <v>22.10526315789474</v>
+        <v>52.12765957446808</v>
       </c>
       <c r="N18" s="2">
-        <v>0.8525620699999999</v>
+        <v>0.981738</v>
       </c>
       <c r="O18" s="3">
-        <v>84.21052631578948</v>
+        <v>82.97872340425532</v>
       </c>
       <c r="P18" s="2">
-        <v>12.777</v>
+        <v>9.51</v>
       </c>
       <c r="Q18" s="3">
-        <v>36.8421052631579</v>
+        <v>13.29787234042553</v>
       </c>
       <c r="R18" s="2">
-        <v>1.017</v>
+        <v>1.278</v>
       </c>
       <c r="S18" s="3">
-        <v>90.52631578947368</v>
+        <v>85.1063829787234</v>
       </c>
       <c r="T18" s="4">
-        <v>58.42105263157895</v>
+        <v>58.37765957446808</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2483,61 +2468,61 @@
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I19" s="2">
-        <v>5867335680</v>
+        <v>4444891136</v>
       </c>
       <c r="J19" s="2">
-        <v>427.2</v>
+        <v>72</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L19" s="2">
-        <v>30.297873</v>
+        <v>37.994724</v>
       </c>
       <c r="M19" s="3">
-        <v>51.57894736842105</v>
+        <v>69.14893617021276</v>
       </c>
       <c r="N19" s="2">
-        <v>0.98181653</v>
+        <v>1.9060425</v>
       </c>
       <c r="O19" s="3">
-        <v>82.10526315789474</v>
+        <v>63.82978723404256</v>
       </c>
       <c r="P19" s="2">
-        <v>9.548999999999999</v>
+        <v>12.044</v>
       </c>
       <c r="Q19" s="3">
-        <v>13.68421052631579</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="R19" s="2">
-        <v>1.283</v>
+        <v>2.5</v>
       </c>
       <c r="S19" s="3">
-        <v>83.68421052631579</v>
+        <v>67.02127659574468</v>
       </c>
       <c r="T19" s="4">
-        <v>57.76315789473684</v>
+        <v>57.97872340425532</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2545,61 +2530,61 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I20" s="2">
-        <v>119099850752</v>
+        <v>8619624448</v>
       </c>
       <c r="J20" s="2">
-        <v>217.42</v>
+        <v>2556</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L20" s="2">
-        <v>34.76495</v>
+        <v>19.922058</v>
       </c>
       <c r="M20" s="3">
-        <v>61.05263157894737</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="N20" s="2">
-        <v>2.769764</v>
+        <v>0.85249126</v>
       </c>
       <c r="O20" s="3">
-        <v>55.78947368421053</v>
+        <v>85.1063829787234</v>
       </c>
       <c r="P20" s="2">
-        <v>18.827</v>
+        <v>12.06</v>
       </c>
       <c r="Q20" s="3">
-        <v>61.05263157894737</v>
+        <v>32.97872340425532</v>
       </c>
       <c r="R20" s="2">
-        <v>3.419</v>
+        <v>0.96</v>
       </c>
       <c r="S20" s="3">
-        <v>52.63157894736842</v>
+        <v>92.55319148936171</v>
       </c>
       <c r="T20" s="4">
-        <v>57.63157894736842</v>
+        <v>57.97872340425532</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2607,61 +2592,61 @@
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>267</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I21" s="2">
-        <v>4452523008</v>
+        <v>119099850752</v>
       </c>
       <c r="J21" s="2">
-        <v>72</v>
+        <v>217.42</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L21" s="2">
-        <v>37.422035</v>
+        <v>34.76495</v>
       </c>
       <c r="M21" s="3">
-        <v>68.42105263157895</v>
+        <v>60.63829787234042</v>
       </c>
       <c r="N21" s="2">
-        <v>1.9093152</v>
+        <v>2.769764</v>
       </c>
       <c r="O21" s="3">
-        <v>63.1578947368421</v>
+        <v>56.38297872340426</v>
       </c>
       <c r="P21" s="2">
-        <v>12.17</v>
+        <v>18.818</v>
       </c>
       <c r="Q21" s="3">
-        <v>32.63157894736842</v>
+        <v>60.63829787234042</v>
       </c>
       <c r="R21" s="2">
-        <v>2.526</v>
+        <v>3.417</v>
       </c>
       <c r="S21" s="3">
-        <v>65.26315789473684</v>
+        <v>54.25531914893617</v>
       </c>
       <c r="T21" s="4">
-        <v>57.36842105263158</v>
+        <v>57.97872340425532</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2669,61 +2654,61 @@
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I22" s="2">
-        <v>43884929024</v>
+        <v>57249837056</v>
       </c>
       <c r="J22" s="2">
-        <v>44.91</v>
+        <v>87.81</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L22" s="2">
-        <v>40.459457</v>
+        <v>15.324607</v>
       </c>
       <c r="M22" s="3">
-        <v>70.52631578947368</v>
+        <v>13.82978723404255</v>
       </c>
       <c r="N22" s="2">
-        <v>1.2838608</v>
+        <v>0.55844784</v>
       </c>
       <c r="O22" s="3">
-        <v>74.73684210526316</v>
+        <v>90.42553191489361</v>
       </c>
       <c r="P22" s="2">
-        <v>9.936999999999999</v>
+        <v>14.33</v>
       </c>
       <c r="Q22" s="3">
-        <v>16.84210526315789</v>
+        <v>44.68085106382978</v>
       </c>
       <c r="R22" s="2">
-        <v>2.504</v>
+        <v>1.464</v>
       </c>
       <c r="S22" s="3">
-        <v>66.31578947368421</v>
+        <v>80.85106382978724</v>
       </c>
       <c r="T22" s="4">
-        <v>57.10526315789474</v>
+        <v>57.4468085106383</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2731,61 +2716,61 @@
         <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I23" s="2">
-        <v>198715949056</v>
+        <v>43884929024</v>
       </c>
       <c r="J23" s="2">
-        <v>312.62</v>
+        <v>44.91</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L23" s="2">
-        <v>36.99645</v>
+        <v>40.459457</v>
       </c>
       <c r="M23" s="3">
-        <v>67.36842105263158</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="N23" s="2">
-        <v>4.3504705</v>
+        <v>1.2838608</v>
       </c>
       <c r="O23" s="3">
-        <v>38.94736842105263</v>
+        <v>75.53191489361703</v>
       </c>
       <c r="P23" s="2">
-        <v>23.745</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="Q23" s="3">
-        <v>74.73684210526316</v>
+        <v>17.02127659574468</v>
       </c>
       <c r="R23" s="2">
-        <v>3.945</v>
+        <v>2.504</v>
       </c>
       <c r="S23" s="3">
-        <v>46.31578947368421</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="T23" s="4">
-        <v>56.8421052631579</v>
+        <v>57.18085106382979</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2793,61 +2778,61 @@
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I24" s="2">
-        <v>57249837056</v>
+        <v>198715949056</v>
       </c>
       <c r="J24" s="2">
-        <v>87.81</v>
+        <v>312.62</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L24" s="2">
-        <v>15.324607</v>
+        <v>36.99645</v>
       </c>
       <c r="M24" s="3">
-        <v>13.68421052631579</v>
+        <v>67.02127659574468</v>
       </c>
       <c r="N24" s="2">
-        <v>0.55844784</v>
+        <v>4.3504705</v>
       </c>
       <c r="O24" s="3">
-        <v>89.47368421052632</v>
+        <v>39.36170212765958</v>
       </c>
       <c r="P24" s="2">
-        <v>14.33</v>
+        <v>23.745</v>
       </c>
       <c r="Q24" s="3">
-        <v>44.21052631578947</v>
+        <v>75.53191489361703</v>
       </c>
       <c r="R24" s="2">
-        <v>1.464</v>
+        <v>3.945</v>
       </c>
       <c r="S24" s="3">
-        <v>80</v>
+        <v>46.80851063829788</v>
       </c>
       <c r="T24" s="4">
-        <v>56.8421052631579</v>
+        <v>57.18085106382979</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2855,61 +2840,61 @@
         <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="I25" s="2">
-        <v>26002132992</v>
+        <v>6425157120</v>
       </c>
       <c r="J25" s="2">
-        <v>25.34</v>
+        <v>1621</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L25" s="2">
-        <v>20.601625</v>
+        <v>25.977564</v>
       </c>
       <c r="M25" s="3">
-        <v>29.47368421052632</v>
+        <v>40.42553191489362</v>
       </c>
       <c r="N25" s="2">
-        <v>0.34765926</v>
+        <v>2.613978</v>
       </c>
       <c r="O25" s="3">
-        <v>96.84210526315789</v>
+        <v>57.4468085106383</v>
       </c>
       <c r="P25" s="2">
-        <v>7.719</v>
+        <v>21.118</v>
       </c>
       <c r="Q25" s="3">
-        <v>4.210526315789473</v>
+        <v>68.08510638297872</v>
       </c>
       <c r="R25" s="2">
-        <v>0.518</v>
+        <v>3.041</v>
       </c>
       <c r="S25" s="3">
-        <v>96.84210526315789</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="T25" s="4">
-        <v>56.84210526315789</v>
+        <v>56.91489361702128</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2917,61 +2902,61 @@
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="I26" s="2">
-        <v>6425157120</v>
+        <v>26015057920</v>
       </c>
       <c r="J26" s="2">
-        <v>1621</v>
+        <v>25.34</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L26" s="2">
-        <v>25.977564</v>
+        <v>20.601625</v>
       </c>
       <c r="M26" s="3">
-        <v>41.05263157894737</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="N26" s="2">
-        <v>2.613978</v>
+        <v>0.34783208</v>
       </c>
       <c r="O26" s="3">
-        <v>56.8421052631579</v>
+        <v>97.87234042553192</v>
       </c>
       <c r="P26" s="2">
-        <v>21.118</v>
+        <v>7.592</v>
       </c>
       <c r="Q26" s="3">
-        <v>67.36842105263158</v>
+        <v>4.25531914893617</v>
       </c>
       <c r="R26" s="2">
-        <v>3.041</v>
+        <v>0.509</v>
       </c>
       <c r="S26" s="3">
-        <v>61.05263157894737</v>
+        <v>96.80851063829788</v>
       </c>
       <c r="T26" s="4">
-        <v>56.57894736842105</v>
+        <v>56.64893617021276</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2979,61 +2964,61 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I27" s="2">
-        <v>214729359360</v>
+        <v>66497433600</v>
       </c>
       <c r="J27" s="2">
-        <v>135.18</v>
+        <v>249.6</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L27" s="2">
-        <v>45.105103</v>
+        <v>26.232265</v>
       </c>
       <c r="M27" s="3">
-        <v>74.73684210526316</v>
+        <v>41.48936170212766</v>
       </c>
       <c r="N27" s="2">
-        <v>4.821262</v>
+        <v>0.7920227</v>
       </c>
       <c r="O27" s="3">
-        <v>32.63157894736842</v>
+        <v>86.17021276595744</v>
       </c>
       <c r="P27" s="2">
-        <v>26.715</v>
+        <v>8.257</v>
       </c>
       <c r="Q27" s="3">
-        <v>80</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="R27" s="2">
-        <v>4.778</v>
+        <v>1.156</v>
       </c>
       <c r="S27" s="3">
-        <v>38.94736842105263</v>
+        <v>89.36170212765957</v>
       </c>
       <c r="T27" s="4">
-        <v>56.57894736842105</v>
+        <v>55.85106382978723</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -3041,61 +3026,61 @@
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I28" s="2">
-        <v>66497433600</v>
+        <v>6211714560</v>
       </c>
       <c r="J28" s="2">
-        <v>249.6</v>
+        <v>821.4</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L28" s="2">
-        <v>26.232265</v>
+        <v>20.034147</v>
       </c>
       <c r="M28" s="3">
-        <v>42.10526315789474</v>
+        <v>22.34042553191489</v>
       </c>
       <c r="N28" s="2">
-        <v>0.7920227</v>
+        <v>1.8285884</v>
       </c>
       <c r="O28" s="3">
-        <v>85.26315789473684</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="P28" s="2">
-        <v>8.257</v>
+        <v>18.793</v>
       </c>
       <c r="Q28" s="3">
-        <v>6.315789473684211</v>
+        <v>59.57446808510638</v>
       </c>
       <c r="R28" s="2">
-        <v>1.156</v>
+        <v>2.019</v>
       </c>
       <c r="S28" s="3">
-        <v>88.42105263157895</v>
+        <v>73.40425531914893</v>
       </c>
       <c r="T28" s="4">
-        <v>55.52631578947368</v>
+        <v>55.31914893617021</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -3103,61 +3088,61 @@
         <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I29" s="2">
-        <v>6211714560</v>
+        <v>11817910272</v>
       </c>
       <c r="J29" s="2">
-        <v>821.4</v>
+        <v>3924</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L29" s="2">
-        <v>20.034147</v>
+        <v>347.25662</v>
       </c>
       <c r="M29" s="3">
-        <v>23.15789473684211</v>
+        <v>98.93617021276596</v>
       </c>
       <c r="N29" s="2">
-        <v>1.8285884</v>
+        <v>14.405059</v>
       </c>
       <c r="O29" s="3">
-        <v>65.26315789473684</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="P29" s="2">
-        <v>18.793</v>
+        <v>74.339</v>
       </c>
       <c r="Q29" s="3">
-        <v>60</v>
+        <v>97.87234042553192</v>
       </c>
       <c r="R29" s="2">
-        <v>2.019</v>
+        <v>14.09</v>
       </c>
       <c r="S29" s="3">
-        <v>72.63157894736842</v>
+        <v>11.70212765957447</v>
       </c>
       <c r="T29" s="4">
-        <v>55.26315789473684</v>
+        <v>54.78723404255319</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -3165,61 +3150,61 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I30" s="2">
-        <v>11817910272</v>
+        <v>78387560448</v>
       </c>
       <c r="J30" s="2">
-        <v>3924</v>
+        <v>73.09</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L30" s="2">
-        <v>347.25662</v>
+        <v>9.995896999999999</v>
       </c>
       <c r="M30" s="3">
-        <v>98.94736842105263</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="N30" s="2">
-        <v>14.405059</v>
+        <v>0.4958006</v>
       </c>
       <c r="O30" s="3">
-        <v>10.52631578947368</v>
+        <v>92.55319148936171</v>
       </c>
       <c r="P30" s="2">
-        <v>74.339</v>
+        <v>12.299</v>
       </c>
       <c r="Q30" s="3">
-        <v>97.89473684210526</v>
+        <v>35.1063829787234</v>
       </c>
       <c r="R30" s="2">
-        <v>14.09</v>
+        <v>1.283</v>
       </c>
       <c r="S30" s="3">
-        <v>11.57894736842105</v>
+        <v>84.04255319148936</v>
       </c>
       <c r="T30" s="4">
-        <v>54.73684210526316</v>
+        <v>54.52127659574468</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -3227,25 +3212,25 @@
         <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I31" s="2">
         <v>47120068608</v>
@@ -3254,34 +3239,34 @@
         <v>63.08</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L31" s="2">
         <v>23.830751</v>
       </c>
       <c r="M31" s="3">
-        <v>38.94736842105263</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="N31" s="2">
         <v>1.1590512</v>
       </c>
       <c r="O31" s="3">
-        <v>77.89473684210526</v>
+        <v>78.72340425531915</v>
       </c>
       <c r="P31" s="2">
-        <v>10.992</v>
+        <v>10.944</v>
       </c>
       <c r="Q31" s="3">
-        <v>21.05263157894737</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="R31" s="2">
-        <v>1.541</v>
+        <v>1.535</v>
       </c>
       <c r="S31" s="3">
-        <v>78.94736842105263</v>
+        <v>79.78723404255319</v>
       </c>
       <c r="T31" s="4">
-        <v>54.21052631578947</v>
+        <v>54.52127659574468</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3289,61 +3274,61 @@
         <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="I32" s="2">
-        <v>78387560448</v>
+        <v>122978492416</v>
       </c>
       <c r="J32" s="2">
-        <v>73.09</v>
+        <v>248.58</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L32" s="2">
-        <v>9.995896999999999</v>
+        <v>20.295559</v>
       </c>
       <c r="M32" s="3">
-        <v>6.315789473684211</v>
+        <v>25.53191489361702</v>
       </c>
       <c r="N32" s="2">
-        <v>0.4958006</v>
+        <v>1.2530541</v>
       </c>
       <c r="O32" s="3">
-        <v>91.57894736842105</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="P32" s="2">
-        <v>12.299</v>
+        <v>11.538</v>
       </c>
       <c r="Q32" s="3">
-        <v>33.68421052631579</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="R32" s="2">
-        <v>1.283</v>
+        <v>1.272</v>
       </c>
       <c r="S32" s="3">
-        <v>83.68421052631579</v>
+        <v>86.17021276595744</v>
       </c>
       <c r="T32" s="4">
-        <v>53.81578947368421</v>
+        <v>53.98936170212766</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3351,25 +3336,25 @@
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I33" s="2">
         <v>9041234944</v>
@@ -3378,34 +3363,34 @@
         <v>5602</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L33" s="2">
         <v>36.758533</v>
       </c>
       <c r="M33" s="3">
-        <v>66.31578947368421</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="N33" s="2">
         <v>3.2976747</v>
       </c>
       <c r="O33" s="3">
-        <v>46.31578947368421</v>
+        <v>46.80851063829788</v>
       </c>
       <c r="P33" s="2">
-        <v>16.6</v>
+        <v>16.506</v>
       </c>
       <c r="Q33" s="3">
-        <v>52.63157894736842</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="R33" s="2">
-        <v>3.536</v>
+        <v>3.516</v>
       </c>
       <c r="S33" s="3">
-        <v>49.47368421052632</v>
+        <v>50</v>
       </c>
       <c r="T33" s="4">
-        <v>53.68421052631579</v>
+        <v>53.98936170212766</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3413,25 +3398,25 @@
         <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I34" s="2">
         <v>632859656192</v>
@@ -3440,7 +3425,7 @@
         <v>656.95</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L34" s="2">
         <v>658.26654</v>
@@ -3452,22 +3437,22 @@
         <v>17.608784</v>
       </c>
       <c r="O34" s="3">
-        <v>7.368421052631579</v>
+        <v>7.446808510638298</v>
       </c>
       <c r="P34" s="2">
         <v>138.28</v>
       </c>
       <c r="Q34" s="3">
-        <v>98.94736842105263</v>
+        <v>98.93617021276596</v>
       </c>
       <c r="R34" s="2">
         <v>17.51</v>
       </c>
       <c r="S34" s="3">
-        <v>8.421052631578947</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="T34" s="4">
-        <v>53.68421052631579</v>
+        <v>53.72340425531915</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3475,61 +3460,61 @@
         <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="I35" s="2">
-        <v>122978492416</v>
+        <v>72398274560</v>
       </c>
       <c r="J35" s="2">
-        <v>248.58</v>
+        <v>58.43</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L35" s="2">
-        <v>20.295559</v>
+        <v>19.126022</v>
       </c>
       <c r="M35" s="3">
-        <v>26.31578947368421</v>
+        <v>18.08510638297872</v>
       </c>
       <c r="N35" s="2">
-        <v>1.2530541</v>
+        <v>1.0273631</v>
       </c>
       <c r="O35" s="3">
-        <v>75.78947368421052</v>
+        <v>81.91489361702128</v>
       </c>
       <c r="P35" s="2">
-        <v>11.538</v>
+        <v>11.488</v>
       </c>
       <c r="Q35" s="3">
-        <v>27.36842105263158</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="R35" s="2">
-        <v>1.272</v>
+        <v>1.203</v>
       </c>
       <c r="S35" s="3">
-        <v>85.26315789473684</v>
+        <v>87.23404255319149</v>
       </c>
       <c r="T35" s="4">
-        <v>53.68421052631579</v>
+        <v>53.45744680851064</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3537,25 +3522,25 @@
         <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I36" s="2">
         <v>237655130112</v>
@@ -3564,34 +3549,34 @@
         <v>535.98</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L36" s="2">
         <v>64.86506</v>
       </c>
       <c r="M36" s="3">
-        <v>90.52631578947368</v>
+        <v>89.36170212765957</v>
       </c>
       <c r="N36" s="2">
         <v>9.004937999999999</v>
       </c>
       <c r="O36" s="3">
-        <v>15.78947368421053</v>
+        <v>15.95744680851064</v>
       </c>
       <c r="P36" s="2">
         <v>42.652</v>
       </c>
       <c r="Q36" s="3">
-        <v>89.47368421052632</v>
+        <v>89.36170212765957</v>
       </c>
       <c r="R36" s="2">
         <v>9.228</v>
       </c>
       <c r="S36" s="3">
-        <v>18.94736842105263</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="T36" s="4">
-        <v>53.68421052631579</v>
+        <v>53.45744680851064</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3599,25 +3584,25 @@
         <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I37" s="2">
         <v>90110484480</v>
@@ -3626,19 +3611,19 @@
         <v>2194.99</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L37" s="2">
         <v>128.35448</v>
       </c>
       <c r="M37" s="3">
-        <v>95.78947368421052</v>
+        <v>95.74468085106383</v>
       </c>
       <c r="N37" s="2">
         <v>15.951582</v>
       </c>
       <c r="O37" s="3">
-        <v>8.421052631578947</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="P37" s="2">
         <v>172.747</v>
@@ -3650,10 +3635,10 @@
         <v>16.85</v>
       </c>
       <c r="S37" s="3">
-        <v>9.473684210526315</v>
+        <v>9.574468085106384</v>
       </c>
       <c r="T37" s="4">
-        <v>53.42105263157895</v>
+        <v>53.45744680851064</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3661,61 +3646,61 @@
         <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I38" s="2">
-        <v>72398274560</v>
+        <v>10334616576</v>
       </c>
       <c r="J38" s="2">
-        <v>58.43</v>
+        <v>14010</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L38" s="2">
-        <v>19.126022</v>
+        <v>59.6678</v>
       </c>
       <c r="M38" s="3">
-        <v>18.94736842105263</v>
+        <v>87.23404255319149</v>
       </c>
       <c r="N38" s="2">
-        <v>1.0273631</v>
+        <v>8.659808999999999</v>
       </c>
       <c r="O38" s="3">
-        <v>81.05263157894737</v>
+        <v>18.08510638297872</v>
       </c>
       <c r="P38" s="2">
-        <v>11.488</v>
+        <v>34.705</v>
       </c>
       <c r="Q38" s="3">
-        <v>26.31578947368421</v>
+        <v>86.17021276595744</v>
       </c>
       <c r="R38" s="2">
-        <v>1.203</v>
+        <v>8.5</v>
       </c>
       <c r="S38" s="3">
-        <v>86.31578947368421</v>
+        <v>20.21276595744681</v>
       </c>
       <c r="T38" s="4">
-        <v>53.1578947368421</v>
+        <v>52.92553191489362</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3723,61 +3708,61 @@
         <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I39" s="2">
-        <v>10334616576</v>
+        <v>105940541440</v>
       </c>
       <c r="J39" s="2">
-        <v>14010</v>
+        <v>132.54</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L39" s="2">
-        <v>59.6678</v>
+        <v>18.133806</v>
       </c>
       <c r="M39" s="3">
-        <v>88.42105263157895</v>
+        <v>17.02127659574468</v>
       </c>
       <c r="N39" s="2">
-        <v>8.659808999999999</v>
+        <v>1.8135535</v>
       </c>
       <c r="O39" s="3">
-        <v>17.89473684210526</v>
+        <v>67.02127659574468</v>
       </c>
       <c r="P39" s="2">
-        <v>34.705</v>
+        <v>16.873</v>
       </c>
       <c r="Q39" s="3">
-        <v>86.31578947368421</v>
+        <v>57.4468085106383</v>
       </c>
       <c r="R39" s="2">
-        <v>8.5</v>
+        <v>2.242</v>
       </c>
       <c r="S39" s="3">
-        <v>20</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="T39" s="4">
-        <v>53.1578947368421</v>
+        <v>52.92553191489362</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3785,61 +3770,61 @@
         <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="I40" s="2">
-        <v>10535148544</v>
+        <v>18378274816</v>
       </c>
       <c r="J40" s="2">
-        <v>2775</v>
+        <v>237.7</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L40" s="2">
-        <v>51.77239</v>
+        <v>2.9491315</v>
       </c>
       <c r="M40" s="3">
-        <v>82.10526315789474</v>
+        <v>3.191489361702128</v>
       </c>
       <c r="N40" s="2">
-        <v>7.992071</v>
+        <v>0.31748536</v>
       </c>
       <c r="O40" s="3">
-        <v>22.10526315789474</v>
+        <v>98.93617021276596</v>
       </c>
       <c r="P40" s="2">
-        <v>34.106</v>
+        <v>9.334</v>
       </c>
       <c r="Q40" s="3">
-        <v>85.26315789473684</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="R40" s="2">
-        <v>8.065</v>
+        <v>0.499</v>
       </c>
       <c r="S40" s="3">
-        <v>22.10526315789474</v>
+        <v>98.40425531914893</v>
       </c>
       <c r="T40" s="4">
-        <v>52.89473684210526</v>
+        <v>52.79255319148936</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3847,61 +3832,61 @@
         <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>267</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="I41" s="2">
-        <v>18378274816</v>
+        <v>226002419712</v>
       </c>
       <c r="J41" s="2">
-        <v>237.7</v>
+        <v>245.06</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L41" s="2">
-        <v>2.9491315</v>
+        <v>55.949768</v>
       </c>
       <c r="M41" s="3">
-        <v>3.157894736842105</v>
+        <v>82.97872340425532</v>
       </c>
       <c r="N41" s="2">
-        <v>0.31748536</v>
+        <v>10.111965</v>
       </c>
       <c r="O41" s="3">
-        <v>97.89473684210526</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="P41" s="2">
-        <v>9.334</v>
+        <v>61.911</v>
       </c>
       <c r="Q41" s="3">
-        <v>10.52631578947368</v>
+        <v>94.68085106382979</v>
       </c>
       <c r="R41" s="2">
-        <v>0.499</v>
+        <v>9.629</v>
       </c>
       <c r="S41" s="3">
-        <v>98.42105263157895</v>
+        <v>18.08510638297872</v>
       </c>
       <c r="T41" s="4">
-        <v>52.5</v>
+        <v>52.6595744680851</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3909,61 +3894,61 @@
         <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I42" s="2">
-        <v>105940541440</v>
+        <v>352665665536</v>
       </c>
       <c r="J42" s="2">
-        <v>132.54</v>
+        <v>300.21</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L42" s="2">
-        <v>18.133806</v>
+        <v>68.41613</v>
       </c>
       <c r="M42" s="3">
-        <v>17.89473684210526</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="N42" s="2">
-        <v>1.8135535</v>
+        <v>15.4211235</v>
       </c>
       <c r="O42" s="3">
-        <v>66.31578947368421</v>
+        <v>9.574468085106384</v>
       </c>
       <c r="P42" s="2">
-        <v>16.873</v>
+        <v>67.03100000000001</v>
       </c>
       <c r="Q42" s="3">
-        <v>55.78947368421053</v>
+        <v>95.74468085106383</v>
       </c>
       <c r="R42" s="2">
-        <v>2.242</v>
+        <v>14.582</v>
       </c>
       <c r="S42" s="3">
-        <v>69.47368421052632</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="T42" s="4">
-        <v>52.36842105263158</v>
+        <v>51.86170212765958</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3971,61 +3956,61 @@
         <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>266</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I43" s="2">
-        <v>352665665536</v>
+        <v>138076815360</v>
       </c>
       <c r="J43" s="2">
-        <v>300.21</v>
+        <v>195.33</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L43" s="2">
-        <v>68.41613</v>
+        <v>21.305628</v>
       </c>
       <c r="M43" s="3">
-        <v>92.63157894736842</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="N43" s="2">
-        <v>15.4211235</v>
+        <v>1.4635463</v>
       </c>
       <c r="O43" s="3">
-        <v>9.473684210526315</v>
+        <v>71.27659574468085</v>
       </c>
       <c r="P43" s="2">
-        <v>67.03100000000001</v>
+        <v>11.418</v>
       </c>
       <c r="Q43" s="3">
-        <v>95.78947368421052</v>
+        <v>25.53191489361702</v>
       </c>
       <c r="R43" s="2">
-        <v>14.582</v>
+        <v>1.671</v>
       </c>
       <c r="S43" s="3">
-        <v>10.52631578947368</v>
+        <v>78.72340425531915</v>
       </c>
       <c r="T43" s="4">
-        <v>52.10526315789474</v>
+        <v>51.59574468085106</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -4033,61 +4018,61 @@
         <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="I44" s="2">
-        <v>226925559808</v>
+        <v>54453325824</v>
       </c>
       <c r="J44" s="2">
-        <v>245.06</v>
+        <v>190.22</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L44" s="2">
-        <v>51.66772</v>
+        <v>17.292727</v>
       </c>
       <c r="M44" s="3">
-        <v>81.05263157894737</v>
+        <v>15.95744680851064</v>
       </c>
       <c r="N44" s="2">
-        <v>10.153269</v>
+        <v>1.4119883</v>
       </c>
       <c r="O44" s="3">
-        <v>14.73684210526316</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="P44" s="2">
-        <v>63.606</v>
+        <v>12.962</v>
       </c>
       <c r="Q44" s="3">
-        <v>94.73684210526316</v>
+        <v>40.42553191489362</v>
       </c>
       <c r="R44" s="2">
-        <v>9.891999999999999</v>
+        <v>1.719</v>
       </c>
       <c r="S44" s="3">
-        <v>16.84210526315789</v>
+        <v>75.53191489361703</v>
       </c>
       <c r="T44" s="4">
-        <v>51.8421052631579</v>
+        <v>51.59574468085106</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -4095,61 +4080,61 @@
         <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="I45" s="2">
-        <v>128638074880</v>
+        <v>342465413120</v>
       </c>
       <c r="J45" s="2">
-        <v>247.35</v>
+        <v>322.09</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L45" s="2">
-        <v>53.331177</v>
+        <v>23.47937</v>
       </c>
       <c r="M45" s="3">
-        <v>84.21052631578948</v>
+        <v>35.1063829787234</v>
       </c>
       <c r="N45" s="2">
-        <v>4.6361074</v>
+        <v>2.4228187</v>
       </c>
       <c r="O45" s="3">
-        <v>35.78947368421053</v>
+        <v>59.57446808510638</v>
       </c>
       <c r="P45" s="2">
-        <v>15.567</v>
+        <v>14.774</v>
       </c>
       <c r="Q45" s="3">
-        <v>49.47368421052632</v>
+        <v>46.80851063829788</v>
       </c>
       <c r="R45" s="2">
-        <v>5.081</v>
+        <v>2.609</v>
       </c>
       <c r="S45" s="3">
-        <v>36.8421052631579</v>
+        <v>64.8936170212766</v>
       </c>
       <c r="T45" s="4">
-        <v>51.57894736842105</v>
+        <v>51.59574468085106</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -4157,61 +4142,61 @@
         <v>64</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I46" s="2">
-        <v>342465413120</v>
+        <v>10535148544</v>
       </c>
       <c r="J46" s="2">
-        <v>322.09</v>
+        <v>2775</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L46" s="2">
-        <v>23.47937</v>
+        <v>51.77239</v>
       </c>
       <c r="M46" s="3">
-        <v>35.78947368421053</v>
+        <v>78.72340425531915</v>
       </c>
       <c r="N46" s="2">
-        <v>2.4228187</v>
+        <v>7.992071</v>
       </c>
       <c r="O46" s="3">
-        <v>58.94736842105263</v>
+        <v>22.34042553191489</v>
       </c>
       <c r="P46" s="2">
-        <v>15.161</v>
+        <v>32.148</v>
       </c>
       <c r="Q46" s="3">
-        <v>48.42105263157895</v>
+        <v>82.97872340425532</v>
       </c>
       <c r="R46" s="2">
-        <v>2.677</v>
+        <v>8.028</v>
       </c>
       <c r="S46" s="3">
-        <v>62.10526315789474</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="T46" s="4">
-        <v>51.31578947368421</v>
+        <v>51.32978723404256</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -4219,61 +4204,61 @@
         <v>65</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>261</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I47" s="2">
-        <v>138076815360</v>
+        <v>26951419904</v>
       </c>
       <c r="J47" s="2">
-        <v>195.33</v>
+        <v>2938</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L47" s="2">
-        <v>21.305628</v>
+        <v>56.391556</v>
       </c>
       <c r="M47" s="3">
-        <v>31.57894736842105</v>
+        <v>84.04255319148936</v>
       </c>
       <c r="N47" s="2">
-        <v>1.4635463</v>
+        <v>5.017018</v>
       </c>
       <c r="O47" s="3">
-        <v>70.52631578947368</v>
+        <v>32.97872340425532</v>
       </c>
       <c r="P47" s="2">
-        <v>11.418</v>
+        <v>15.699</v>
       </c>
       <c r="Q47" s="3">
-        <v>25.26315789473684</v>
+        <v>52.12765957446808</v>
       </c>
       <c r="R47" s="2">
-        <v>1.671</v>
+        <v>5.301</v>
       </c>
       <c r="S47" s="3">
-        <v>77.89473684210526</v>
+        <v>36.17021276595744</v>
       </c>
       <c r="T47" s="4">
-        <v>51.31578947368421</v>
+        <v>51.32978723404256</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4281,61 +4266,61 @@
         <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="I48" s="2">
-        <v>10656461824</v>
+        <v>128638074880</v>
       </c>
       <c r="J48" s="2">
-        <v>7638</v>
+        <v>247.35</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L48" s="2">
-        <v>49.341084</v>
+        <v>53.331177</v>
       </c>
       <c r="M48" s="3">
-        <v>77.89473684210526</v>
+        <v>80.85106382978724</v>
       </c>
       <c r="N48" s="2">
-        <v>7.664865</v>
+        <v>4.6361074</v>
       </c>
       <c r="O48" s="3">
-        <v>23.15789473684211</v>
+        <v>36.17021276595744</v>
       </c>
       <c r="P48" s="2">
-        <v>30.859</v>
+        <v>15.567</v>
       </c>
       <c r="Q48" s="3">
-        <v>82.10526315789474</v>
+        <v>50</v>
       </c>
       <c r="R48" s="2">
-        <v>8.206</v>
+        <v>5.081</v>
       </c>
       <c r="S48" s="3">
-        <v>21.05263157894737</v>
+        <v>37.23404255319149</v>
       </c>
       <c r="T48" s="4">
-        <v>51.05263157894737</v>
+        <v>51.06382978723404</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4343,61 +4328,61 @@
         <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="I49" s="2">
-        <v>54453325824</v>
+        <v>77429391360</v>
       </c>
       <c r="J49" s="2">
-        <v>190.22</v>
+        <v>100.66</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L49" s="2">
-        <v>17.292727</v>
+        <v>58.557304</v>
       </c>
       <c r="M49" s="3">
-        <v>15.78947368421053</v>
+        <v>86.17021276595744</v>
       </c>
       <c r="N49" s="2">
-        <v>1.4119883</v>
+        <v>3.3014708</v>
       </c>
       <c r="O49" s="3">
-        <v>73.68421052631579</v>
+        <v>45.74468085106383</v>
       </c>
       <c r="P49" s="2">
-        <v>12.962</v>
+        <v>13.1</v>
       </c>
       <c r="Q49" s="3">
-        <v>40</v>
+        <v>41.48936170212766</v>
       </c>
       <c r="R49" s="2">
-        <v>1.719</v>
+        <v>6.167</v>
       </c>
       <c r="S49" s="3">
-        <v>74.73684210526316</v>
+        <v>29.78723404255319</v>
       </c>
       <c r="T49" s="4">
-        <v>51.05263157894737</v>
+        <v>50.79787234042553</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4405,61 +4390,61 @@
         <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="I50" s="2">
-        <v>77429391360</v>
+        <v>26303150080</v>
       </c>
       <c r="J50" s="2">
-        <v>100.66</v>
+        <v>10.088</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L50" s="2">
-        <v>58.557304</v>
+        <v>11.662428</v>
       </c>
       <c r="M50" s="3">
-        <v>87.36842105263158</v>
+        <v>7.446808510638298</v>
       </c>
       <c r="N50" s="2">
-        <v>3.3014708</v>
+        <v>0.42180875</v>
       </c>
       <c r="O50" s="3">
-        <v>45.26315789473684</v>
+        <v>94.68085106382979</v>
       </c>
       <c r="P50" s="2">
-        <v>13.1</v>
+        <v>8.718</v>
       </c>
       <c r="Q50" s="3">
-        <v>41.05263157894737</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="R50" s="2">
-        <v>6.167</v>
+        <v>0.992</v>
       </c>
       <c r="S50" s="3">
-        <v>29.47368421052632</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="T50" s="4">
-        <v>50.78947368421053</v>
+        <v>50.53191489361702</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4467,61 +4452,61 @@
         <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="I51" s="2">
-        <v>155816689664</v>
+        <v>138946838528</v>
       </c>
       <c r="J51" s="2">
-        <v>224.34</v>
+        <v>736.47</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L51" s="2">
-        <v>34.344765</v>
+        <v>41.62493</v>
       </c>
       <c r="M51" s="3">
-        <v>60</v>
+        <v>72.34042553191489</v>
       </c>
       <c r="N51" s="2">
-        <v>4.7755513</v>
+        <v>2.8425531</v>
       </c>
       <c r="O51" s="3">
-        <v>33.68421052631579</v>
+        <v>55.31914893617022</v>
       </c>
       <c r="P51" s="2">
-        <v>21.374</v>
+        <v>12.094</v>
       </c>
       <c r="Q51" s="3">
-        <v>70.52631578947368</v>
+        <v>34.04255319148936</v>
       </c>
       <c r="R51" s="2">
-        <v>5.011</v>
+        <v>4.605</v>
       </c>
       <c r="S51" s="3">
-        <v>37.89473684210526</v>
+        <v>40.42553191489362</v>
       </c>
       <c r="T51" s="4">
-        <v>50.52631578947368</v>
+        <v>50.53191489361702</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4529,61 +4514,61 @@
         <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="I52" s="2">
-        <v>26303150080</v>
+        <v>10656461824</v>
       </c>
       <c r="J52" s="2">
-        <v>10.088</v>
+        <v>7638</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L52" s="2">
-        <v>11.662428</v>
+        <v>49.341084</v>
       </c>
       <c r="M52" s="3">
-        <v>7.368421052631579</v>
+        <v>75.53191489361703</v>
       </c>
       <c r="N52" s="2">
-        <v>0.42180875</v>
+        <v>7.664865</v>
       </c>
       <c r="O52" s="3">
-        <v>93.68421052631579</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="P52" s="2">
-        <v>8.718</v>
+        <v>29.214</v>
       </c>
       <c r="Q52" s="3">
-        <v>8.421052631578947</v>
+        <v>80.85106382978724</v>
       </c>
       <c r="R52" s="2">
-        <v>0.992</v>
+        <v>7.768</v>
       </c>
       <c r="S52" s="3">
-        <v>91.57894736842105</v>
+        <v>22.34042553191489</v>
       </c>
       <c r="T52" s="4">
-        <v>50.26315789473684</v>
+        <v>50.53191489361702</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4591,123 +4576,61 @@
         <v>71</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="I53" s="2">
-        <v>27086981120</v>
+        <v>126344896512</v>
       </c>
       <c r="J53" s="2">
-        <v>2938</v>
+        <v>212.8</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L53" s="2">
-        <v>46.634922</v>
+        <v>9.547739</v>
       </c>
       <c r="M53" s="3">
-        <v>75.78947368421052</v>
+        <v>5.319148936170213</v>
       </c>
       <c r="N53" s="2">
-        <v>5.0422525</v>
+        <v>0.5488341</v>
       </c>
       <c r="O53" s="3">
-        <v>31.57894736842105</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="P53" s="2">
-        <v>19.298</v>
+        <v>9.909000000000001</v>
       </c>
       <c r="Q53" s="3">
-        <v>62.10526315789474</v>
+        <v>15.95744680851064</v>
       </c>
       <c r="R53" s="2">
-        <v>5.787</v>
+        <v>1.17</v>
       </c>
       <c r="S53" s="3">
-        <v>31.57894736842105</v>
+        <v>88.29787234042553</v>
       </c>
       <c r="T53" s="4">
-        <v>50.26315789473684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I54" s="2">
-        <v>138946838528</v>
-      </c>
-      <c r="J54" s="2">
-        <v>736.47</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L54" s="2">
-        <v>41.62493</v>
-      </c>
-      <c r="M54" s="3">
-        <v>72.63157894736842</v>
-      </c>
-      <c r="N54" s="2">
-        <v>2.8425531</v>
-      </c>
-      <c r="O54" s="3">
-        <v>54.73684210526316</v>
-      </c>
-      <c r="P54" s="2">
-        <v>12.094</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>31.57894736842105</v>
-      </c>
-      <c r="R54" s="2">
-        <v>4.605</v>
-      </c>
-      <c r="S54" s="3">
-        <v>41.05263157894737</v>
-      </c>
-      <c r="T54" s="4">
-        <v>50</v>
+        <v>50.26595744680851</v>
       </c>
     </row>
   </sheetData>
